--- a/result/BO_TransformerCNN_CS2_37_predictions.xlsx
+++ b/result/BO_TransformerCNN_CS2_37_predictions.xlsx
@@ -557,7 +557,7 @@
         <v>1.087484639385141</v>
       </c>
       <c r="C11" t="n">
-        <v>1.087484639385141</v>
+        <v>1.083128690719604</v>
       </c>
     </row>
     <row r="12">
@@ -568,7 +568,7 @@
         <v>1.094575472536756</v>
       </c>
       <c r="C12" t="n">
-        <v>1.094575472536756</v>
+        <v>1.082862019538879</v>
       </c>
     </row>
     <row r="13">
@@ -579,7 +579,7 @@
         <v>1.09573443619506</v>
       </c>
       <c r="C13" t="n">
-        <v>1.09573443619506</v>
+        <v>1.082190871238708</v>
       </c>
     </row>
     <row r="14">
@@ -590,7 +590,7 @@
         <v>1.095762108609611</v>
       </c>
       <c r="C14" t="n">
-        <v>1.103434085845947</v>
+        <v>1.08129870891571</v>
       </c>
     </row>
     <row r="15">
@@ -601,7 +601,7 @@
         <v>1.095513719369226</v>
       </c>
       <c r="C15" t="n">
-        <v>1.10363495349884</v>
+        <v>1.080668210983276</v>
       </c>
     </row>
     <row r="16">
@@ -612,7 +612,7 @@
         <v>1.095264913202147</v>
       </c>
       <c r="C16" t="n">
-        <v>1.103571891784668</v>
+        <v>1.079849362373352</v>
       </c>
     </row>
     <row r="17">
@@ -623,7 +623,7 @@
         <v>1.094706730011207</v>
       </c>
       <c r="C17" t="n">
-        <v>1.102950096130371</v>
+        <v>1.079606533050537</v>
       </c>
     </row>
     <row r="18">
@@ -634,7 +634,7 @@
         <v>1.09432570467824</v>
       </c>
       <c r="C18" t="n">
-        <v>1.102536201477051</v>
+        <v>1.079917073249817</v>
       </c>
     </row>
     <row r="19">
@@ -645,7 +645,7 @@
         <v>1.093701175355006</v>
       </c>
       <c r="C19" t="n">
-        <v>1.102119088172913</v>
+        <v>1.080263376235962</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>1.093135248769229</v>
       </c>
       <c r="C20" t="n">
-        <v>1.10149359703064</v>
+        <v>1.080230236053467</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>1.09263568469262</v>
       </c>
       <c r="C21" t="n">
-        <v>1.101229429244995</v>
+        <v>1.080031633377075</v>
       </c>
     </row>
     <row r="22">
@@ -678,7 +678,7 @@
         <v>1.08881537177647</v>
       </c>
       <c r="C22" t="n">
-        <v>1.100396990776062</v>
+        <v>1.079062104225159</v>
       </c>
     </row>
     <row r="23">
@@ -689,7 +689,7 @@
         <v>1.088509222717452</v>
       </c>
       <c r="C23" t="n">
-        <v>1.097561240196228</v>
+        <v>1.078438282012939</v>
       </c>
     </row>
     <row r="24">
@@ -700,7 +700,7 @@
         <v>1.088208588251144</v>
       </c>
       <c r="C24" t="n">
-        <v>1.096305131912231</v>
+        <v>1.07786500453949</v>
       </c>
     </row>
     <row r="25">
@@ -711,7 +711,7 @@
         <v>1.087727939093598</v>
       </c>
       <c r="C25" t="n">
-        <v>1.095548868179321</v>
+        <v>1.077371120452881</v>
       </c>
     </row>
     <row r="26">
@@ -722,7 +722,7 @@
         <v>1.087289431892091</v>
       </c>
       <c r="C26" t="n">
-        <v>1.095140933990479</v>
+        <v>1.076618313789368</v>
       </c>
     </row>
     <row r="27">
@@ -733,7 +733,7 @@
         <v>1.079865272373556</v>
       </c>
       <c r="C27" t="n">
-        <v>1.093946814537048</v>
+        <v>1.074548363685608</v>
       </c>
     </row>
     <row r="28">
@@ -744,7 +744,7 @@
         <v>1.069449850928546</v>
       </c>
       <c r="C28" t="n">
-        <v>1.086945176124573</v>
+        <v>1.070270657539368</v>
       </c>
     </row>
     <row r="29">
@@ -755,7 +755,7 @@
         <v>1.067894979287813</v>
       </c>
       <c r="C29" t="n">
-        <v>1.07646656036377</v>
+        <v>1.067364096641541</v>
       </c>
     </row>
     <row r="30">
@@ -766,7 +766,7 @@
         <v>1.061954440601411</v>
       </c>
       <c r="C30" t="n">
-        <v>1.072289705276489</v>
+        <v>1.063156127929688</v>
       </c>
     </row>
     <row r="31">
@@ -777,7 +777,7 @@
         <v>1.060438386981147</v>
       </c>
       <c r="C31" t="n">
-        <v>1.069098591804504</v>
+        <v>1.059850454330444</v>
       </c>
     </row>
     <row r="32">
@@ -788,7 +788,7 @@
         <v>1.0692825977399</v>
       </c>
       <c r="C32" t="n">
-        <v>1.06702184677124</v>
+        <v>1.059486746788025</v>
       </c>
     </row>
     <row r="33">
@@ -799,7 +799,7 @@
         <v>1.074870171494901</v>
       </c>
       <c r="C33" t="n">
-        <v>1.06930673122406</v>
+        <v>1.058914184570312</v>
       </c>
     </row>
     <row r="34">
@@ -810,7 +810,7 @@
         <v>1.0694893704477</v>
       </c>
       <c r="C34" t="n">
-        <v>1.07215416431427</v>
+        <v>1.056291222572327</v>
       </c>
     </row>
     <row r="35">
@@ -821,7 +821,7 @@
         <v>1.059428565981575</v>
       </c>
       <c r="C35" t="n">
-        <v>1.069026112556458</v>
+        <v>1.052302241325378</v>
       </c>
     </row>
     <row r="36">
@@ -832,7 +832,7 @@
         <v>1.057528246690973</v>
       </c>
       <c r="C36" t="n">
-        <v>1.062790274620056</v>
+        <v>1.050332427024841</v>
       </c>
     </row>
     <row r="37">
@@ -843,7 +843,7 @@
         <v>1.052708674169851</v>
       </c>
       <c r="C37" t="n">
-        <v>1.058884859085083</v>
+        <v>1.048677682876587</v>
       </c>
     </row>
     <row r="38">
@@ -854,7 +854,7 @@
         <v>1.051415298047623</v>
       </c>
       <c r="C38" t="n">
-        <v>1.055619120597839</v>
+        <v>1.047816753387451</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>1.060664682727378</v>
       </c>
       <c r="C39" t="n">
-        <v>1.054792404174805</v>
+        <v>1.048890590667725</v>
       </c>
     </row>
     <row r="40">
@@ -876,7 +876,7 @@
         <v>1.06629825746018</v>
       </c>
       <c r="C40" t="n">
-        <v>1.059320569038391</v>
+        <v>1.049455165863037</v>
       </c>
     </row>
     <row r="41">
@@ -887,7 +887,7 @@
         <v>1.066797802377843</v>
       </c>
       <c r="C41" t="n">
-        <v>1.063198924064636</v>
+        <v>1.048917889595032</v>
       </c>
     </row>
     <row r="42">
@@ -898,7 +898,7 @@
         <v>1.050711716697463</v>
       </c>
       <c r="C42" t="n">
-        <v>1.063748955726624</v>
+        <v>1.045700430870056</v>
       </c>
     </row>
     <row r="43">
@@ -909,7 +909,7 @@
         <v>1.050165123934831</v>
       </c>
       <c r="C43" t="n">
-        <v>1.054782032966614</v>
+        <v>1.044015407562256</v>
       </c>
     </row>
     <row r="44">
@@ -920,7 +920,7 @@
         <v>1.049639202225427</v>
       </c>
       <c r="C44" t="n">
-        <v>1.050959348678589</v>
+        <v>1.043404698371887</v>
       </c>
     </row>
     <row r="45">
@@ -931,7 +931,7 @@
         <v>1.048510902538505</v>
       </c>
       <c r="C45" t="n">
-        <v>1.050199508666992</v>
+        <v>1.043018817901611</v>
       </c>
     </row>
     <row r="46">
@@ -942,7 +942,7 @@
         <v>1.050782482442641</v>
       </c>
       <c r="C46" t="n">
-        <v>1.049994707107544</v>
+        <v>1.043404817581177</v>
       </c>
     </row>
     <row r="47">
@@ -953,7 +953,7 @@
         <v>1.058252324306494</v>
       </c>
       <c r="C47" t="n">
-        <v>1.051034569740295</v>
+        <v>1.043872833251953</v>
       </c>
     </row>
     <row r="48">
@@ -964,7 +964,7 @@
         <v>1.059199498861465</v>
       </c>
       <c r="C48" t="n">
-        <v>1.054998636245728</v>
+        <v>1.043574452400208</v>
       </c>
     </row>
     <row r="49">
@@ -975,7 +975,7 @@
         <v>1.048074580282639</v>
       </c>
       <c r="C49" t="n">
-        <v>1.055816054344177</v>
+        <v>1.041049599647522</v>
       </c>
     </row>
     <row r="50">
@@ -986,7 +986,7 @@
         <v>1.043127003755951</v>
       </c>
       <c r="C50" t="n">
-        <v>1.049495697021484</v>
+        <v>1.038963079452515</v>
       </c>
     </row>
     <row r="51">
@@ -997,7 +997,7 @@
         <v>1.042384173707584</v>
       </c>
       <c r="C51" t="n">
-        <v>1.045416951179504</v>
+        <v>1.038068056106567</v>
       </c>
     </row>
     <row r="52">
@@ -1008,7 +1008,7 @@
         <v>1.041576793270368</v>
       </c>
       <c r="C52" t="n">
-        <v>1.043889880180359</v>
+        <v>1.037444353103638</v>
       </c>
     </row>
     <row r="53">
@@ -1019,7 +1019,7 @@
         <v>1.087456803032094</v>
       </c>
       <c r="C53" t="n">
-        <v>1.044894933700562</v>
+        <v>1.047735691070557</v>
       </c>
     </row>
     <row r="54">
@@ -1030,7 +1030,7 @@
         <v>1.08528139735376</v>
       </c>
       <c r="C54" t="n">
-        <v>1.083923935890198</v>
+        <v>1.052036762237549</v>
       </c>
     </row>
     <row r="55">
@@ -1041,7 +1041,7 @@
         <v>1.087495396453246</v>
       </c>
       <c r="C55" t="n">
-        <v>1.088126301765442</v>
+        <v>1.055732011795044</v>
       </c>
     </row>
     <row r="56">
@@ -1052,7 +1052,7 @@
         <v>1.087183726669933</v>
       </c>
       <c r="C56" t="n">
-        <v>1.091247916221619</v>
+        <v>1.058468818664551</v>
       </c>
     </row>
     <row r="57">
@@ -1063,7 +1063,7 @@
         <v>1.077637429389466</v>
       </c>
       <c r="C57" t="n">
-        <v>1.091385006904602</v>
+        <v>1.059595942497253</v>
       </c>
     </row>
     <row r="58">
@@ -1074,7 +1074,7 @@
         <v>1.070872449503417</v>
       </c>
       <c r="C58" t="n">
-        <v>1.080615401268005</v>
+        <v>1.060501456260681</v>
       </c>
     </row>
     <row r="59">
@@ -1085,7 +1085,7 @@
         <v>1.069915833887921</v>
       </c>
       <c r="C59" t="n">
-        <v>1.072915434837341</v>
+        <v>1.062393546104431</v>
       </c>
     </row>
     <row r="60">
@@ -1096,7 +1096,7 @@
         <v>1.059997389667432</v>
       </c>
       <c r="C60" t="n">
-        <v>1.071452856063843</v>
+        <v>1.060768127441406</v>
       </c>
     </row>
     <row r="61">
@@ -1107,7 +1107,7 @@
         <v>1.061958141243365</v>
       </c>
       <c r="C61" t="n">
-        <v>1.067440867424011</v>
+        <v>1.059892773628235</v>
       </c>
     </row>
     <row r="62">
@@ -1118,7 +1118,7 @@
         <v>1.060535074950135</v>
       </c>
       <c r="C62" t="n">
-        <v>1.066324591636658</v>
+        <v>1.056595206260681</v>
       </c>
     </row>
     <row r="63">
@@ -1129,7 +1129,7 @@
         <v>1.051836003854885</v>
       </c>
       <c r="C63" t="n">
-        <v>1.064449787139893</v>
+        <v>1.052084565162659</v>
       </c>
     </row>
     <row r="64">
@@ -1140,7 +1140,7 @@
         <v>1.051053496488845</v>
       </c>
       <c r="C64" t="n">
-        <v>1.058899521827698</v>
+        <v>1.049014210700989</v>
       </c>
     </row>
     <row r="65">
@@ -1151,7 +1151,7 @@
         <v>1.050166535136412</v>
       </c>
       <c r="C65" t="n">
-        <v>1.055347204208374</v>
+        <v>1.046396613121033</v>
       </c>
     </row>
     <row r="66">
@@ -1162,7 +1162,7 @@
         <v>1.044471626318599</v>
       </c>
       <c r="C66" t="n">
-        <v>1.052696704864502</v>
+        <v>1.043393492698669</v>
       </c>
     </row>
     <row r="67">
@@ -1173,7 +1173,7 @@
         <v>1.042316698804884</v>
       </c>
       <c r="C67" t="n">
-        <v>1.048865079879761</v>
+        <v>1.040775179862976</v>
       </c>
     </row>
     <row r="68">
@@ -1184,7 +1184,7 @@
         <v>1.043772562239976</v>
       </c>
       <c r="C68" t="n">
-        <v>1.04631769657135</v>
+        <v>1.039279460906982</v>
       </c>
     </row>
     <row r="69">
@@ -1195,7 +1195,7 @@
         <v>1.043447195353287</v>
       </c>
       <c r="C69" t="n">
-        <v>1.045354247093201</v>
+        <v>1.037554025650024</v>
       </c>
     </row>
     <row r="70">
@@ -1206,7 +1206,7 @@
         <v>1.040532122189044</v>
       </c>
       <c r="C70" t="n">
-        <v>1.044094562530518</v>
+        <v>1.035658240318298</v>
       </c>
     </row>
     <row r="71">
@@ -1217,7 +1217,7 @@
         <v>1.03489248004495</v>
       </c>
       <c r="C71" t="n">
-        <v>1.042070984840393</v>
+        <v>1.033047437667847</v>
       </c>
     </row>
     <row r="72">
@@ -1228,7 +1228,7 @@
         <v>1.03471684641804</v>
       </c>
       <c r="C72" t="n">
-        <v>1.03868579864502</v>
+        <v>1.031400203704834</v>
       </c>
     </row>
     <row r="73">
@@ -1239,7 +1239,7 @@
         <v>1.034135735694405</v>
       </c>
       <c r="C73" t="n">
-        <v>1.037099361419678</v>
+        <v>1.030252456665039</v>
       </c>
     </row>
     <row r="74">
@@ -1250,7 +1250,7 @@
         <v>1.032167952478061</v>
       </c>
       <c r="C74" t="n">
-        <v>1.036045551300049</v>
+        <v>1.028913974761963</v>
       </c>
     </row>
     <row r="75">
@@ -1261,7 +1261,7 @@
         <v>1.0347642617383</v>
       </c>
       <c r="C75" t="n">
-        <v>1.034879922866821</v>
+        <v>1.028326988220215</v>
       </c>
     </row>
     <row r="76">
@@ -1272,7 +1272,7 @@
         <v>1.034597355471061</v>
       </c>
       <c r="C76" t="n">
-        <v>1.035279512405396</v>
+        <v>1.027572989463806</v>
       </c>
     </row>
     <row r="77">
@@ -1283,7 +1283,7 @@
         <v>1.034089714974139</v>
       </c>
       <c r="C77" t="n">
-        <v>1.034876346588135</v>
+        <v>1.02669095993042</v>
       </c>
     </row>
     <row r="78">
@@ -1294,7 +1294,7 @@
         <v>1.033459644919352</v>
       </c>
       <c r="C78" t="n">
-        <v>1.034312605857849</v>
+        <v>1.026194095611572</v>
       </c>
     </row>
     <row r="79">
@@ -1305,7 +1305,7 @@
         <v>1.032944700057437</v>
       </c>
       <c r="C79" t="n">
-        <v>1.033617734909058</v>
+        <v>1.025617480278015</v>
       </c>
     </row>
     <row r="80">
@@ -1316,7 +1316,7 @@
         <v>0.9206629631993534</v>
       </c>
       <c r="C80" t="n">
-        <v>1.030035018920898</v>
+        <v>0.9970878958702087</v>
       </c>
     </row>
     <row r="81">
@@ -1327,7 +1327,7 @@
         <v>1.0326349475335</v>
       </c>
       <c r="C81" t="n">
-        <v>1.025272488594055</v>
+        <v>1.016884207725525</v>
       </c>
     </row>
     <row r="82">
@@ -1338,7 +1338,7 @@
         <v>1.031854126902701</v>
       </c>
       <c r="C82" t="n">
-        <v>1.0308598279953</v>
+        <v>1.019024610519409</v>
       </c>
     </row>
     <row r="83">
@@ -1349,7 +1349,7 @@
         <v>1.03136730093085</v>
       </c>
       <c r="C83" t="n">
-        <v>1.03208601474762</v>
+        <v>1.019906997680664</v>
       </c>
     </row>
     <row r="84">
@@ -1360,7 +1360,7 @@
         <v>1.030823847354896</v>
       </c>
       <c r="C84" t="n">
-        <v>1.031823039054871</v>
+        <v>1.018924832344055</v>
       </c>
     </row>
     <row r="85">
@@ -1371,7 +1371,7 @@
         <v>1.030128290109489</v>
       </c>
       <c r="C85" t="n">
-        <v>1.03118884563446</v>
+        <v>1.018020987510681</v>
       </c>
     </row>
     <row r="86">
@@ -1382,7 +1382,7 @@
         <v>1.025449089688058</v>
       </c>
       <c r="C86" t="n">
-        <v>1.030426621437073</v>
+        <v>1.017099618911743</v>
       </c>
     </row>
     <row r="87">
@@ -1393,7 +1393,7 @@
         <v>1.025014888707211</v>
       </c>
       <c r="C87" t="n">
-        <v>1.028136730194092</v>
+        <v>1.017862439155579</v>
       </c>
     </row>
     <row r="88">
@@ -1404,7 +1404,7 @@
         <v>1.024947075359285</v>
       </c>
       <c r="C88" t="n">
-        <v>1.027373909950256</v>
+        <v>1.019265413284302</v>
       </c>
     </row>
     <row r="89">
@@ -1415,7 +1415,7 @@
         <v>0.9122446502294078</v>
       </c>
       <c r="C89" t="n">
-        <v>1.023841619491577</v>
+        <v>0.9899468421936035</v>
       </c>
     </row>
     <row r="90">
@@ -1426,7 +1426,7 @@
         <v>1.023864782940982</v>
       </c>
       <c r="C90" t="n">
-        <v>1.019794583320618</v>
+        <v>1.011165380477905</v>
       </c>
     </row>
     <row r="91">
@@ -1437,7 +1437,7 @@
         <v>1.023542449203207</v>
       </c>
       <c r="C91" t="n">
-        <v>1.023924589157104</v>
+        <v>1.012840151786804</v>
       </c>
     </row>
     <row r="92">
@@ -1448,7 +1448,7 @@
         <v>0.9041430117093464</v>
       </c>
       <c r="C92" t="n">
-        <v>1.021604180335999</v>
+        <v>0.9815566539764404</v>
       </c>
     </row>
     <row r="93">
@@ -1459,7 +1459,7 @@
         <v>1.008244180478403</v>
       </c>
       <c r="C93" t="n">
-        <v>1.016508936882019</v>
+        <v>0.9974650144577026</v>
       </c>
     </row>
     <row r="94">
@@ -1470,7 +1470,7 @@
         <v>1.007446918585444</v>
       </c>
       <c r="C94" t="n">
-        <v>1.013856291770935</v>
+        <v>0.997065544128418</v>
       </c>
     </row>
     <row r="95">
@@ -1481,7 +1481,7 @@
         <v>1.006737359170378</v>
       </c>
       <c r="C95" t="n">
-        <v>1.013081192970276</v>
+        <v>0.996832013130188</v>
       </c>
     </row>
     <row r="96">
@@ -1492,7 +1492,7 @@
         <v>1.0242034930515</v>
       </c>
       <c r="C96" t="n">
-        <v>1.012650370597839</v>
+        <v>1.000416874885559</v>
       </c>
     </row>
     <row r="97">
@@ -1503,7 +1503,7 @@
         <v>1.023685906629283</v>
       </c>
       <c r="C97" t="n">
-        <v>1.021616220474243</v>
+        <v>1.003042697906494</v>
       </c>
     </row>
     <row r="98">
@@ -1514,7 +1514,7 @@
         <v>1.023035722059109</v>
       </c>
       <c r="C98" t="n">
-        <v>1.023288607597351</v>
+        <v>1.005972862243652</v>
       </c>
     </row>
     <row r="99">
@@ -1525,7 +1525,7 @@
         <v>1.030308319294684</v>
       </c>
       <c r="C99" t="n">
-        <v>1.023231983184814</v>
+        <v>1.009276628494263</v>
       </c>
     </row>
     <row r="100">
@@ -1536,7 +1536,7 @@
         <v>1.031131438520853</v>
       </c>
       <c r="C100" t="n">
-        <v>1.027177453041077</v>
+        <v>1.012837529182434</v>
       </c>
     </row>
     <row r="101">
@@ -1547,7 +1547,7 @@
         <v>1.024230328826458</v>
       </c>
       <c r="C101" t="n">
-        <v>1.02862823009491</v>
+        <v>1.01593005657196</v>
       </c>
     </row>
     <row r="102">
@@ -1558,7 +1558,7 @@
         <v>1.016614075681691</v>
       </c>
       <c r="C102" t="n">
-        <v>1.025698304176331</v>
+        <v>1.015771150588989</v>
       </c>
     </row>
     <row r="103">
@@ -1569,7 +1569,7 @@
         <v>1.0166026435114</v>
       </c>
       <c r="C103" t="n">
-        <v>1.021751523017883</v>
+        <v>1.015941500663757</v>
       </c>
     </row>
     <row r="104">
@@ -1580,7 +1580,7 @@
         <v>1.016308599021087</v>
       </c>
       <c r="C104" t="n">
-        <v>1.020503282546997</v>
+        <v>1.015948414802551</v>
       </c>
     </row>
     <row r="105">
@@ -1591,7 +1591,7 @@
         <v>1.015045634046538</v>
       </c>
       <c r="C105" t="n">
-        <v>1.020296216011047</v>
+        <v>1.015238404273987</v>
       </c>
     </row>
     <row r="106">
@@ -1602,7 +1602,7 @@
         <v>1.022116977198576</v>
       </c>
       <c r="C106" t="n">
-        <v>1.020171403884888</v>
+        <v>1.01591169834137</v>
       </c>
     </row>
     <row r="107">
@@ -1613,7 +1613,7 @@
         <v>1.023577823150329</v>
       </c>
       <c r="C107" t="n">
-        <v>1.022735357284546</v>
+        <v>1.01553750038147</v>
       </c>
     </row>
     <row r="108">
@@ -1624,7 +1624,7 @@
         <v>1.02383263612445</v>
       </c>
       <c r="C108" t="n">
-        <v>1.023767948150635</v>
+        <v>1.014931917190552</v>
       </c>
     </row>
     <row r="109">
@@ -1635,7 +1635,7 @@
         <v>1.013188748226209</v>
       </c>
       <c r="C109" t="n">
-        <v>1.023544669151306</v>
+        <v>1.012654662132263</v>
       </c>
     </row>
     <row r="110">
@@ -1646,7 +1646,7 @@
         <v>0.8948926587988703</v>
       </c>
       <c r="C110" t="n">
-        <v>1.015350103378296</v>
+        <v>0.9777869582176208</v>
       </c>
     </row>
     <row r="111">
@@ -1657,7 +1657,7 @@
         <v>1.012015257052343</v>
       </c>
       <c r="C111" t="n">
-        <v>1.010863423347473</v>
+        <v>1.001490950584412</v>
       </c>
     </row>
     <row r="112">
@@ -1668,7 +1668,7 @@
         <v>1.006922595781153</v>
       </c>
       <c r="C112" t="n">
-        <v>1.013875961303711</v>
+        <v>1.003263473510742</v>
       </c>
     </row>
     <row r="113">
@@ -1679,7 +1679,7 @@
         <v>1.005141119296795</v>
       </c>
       <c r="C113" t="n">
-        <v>1.013381600379944</v>
+        <v>1.002753734588623</v>
       </c>
     </row>
     <row r="114">
@@ -1690,7 +1690,7 @@
         <v>1.015586780844971</v>
       </c>
       <c r="C114" t="n">
-        <v>1.012367248535156</v>
+        <v>1.00262451171875</v>
       </c>
     </row>
     <row r="115">
@@ -1701,7 +1701,7 @@
         <v>1.020129080054902</v>
       </c>
       <c r="C115" t="n">
-        <v>1.016072869300842</v>
+        <v>1.00274646282196</v>
       </c>
     </row>
     <row r="116">
@@ -1712,7 +1712,7 @@
         <v>1.007339027303895</v>
       </c>
       <c r="C116" t="n">
-        <v>1.018893241882324</v>
+        <v>1.000214338302612</v>
       </c>
     </row>
     <row r="117">
@@ -1723,7 +1723,7 @@
         <v>1.004941754234515</v>
       </c>
       <c r="C117" t="n">
-        <v>1.013412237167358</v>
+        <v>0.9997017383575439</v>
       </c>
     </row>
     <row r="118">
@@ -1734,7 +1734,7 @@
         <v>1.004688263167553</v>
       </c>
       <c r="C118" t="n">
-        <v>1.009837985038757</v>
+        <v>1.001146674156189</v>
       </c>
     </row>
     <row r="119">
@@ -1745,7 +1745,7 @@
         <v>1.004998999893007</v>
       </c>
       <c r="C119" t="n">
-        <v>1.008907794952393</v>
+        <v>1.003852128982544</v>
       </c>
     </row>
     <row r="120">
@@ -1756,7 +1756,7 @@
         <v>0.9971640938600319</v>
       </c>
       <c r="C120" t="n">
-        <v>1.008790731430054</v>
+        <v>1.001875400543213</v>
       </c>
     </row>
     <row r="121">
@@ -1767,7 +1767,7 @@
         <v>1.011884418535537</v>
       </c>
       <c r="C121" t="n">
-        <v>1.006455063819885</v>
+        <v>1.004085540771484</v>
       </c>
     </row>
     <row r="122">
@@ -1778,7 +1778,7 @@
         <v>1.013241072550811</v>
       </c>
       <c r="C122" t="n">
-        <v>1.011753559112549</v>
+        <v>1.004327654838562</v>
       </c>
     </row>
     <row r="123">
@@ -1789,7 +1789,7 @@
         <v>1.013600100931698</v>
       </c>
       <c r="C123" t="n">
-        <v>1.01363205909729</v>
+        <v>1.003921031951904</v>
       </c>
     </row>
     <row r="124">
@@ -1800,7 +1800,7 @@
         <v>1.01507765305954</v>
       </c>
       <c r="C124" t="n">
-        <v>1.014227986335754</v>
+        <v>1.004249215126038</v>
       </c>
     </row>
     <row r="125">
@@ -1811,7 +1811,7 @@
         <v>1.015726339483435</v>
       </c>
       <c r="C125" t="n">
-        <v>1.015159487724304</v>
+        <v>1.005449891090393</v>
       </c>
     </row>
     <row r="126">
@@ -1822,7 +1822,7 @@
         <v>1.019705665700135</v>
       </c>
       <c r="C126" t="n">
-        <v>1.016064882278442</v>
+        <v>1.007527589797974</v>
       </c>
     </row>
     <row r="127">
@@ -1833,7 +1833,7 @@
         <v>1.020107297871706</v>
       </c>
       <c r="C127" t="n">
-        <v>1.018844962120056</v>
+        <v>1.009411454200745</v>
       </c>
     </row>
     <row r="128">
@@ -1844,7 +1844,7 @@
         <v>1.020744932502257</v>
       </c>
       <c r="C128" t="n">
-        <v>1.019943833351135</v>
+        <v>1.011005997657776</v>
       </c>
     </row>
     <row r="129">
@@ -1855,7 +1855,7 @@
         <v>1.020663922368969</v>
       </c>
       <c r="C129" t="n">
-        <v>1.020642876625061</v>
+        <v>1.012344479560852</v>
       </c>
     </row>
     <row r="130">
@@ -1866,7 +1866,7 @@
         <v>1.020957380274436</v>
       </c>
       <c r="C130" t="n">
-        <v>1.021062612533569</v>
+        <v>1.013086557388306</v>
       </c>
     </row>
     <row r="131">
@@ -1877,7 +1877,7 @@
         <v>1.021144178469377</v>
       </c>
       <c r="C131" t="n">
-        <v>1.021409392356873</v>
+        <v>1.013935923576355</v>
       </c>
     </row>
     <row r="132">
@@ -1888,7 +1888,7 @@
         <v>1.021401817317005</v>
       </c>
       <c r="C132" t="n">
-        <v>1.02183210849762</v>
+        <v>1.014342308044434</v>
       </c>
     </row>
     <row r="133">
@@ -1899,7 +1899,7 @@
         <v>1.02159836959561</v>
       </c>
       <c r="C133" t="n">
-        <v>1.022170424461365</v>
+        <v>1.014981150627136</v>
       </c>
     </row>
     <row r="134">
@@ -1910,7 +1910,7 @@
         <v>1.021684768745753</v>
       </c>
       <c r="C134" t="n">
-        <v>1.022598624229431</v>
+        <v>1.015189170837402</v>
       </c>
     </row>
     <row r="135">
@@ -1921,7 +1921,7 @@
         <v>1.021690303278388</v>
       </c>
       <c r="C135" t="n">
-        <v>1.022732973098755</v>
+        <v>1.015488505363464</v>
       </c>
     </row>
     <row r="136">
@@ -1932,7 +1932,7 @@
         <v>1.021775967677426</v>
       </c>
       <c r="C136" t="n">
-        <v>1.022732973098755</v>
+        <v>1.015570878982544</v>
       </c>
     </row>
     <row r="137">
@@ -1943,7 +1943,7 @@
         <v>1.01391665956876</v>
       </c>
       <c r="C137" t="n">
-        <v>1.022583603858948</v>
+        <v>1.01404070854187</v>
       </c>
     </row>
     <row r="138">
@@ -1954,7 +1954,7 @@
         <v>1.003551707859748</v>
       </c>
       <c r="C138" t="n">
-        <v>1.018816232681274</v>
+        <v>1.011277198791504</v>
       </c>
     </row>
     <row r="139">
@@ -1965,7 +1965,7 @@
         <v>1.00395811001376</v>
       </c>
       <c r="C139" t="n">
-        <v>1.013801336288452</v>
+        <v>1.009316325187683</v>
       </c>
     </row>
     <row r="140">
@@ -1976,7 +1976,7 @@
         <v>0.998490492809329</v>
       </c>
       <c r="C140" t="n">
-        <v>1.011453866958618</v>
+        <v>1.006914019584656</v>
       </c>
     </row>
     <row r="141">
@@ -1987,7 +1987,7 @@
         <v>0.9979594846745465</v>
       </c>
       <c r="C141" t="n">
-        <v>1.008893847465515</v>
+        <v>1.004505395889282</v>
       </c>
     </row>
     <row r="142">
@@ -1998,7 +1998,7 @@
         <v>1.005537518725381</v>
       </c>
       <c r="C142" t="n">
-        <v>1.007552981376648</v>
+        <v>1.003878474235535</v>
       </c>
     </row>
     <row r="143">
@@ -2009,7 +2009,7 @@
         <v>1.013241124928609</v>
       </c>
       <c r="C143" t="n">
-        <v>1.00958788394928</v>
+        <v>1.003841519355774</v>
       </c>
     </row>
     <row r="144">
@@ -2020,7 +2020,7 @@
         <v>1.013854307822091</v>
       </c>
       <c r="C144" t="n">
-        <v>1.013039946556091</v>
+        <v>1.003221750259399</v>
       </c>
     </row>
     <row r="145">
@@ -2031,7 +2031,7 @@
         <v>1.013286606459517</v>
       </c>
       <c r="C145" t="n">
-        <v>1.014153957366943</v>
+        <v>1.002837419509888</v>
       </c>
     </row>
     <row r="146">
@@ -2042,7 +2042,7 @@
         <v>1.014152584001478</v>
       </c>
       <c r="C146" t="n">
-        <v>1.014123201370239</v>
+        <v>1.00361168384552</v>
       </c>
     </row>
     <row r="147">
@@ -2053,7 +2053,7 @@
         <v>1.022069828696976</v>
       </c>
       <c r="C147" t="n">
-        <v>1.014899253845215</v>
+        <v>1.006439685821533</v>
       </c>
     </row>
     <row r="148">
@@ -2064,7 +2064,7 @@
         <v>1.022435044882774</v>
       </c>
       <c r="C148" t="n">
-        <v>1.019675135612488</v>
+        <v>1.008796691894531</v>
       </c>
     </row>
     <row r="149">
@@ -2075,7 +2075,7 @@
         <v>1.006471948640534</v>
       </c>
       <c r="C149" t="n">
-        <v>1.020977258682251</v>
+        <v>1.008060574531555</v>
       </c>
     </row>
     <row r="150">
@@ -2086,7 +2086,7 @@
         <v>1.005710850364521</v>
       </c>
       <c r="C150" t="n">
-        <v>1.014667868614197</v>
+        <v>1.007425546646118</v>
       </c>
     </row>
     <row r="151">
@@ -2097,7 +2097,7 @@
         <v>1.007617404267215</v>
       </c>
       <c r="C151" t="n">
-        <v>1.011402249336243</v>
+        <v>1.007368087768555</v>
       </c>
     </row>
     <row r="152">
@@ -2108,7 +2108,7 @@
         <v>1.006389608067462</v>
       </c>
       <c r="C152" t="n">
-        <v>1.011502146720886</v>
+        <v>1.006954193115234</v>
       </c>
     </row>
     <row r="153">
@@ -2119,7 +2119,7 @@
         <v>1.004936896973527</v>
       </c>
       <c r="C153" t="n">
-        <v>1.011327028274536</v>
+        <v>1.006048321723938</v>
       </c>
     </row>
     <row r="154">
@@ -2130,7 +2130,7 @@
         <v>1.014776644079994</v>
       </c>
       <c r="C154" t="n">
-        <v>1.011178016662598</v>
+        <v>1.006971597671509</v>
       </c>
     </row>
     <row r="155">
@@ -2141,7 +2141,7 @@
         <v>1.015963616356949</v>
       </c>
       <c r="C155" t="n">
-        <v>1.015028834342957</v>
+        <v>1.006611347198486</v>
       </c>
     </row>
     <row r="156">
@@ -2152,7 +2152,7 @@
         <v>1.006781124531442</v>
       </c>
       <c r="C156" t="n">
-        <v>1.01577615737915</v>
+        <v>1.004504919052124</v>
       </c>
     </row>
     <row r="157">
@@ -2163,7 +2163,7 @@
         <v>1.004615062450373</v>
       </c>
       <c r="C157" t="n">
-        <v>1.011750221252441</v>
+        <v>1.002852439880371</v>
       </c>
     </row>
     <row r="158">
@@ -2174,7 +2174,7 @@
         <v>1.004989972564167</v>
       </c>
       <c r="C158" t="n">
-        <v>1.009043335914612</v>
+        <v>1.002845048904419</v>
       </c>
     </row>
     <row r="159">
@@ -2185,7 +2185,7 @@
         <v>1.005008300556472</v>
       </c>
       <c r="C159" t="n">
-        <v>1.008701801300049</v>
+        <v>1.003063559532166</v>
       </c>
     </row>
     <row r="160">
@@ -2196,7 +2196,7 @@
         <v>0.9985735251731301</v>
       </c>
       <c r="C160" t="n">
-        <v>1.008398413658142</v>
+        <v>1.001350522041321</v>
       </c>
     </row>
     <row r="161">
@@ -2207,7 +2207,7 @@
         <v>1.006806787334604</v>
       </c>
       <c r="C161" t="n">
-        <v>1.006377458572388</v>
+        <v>1.00217342376709</v>
       </c>
     </row>
     <row r="162">
@@ -2218,7 +2218,7 @@
         <v>1.013258997433414</v>
       </c>
       <c r="C162" t="n">
-        <v>1.008954048156738</v>
+        <v>1.003227710723877</v>
       </c>
     </row>
     <row r="163">
@@ -2229,7 +2229,7 @@
         <v>1.014008746433346</v>
       </c>
       <c r="C163" t="n">
-        <v>1.012800931930542</v>
+        <v>1.003400444984436</v>
       </c>
     </row>
     <row r="164">
@@ -2240,7 +2240,7 @@
         <v>0.997658884372512</v>
       </c>
       <c r="C164" t="n">
-        <v>1.013604998588562</v>
+        <v>1.000088930130005</v>
       </c>
     </row>
     <row r="165">
@@ -2251,7 +2251,7 @@
         <v>0.997982210876029</v>
       </c>
       <c r="C165" t="n">
-        <v>1.006849646568298</v>
+        <v>0.9986914992332458</v>
       </c>
     </row>
     <row r="166">
@@ -2262,7 +2262,7 @@
         <v>0.998234381630659</v>
       </c>
       <c r="C166" t="n">
-        <v>1.003718733787537</v>
+        <v>0.9982271194458008</v>
       </c>
     </row>
     <row r="167">
@@ -2273,7 +2273,7 @@
         <v>0.9980789158827869</v>
       </c>
       <c r="C167" t="n">
-        <v>1.003127694129944</v>
+        <v>0.998140275478363</v>
       </c>
     </row>
     <row r="168">
@@ -2284,7 +2284,7 @@
         <v>0.9973483703128281</v>
       </c>
       <c r="C168" t="n">
-        <v>1.003417730331421</v>
+        <v>0.997495174407959</v>
       </c>
     </row>
     <row r="169">
@@ -2295,7 +2295,7 @@
         <v>1.011000702926293</v>
       </c>
       <c r="C169" t="n">
-        <v>1.003644943237305</v>
+        <v>0.9996967315673828</v>
       </c>
     </row>
     <row r="170">
@@ -2306,7 +2306,7 @@
         <v>1.012255991488651</v>
       </c>
       <c r="C170" t="n">
-        <v>1.009953498840332</v>
+        <v>0.9999694228172302</v>
       </c>
     </row>
     <row r="171">
@@ -2317,7 +2317,7 @@
         <v>1.013107103894672</v>
       </c>
       <c r="C171" t="n">
-        <v>1.012035965919495</v>
+        <v>1.000353455543518</v>
       </c>
     </row>
     <row r="172">
@@ -2328,7 +2328,7 @@
         <v>1.013233945122313</v>
       </c>
       <c r="C172" t="n">
-        <v>1.012933969497681</v>
+        <v>1.001315712928772</v>
       </c>
     </row>
     <row r="173">
@@ -2339,7 +2339,7 @@
         <v>1.013388081469857</v>
       </c>
       <c r="C173" t="n">
-        <v>1.013496518135071</v>
+        <v>1.002894639968872</v>
       </c>
     </row>
     <row r="174">
@@ -2350,7 +2350,7 @@
         <v>1.014059220274445</v>
       </c>
       <c r="C174" t="n">
-        <v>1.01401960849762</v>
+        <v>1.004581689834595</v>
       </c>
     </row>
     <row r="175">
@@ -2361,7 +2361,7 @@
         <v>1.014432551702928</v>
       </c>
       <c r="C175" t="n">
-        <v>1.014788150787354</v>
+        <v>1.006617188453674</v>
       </c>
     </row>
     <row r="176">
@@ -2372,7 +2372,7 @@
         <v>1.01460310166713</v>
       </c>
       <c r="C176" t="n">
-        <v>1.015581011772156</v>
+        <v>1.008031249046326</v>
       </c>
     </row>
     <row r="177">
@@ -2383,7 +2383,7 @@
         <v>1.014781068273492</v>
       </c>
       <c r="C177" t="n">
-        <v>1.01598858833313</v>
+        <v>1.008759260177612</v>
       </c>
     </row>
     <row r="178">
@@ -2394,7 +2394,7 @@
         <v>1.015003655956703</v>
       </c>
       <c r="C178" t="n">
-        <v>1.016348719596863</v>
+        <v>1.008979797363281</v>
       </c>
     </row>
     <row r="179">
@@ -2405,7 +2405,7 @@
         <v>1.015078385531532</v>
       </c>
       <c r="C179" t="n">
-        <v>1.016482949256897</v>
+        <v>1.009284138679504</v>
       </c>
     </row>
     <row r="180">
@@ -2416,7 +2416,7 @@
         <v>1.01525257437676</v>
       </c>
       <c r="C180" t="n">
-        <v>1.016617178916931</v>
+        <v>1.009621262550354</v>
       </c>
     </row>
     <row r="181">
@@ -2427,7 +2427,7 @@
         <v>1.01553515649321</v>
       </c>
       <c r="C181" t="n">
-        <v>1.016760468482971</v>
+        <v>1.009890079498291</v>
       </c>
     </row>
     <row r="182">
@@ -2438,7 +2438,7 @@
         <v>1.015856083969787</v>
       </c>
       <c r="C182" t="n">
-        <v>1.017108559608459</v>
+        <v>1.0100417137146</v>
       </c>
     </row>
     <row r="183">
@@ -2449,7 +2449,7 @@
         <v>1.01595085732837</v>
       </c>
       <c r="C183" t="n">
-        <v>1.017383694648743</v>
+        <v>1.010195851325989</v>
       </c>
     </row>
     <row r="184">
@@ -2460,7 +2460,7 @@
         <v>1.020746526723559</v>
       </c>
       <c r="C184" t="n">
-        <v>1.017747521400452</v>
+        <v>1.011254668235779</v>
       </c>
     </row>
     <row r="185">
@@ -2471,7 +2471,7 @@
         <v>1.020926220836328</v>
       </c>
       <c r="C185" t="n">
-        <v>1.020303964614868</v>
+        <v>1.011933445930481</v>
       </c>
     </row>
     <row r="186">
@@ -2482,7 +2482,7 @@
         <v>1.004661182102144</v>
       </c>
       <c r="C186" t="n">
-        <v>1.020549178123474</v>
+        <v>1.009265065193176</v>
       </c>
     </row>
     <row r="187">
@@ -2493,7 +2493,7 @@
         <v>1.004429701210964</v>
       </c>
       <c r="C187" t="n">
-        <v>1.014004826545715</v>
+        <v>1.007810235023499</v>
       </c>
     </row>
     <row r="188">
@@ -2504,7 +2504,7 @@
         <v>1.00418268128886</v>
       </c>
       <c r="C188" t="n">
-        <v>1.010991215705872</v>
+        <v>1.006924390792847</v>
       </c>
     </row>
     <row r="189">
@@ -2515,7 +2515,7 @@
         <v>0.9980966866774372</v>
       </c>
       <c r="C189" t="n">
-        <v>1.00982666015625</v>
+        <v>1.004745244979858</v>
       </c>
     </row>
     <row r="190">
@@ -2526,7 +2526,7 @@
         <v>1.007209701088634</v>
       </c>
       <c r="C190" t="n">
-        <v>1.007840275764465</v>
+        <v>1.005008101463318</v>
       </c>
     </row>
     <row r="191">
@@ -2537,7 +2537,7 @@
         <v>1.012934434698851</v>
       </c>
       <c r="C191" t="n">
-        <v>1.010586977005005</v>
+        <v>1.005146265029907</v>
       </c>
     </row>
     <row r="192">
@@ -2548,7 +2548,7 @@
         <v>1.007277271964869</v>
       </c>
       <c r="C192" t="n">
-        <v>1.013454437255859</v>
+        <v>1.003493785858154</v>
       </c>
     </row>
     <row r="193">
@@ -2559,7 +2559,7 @@
         <v>0.9975373051770905</v>
       </c>
       <c r="C193" t="n">
-        <v>1.010548710823059</v>
+        <v>0.9998091459274292</v>
       </c>
     </row>
     <row r="194">
@@ -2570,7 +2570,7 @@
         <v>1.006055979274799</v>
       </c>
       <c r="C194" t="n">
-        <v>1.005581736564636</v>
+        <v>0.9997043013572693</v>
       </c>
     </row>
     <row r="195">
@@ -2581,7 +2581,7 @@
         <v>1.014274586045236</v>
       </c>
       <c r="C195" t="n">
-        <v>1.00763988494873</v>
+        <v>1.002049446105957</v>
       </c>
     </row>
     <row r="196">
@@ -2592,7 +2592,7 @@
         <v>1.015337061668145</v>
       </c>
       <c r="C196" t="n">
-        <v>1.013078331947327</v>
+        <v>1.004132866859436</v>
       </c>
     </row>
     <row r="197">
@@ -2603,7 +2603,7 @@
         <v>1.00784654657899</v>
       </c>
       <c r="C197" t="n">
-        <v>1.015079379081726</v>
+        <v>1.00365948677063</v>
       </c>
     </row>
     <row r="198">
@@ -2614,7 +2614,7 @@
         <v>1.00482310810294</v>
       </c>
       <c r="C198" t="n">
-        <v>1.011852502822876</v>
+        <v>1.002667188644409</v>
       </c>
     </row>
     <row r="199">
@@ -2625,7 +2625,7 @@
         <v>1.005562370951807</v>
       </c>
       <c r="C199" t="n">
-        <v>1.008939623832703</v>
+        <v>1.002363562583923</v>
       </c>
     </row>
     <row r="200">
@@ -2636,7 +2636,7 @@
         <v>1.005730915191811</v>
       </c>
       <c r="C200" t="n">
-        <v>1.008516907691956</v>
+        <v>1.00262188911438</v>
       </c>
     </row>
     <row r="201">
@@ -2647,7 +2647,7 @@
         <v>1.005406070373928</v>
       </c>
       <c r="C201" t="n">
-        <v>1.008906602859497</v>
+        <v>1.003038644790649</v>
       </c>
     </row>
     <row r="202">
@@ -2658,7 +2658,7 @@
         <v>1.012871866995702</v>
       </c>
       <c r="C202" t="n">
-        <v>1.009477972984314</v>
+        <v>1.004470944404602</v>
       </c>
     </row>
     <row r="203">
@@ -2669,7 +2669,7 @@
         <v>1.013633461126696</v>
       </c>
       <c r="C203" t="n">
-        <v>1.012936353683472</v>
+        <v>1.004888296127319</v>
       </c>
     </row>
     <row r="204">
@@ -2680,7 +2680,7 @@
         <v>1.004671553443762</v>
       </c>
       <c r="C204" t="n">
-        <v>1.013718008995056</v>
+        <v>1.002959370613098</v>
       </c>
     </row>
     <row r="205">
@@ -2691,7 +2691,7 @@
         <v>1.004215038277483</v>
       </c>
       <c r="C205" t="n">
-        <v>1.009767651557922</v>
+        <v>1.001803398132324</v>
       </c>
     </row>
     <row r="206">
@@ -2702,7 +2702,7 @@
         <v>1.004408699930162</v>
       </c>
       <c r="C206" t="n">
-        <v>1.008041739463806</v>
+        <v>1.001879334449768</v>
       </c>
     </row>
     <row r="207">
@@ -2713,7 +2713,7 @@
         <v>1.003967283050839</v>
       </c>
       <c r="C207" t="n">
-        <v>1.007905125617981</v>
+        <v>1.001925945281982</v>
       </c>
     </row>
     <row r="208">
@@ -2724,7 +2724,7 @@
         <v>1.003586286539468</v>
       </c>
       <c r="C208" t="n">
-        <v>1.007645606994629</v>
+        <v>1.001724600791931</v>
       </c>
     </row>
     <row r="209">
@@ -2735,7 +2735,7 @@
         <v>1.011972804643951</v>
       </c>
       <c r="C209" t="n">
-        <v>1.007920861244202</v>
+        <v>1.002966284751892</v>
       </c>
     </row>
     <row r="210">
@@ -2746,7 +2746,7 @@
         <v>1.013372989096383</v>
       </c>
       <c r="C210" t="n">
-        <v>1.011935949325562</v>
+        <v>1.003749370574951</v>
       </c>
     </row>
     <row r="211">
@@ -2757,7 +2757,7 @@
         <v>1.006432217242845</v>
       </c>
       <c r="C211" t="n">
-        <v>1.013347148895264</v>
+        <v>1.00234842300415</v>
       </c>
     </row>
     <row r="212">
@@ -2768,7 +2768,7 @@
         <v>0.9986948824379214</v>
       </c>
       <c r="C212" t="n">
-        <v>1.010114312171936</v>
+        <v>1.000198483467102</v>
       </c>
     </row>
     <row r="213">
@@ -2779,7 +2779,7 @@
         <v>1.004640377384691</v>
       </c>
       <c r="C213" t="n">
-        <v>1.005748152732849</v>
+        <v>1.000667333602905</v>
       </c>
     </row>
     <row r="214">
@@ -2790,7 +2790,7 @@
         <v>1.011456008154391</v>
       </c>
       <c r="C214" t="n">
-        <v>1.007288336753845</v>
+        <v>1.00261390209198</v>
       </c>
     </row>
     <row r="215">
@@ -2801,7 +2801,7 @@
         <v>1.013423167340159</v>
       </c>
       <c r="C215" t="n">
-        <v>1.011481761932373</v>
+        <v>1.004085302352905</v>
       </c>
     </row>
     <row r="216">
@@ -2812,7 +2812,7 @@
         <v>1.013666695886839</v>
       </c>
       <c r="C216" t="n">
-        <v>1.014052867889404</v>
+        <v>1.005051851272583</v>
       </c>
     </row>
     <row r="217">
@@ -2823,7 +2823,7 @@
         <v>1.013719360672119</v>
       </c>
       <c r="C217" t="n">
-        <v>1.014464616775513</v>
+        <v>1.005160331726074</v>
       </c>
     </row>
     <row r="218">
@@ -2834,7 +2834,7 @@
         <v>1.013942344960365</v>
       </c>
       <c r="C218" t="n">
-        <v>1.014464616775513</v>
+        <v>1.005279779434204</v>
       </c>
     </row>
     <row r="219">
@@ -2845,7 +2845,7 @@
         <v>1.014104426949484</v>
       </c>
       <c r="C219" t="n">
-        <v>1.014789342880249</v>
+        <v>1.006118893623352</v>
       </c>
     </row>
     <row r="220">
@@ -2856,7 +2856,7 @@
         <v>1.014163070293115</v>
       </c>
       <c r="C220" t="n">
-        <v>1.015158295631409</v>
+        <v>1.007438182830811</v>
       </c>
     </row>
     <row r="221">
@@ -2867,7 +2867,7 @@
         <v>1.014409502958717</v>
       </c>
       <c r="C221" t="n">
-        <v>1.015652656555176</v>
+        <v>1.008325457572937</v>
       </c>
     </row>
     <row r="222">
@@ -2878,7 +2878,7 @@
         <v>1.014999465476069</v>
       </c>
       <c r="C222" t="n">
-        <v>1.015989780426025</v>
+        <v>1.009058475494385</v>
       </c>
     </row>
     <row r="223">
@@ -2889,7 +2889,7 @@
         <v>1.014838213055633</v>
       </c>
       <c r="C223" t="n">
-        <v>1.016482949256897</v>
+        <v>1.009093880653381</v>
       </c>
     </row>
     <row r="224">
@@ -2900,7 +2900,7 @@
         <v>1.014798988026735</v>
       </c>
       <c r="C224" t="n">
-        <v>1.016482949256897</v>
+        <v>1.009286999702454</v>
       </c>
     </row>
     <row r="225">
@@ -2911,7 +2911,7 @@
         <v>1.014869928153357</v>
       </c>
       <c r="C225" t="n">
-        <v>1.016482949256897</v>
+        <v>1.009570240974426</v>
       </c>
     </row>
     <row r="226">
@@ -2922,7 +2922,7 @@
         <v>1.01490017417439</v>
       </c>
       <c r="C226" t="n">
-        <v>1.016617178916931</v>
+        <v>1.00963568687439</v>
       </c>
     </row>
     <row r="227">
@@ -2933,7 +2933,7 @@
         <v>1.015000240054316</v>
       </c>
       <c r="C227" t="n">
-        <v>1.016617178916931</v>
+        <v>1.009672164916992</v>
       </c>
     </row>
     <row r="228">
@@ -2944,7 +2944,7 @@
         <v>1.015097390828752</v>
       </c>
       <c r="C228" t="n">
-        <v>1.016688823699951</v>
+        <v>1.009722471237183</v>
       </c>
     </row>
     <row r="229">
@@ -2955,7 +2955,7 @@
         <v>1.015387233201374</v>
       </c>
       <c r="C229" t="n">
-        <v>1.01682436466217</v>
+        <v>1.009903311729431</v>
       </c>
     </row>
     <row r="230">
@@ -2966,7 +2966,7 @@
         <v>1.015113461305094</v>
       </c>
       <c r="C230" t="n">
-        <v>1.017108559608459</v>
+        <v>1.009808778762817</v>
       </c>
     </row>
     <row r="231">
@@ -2977,7 +2977,7 @@
         <v>1.015071402419809</v>
       </c>
       <c r="C231" t="n">
-        <v>1.016976118087769</v>
+        <v>1.00981616973877</v>
       </c>
     </row>
     <row r="232">
@@ -2988,7 +2988,7 @@
         <v>1.015069753130286</v>
       </c>
       <c r="C232" t="n">
-        <v>1.016823053359985</v>
+        <v>1.009859442710876</v>
       </c>
     </row>
     <row r="233">
@@ -2999,7 +2999,7 @@
         <v>1.015092670722145</v>
       </c>
       <c r="C233" t="n">
-        <v>1.01682436466217</v>
+        <v>1.009846925735474</v>
       </c>
     </row>
     <row r="234">
@@ -3010,7 +3010,7 @@
         <v>1.004607541619381</v>
       </c>
       <c r="C234" t="n">
-        <v>1.016597509384155</v>
+        <v>1.007806777954102</v>
       </c>
     </row>
     <row r="235">
@@ -3021,7 +3021,7 @@
         <v>1.005442619578057</v>
       </c>
       <c r="C235" t="n">
-        <v>1.012246966362</v>
+        <v>1.006756067276001</v>
       </c>
     </row>
     <row r="236">
@@ -3032,7 +3032,7 @@
         <v>1.004780584133891</v>
       </c>
       <c r="C236" t="n">
-        <v>1.010565757751465</v>
+        <v>1.005767345428467</v>
       </c>
     </row>
     <row r="237">
@@ -3043,7 +3043,7 @@
         <v>0.9986100098391324</v>
       </c>
       <c r="C237" t="n">
-        <v>1.009620785713196</v>
+        <v>1.003414630889893</v>
       </c>
     </row>
     <row r="238">
@@ -3054,7 +3054,7 @@
         <v>0.9977803567553813</v>
       </c>
       <c r="C238" t="n">
-        <v>1.006738781929016</v>
+        <v>1.001248121261597</v>
       </c>
     </row>
     <row r="239">
@@ -3065,7 +3065,7 @@
         <v>1.007113524557481</v>
       </c>
       <c r="C239" t="n">
-        <v>1.005481839179993</v>
+        <v>1.001649260520935</v>
       </c>
     </row>
     <row r="240">
@@ -3076,7 +3076,7 @@
         <v>1.012144553865674</v>
       </c>
       <c r="C240" t="n">
-        <v>1.008755087852478</v>
+        <v>1.002191424369812</v>
       </c>
     </row>
     <row r="241">
@@ -3087,7 +3087,7 @@
         <v>1.00362111035311</v>
       </c>
       <c r="C241" t="n">
-        <v>1.011600136756897</v>
+        <v>1.000203847885132</v>
       </c>
     </row>
     <row r="242">
@@ -3098,7 +3098,7 @@
         <v>0.9973415313270323</v>
       </c>
       <c r="C242" t="n">
-        <v>1.008059024810791</v>
+        <v>0.9976489543914795</v>
       </c>
     </row>
     <row r="243">
@@ -3109,7 +3109,7 @@
         <v>0.9987402783497412</v>
       </c>
       <c r="C243" t="n">
-        <v>1.003903746604919</v>
+        <v>0.9968143105506897</v>
       </c>
     </row>
     <row r="244">
@@ -3120,7 +3120,7 @@
         <v>0.9982200691111619</v>
       </c>
       <c r="C244" t="n">
-        <v>1.00278639793396</v>
+        <v>0.9966736435890198</v>
       </c>
     </row>
     <row r="245">
@@ -3131,7 +3131,7 @@
         <v>0.9957516792766912</v>
       </c>
       <c r="C245" t="n">
-        <v>1.002680420875549</v>
+        <v>0.9960362911224365</v>
       </c>
     </row>
     <row r="246">
@@ -3142,7 +3142,7 @@
         <v>1.004655098484111</v>
       </c>
       <c r="C246" t="n">
-        <v>1.002038598060608</v>
+        <v>0.997377336025238</v>
       </c>
     </row>
     <row r="247">
@@ -3153,7 +3153,7 @@
         <v>1.005596347877186</v>
       </c>
       <c r="C247" t="n">
-        <v>1.005826473236084</v>
+        <v>0.9976475238800049</v>
       </c>
     </row>
     <row r="248">
@@ -3164,7 +3164,7 @@
         <v>0.9979105863098772</v>
       </c>
       <c r="C248" t="n">
-        <v>1.006670475006104</v>
+        <v>0.9953736066818237</v>
       </c>
     </row>
     <row r="249">
@@ -3175,7 +3175,7 @@
         <v>0.9953076216595533</v>
       </c>
       <c r="C249" t="n">
-        <v>1.002948999404907</v>
+        <v>0.9936580657958984</v>
       </c>
     </row>
     <row r="250">
@@ -3186,7 +3186,7 @@
         <v>0.9958550278424464</v>
       </c>
       <c r="C250" t="n">
-        <v>1.000428557395935</v>
+        <v>0.9930312633514404</v>
       </c>
     </row>
     <row r="251">
@@ -3197,7 +3197,7 @@
         <v>0.9898613887600406</v>
       </c>
       <c r="C251" t="n">
-        <v>0.9996882677078247</v>
+        <v>0.9916152358055115</v>
       </c>
     </row>
     <row r="252">
@@ -3208,7 +3208,7 @@
         <v>0.9951134997421135</v>
       </c>
       <c r="C252" t="n">
-        <v>0.9974725246429443</v>
+        <v>0.992254376411438</v>
       </c>
     </row>
     <row r="253">
@@ -3219,7 +3219,7 @@
         <v>0.9962010390772791</v>
       </c>
       <c r="C253" t="n">
-        <v>0.9989680647850037</v>
+        <v>0.9920731782913208</v>
       </c>
     </row>
     <row r="254">
@@ -3230,7 +3230,7 @@
         <v>0.9983783345048735</v>
       </c>
       <c r="C254" t="n">
-        <v>0.9997676610946655</v>
+        <v>0.9920214414596558</v>
       </c>
     </row>
     <row r="255">
@@ -3241,7 +3241,7 @@
         <v>1.003575907308094</v>
       </c>
       <c r="C255" t="n">
-        <v>1.000781893730164</v>
+        <v>0.9927256107330322</v>
       </c>
     </row>
     <row r="256">
@@ -3252,7 +3252,7 @@
         <v>0.989028584027301</v>
       </c>
       <c r="C256" t="n">
-        <v>1.003109812736511</v>
+        <v>0.9894694685935974</v>
       </c>
     </row>
     <row r="257">
@@ -3263,7 +3263,7 @@
         <v>0.988826929891533</v>
       </c>
       <c r="C257" t="n">
-        <v>0.9974230527877808</v>
+        <v>0.9880765080451965</v>
       </c>
     </row>
     <row r="258">
@@ -3274,7 +3274,7 @@
         <v>0.9899099705533692</v>
       </c>
       <c r="C258" t="n">
-        <v>0.9947177171707153</v>
+        <v>0.9878137707710266</v>
       </c>
     </row>
     <row r="259">
@@ -3285,7 +3285,7 @@
         <v>0.9887752190396685</v>
       </c>
       <c r="C259" t="n">
-        <v>0.9946117997169495</v>
+        <v>0.9875590205192566</v>
       </c>
     </row>
     <row r="260">
@@ -3296,7 +3296,7 @@
         <v>0.9885349484142245</v>
       </c>
       <c r="C260" t="n">
-        <v>0.994371235370636</v>
+        <v>0.9870355129241943</v>
       </c>
     </row>
     <row r="261">
@@ -3307,7 +3307,7 @@
         <v>0.9976499627859894</v>
       </c>
       <c r="C261" t="n">
-        <v>0.9944611787796021</v>
+        <v>0.9881640672683716</v>
       </c>
     </row>
     <row r="262">
@@ -3318,7 +3318,7 @@
         <v>1.002560110086908</v>
       </c>
       <c r="C262" t="n">
-        <v>0.9986625909805298</v>
+        <v>0.9894574880599976</v>
       </c>
     </row>
     <row r="263">
@@ -3329,7 +3329,7 @@
         <v>0.9891077518279592</v>
       </c>
       <c r="C263" t="n">
-        <v>1.00164806842804</v>
+        <v>0.9866790175437927</v>
       </c>
     </row>
     <row r="264">
@@ -3340,7 +3340,7 @@
         <v>0.9875432923903923</v>
       </c>
       <c r="C264" t="n">
-        <v>0.9963116049766541</v>
+        <v>0.9849172830581665</v>
       </c>
     </row>
     <row r="265">
@@ -3351,7 +3351,7 @@
         <v>0.9871675410201906</v>
       </c>
       <c r="C265" t="n">
-        <v>0.9931079149246216</v>
+        <v>0.9848435521125793</v>
       </c>
     </row>
     <row r="266">
@@ -3362,7 +3362,7 @@
         <v>0.9877684550627688</v>
       </c>
       <c r="C266" t="n">
-        <v>0.9922815561294556</v>
+        <v>0.9850144982337952</v>
       </c>
     </row>
     <row r="267">
@@ -3373,7 +3373,7 @@
         <v>0.9966628161552203</v>
       </c>
       <c r="C267" t="n">
-        <v>0.9930316805839539</v>
+        <v>0.9872429370880127</v>
       </c>
     </row>
     <row r="268">
@@ -3384,7 +3384,7 @@
         <v>0.9883572525417947</v>
       </c>
       <c r="C268" t="n">
-        <v>0.9972770214080811</v>
+        <v>0.9859392642974854</v>
       </c>
     </row>
     <row r="269">
@@ -3395,7 +3395,7 @@
         <v>0.997348801170141</v>
       </c>
       <c r="C269" t="n">
-        <v>0.9950485229492188</v>
+        <v>0.9869951009750366</v>
       </c>
     </row>
     <row r="270">
@@ -3406,7 +3406,7 @@
         <v>1.002755821570816</v>
       </c>
       <c r="C270" t="n">
-        <v>0.9979965090751648</v>
+        <v>0.9882841110229492</v>
       </c>
     </row>
     <row r="271">
@@ -3417,7 +3417,7 @@
         <v>0.9969487748466878</v>
       </c>
       <c r="C271" t="n">
-        <v>1.001767873764038</v>
+        <v>0.9882674217224121</v>
       </c>
     </row>
     <row r="272">
@@ -3428,7 +3428,7 @@
         <v>0.9874643205692782</v>
       </c>
       <c r="C272" t="n">
-        <v>0.999747633934021</v>
+        <v>0.9868036508560181</v>
       </c>
     </row>
     <row r="273">
@@ -3439,7 +3439,7 @@
         <v>0.987326384503957</v>
       </c>
       <c r="C273" t="n">
-        <v>0.9949605464935303</v>
+        <v>0.9862504601478577</v>
       </c>
     </row>
     <row r="274">
@@ -3450,7 +3450,7 @@
         <v>0.9866207451577498</v>
       </c>
       <c r="C274" t="n">
-        <v>0.9931079149246216</v>
+        <v>0.9860727787017822</v>
       </c>
     </row>
     <row r="275">
@@ -3461,7 +3461,7 @@
         <v>0.9888062300403839</v>
       </c>
       <c r="C275" t="n">
-        <v>0.9924898147583008</v>
+        <v>0.9863530397415161</v>
       </c>
     </row>
     <row r="276">
@@ -3472,7 +3472,7 @@
         <v>0.9882253582131759</v>
       </c>
       <c r="C276" t="n">
-        <v>0.9936062097549438</v>
+        <v>0.9855900406837463</v>
       </c>
     </row>
     <row r="277">
@@ -3483,7 +3483,7 @@
         <v>0.9964212555928945</v>
       </c>
       <c r="C277" t="n">
-        <v>0.9938273429870605</v>
+        <v>0.9868026375770569</v>
       </c>
     </row>
     <row r="278">
@@ -3494,7 +3494,7 @@
         <v>0.9977411190187147</v>
       </c>
       <c r="C278" t="n">
-        <v>0.9972217679023743</v>
+        <v>0.986640453338623</v>
       </c>
     </row>
     <row r="279">
@@ -3505,7 +3505,7 @@
         <v>0.9969898215335896</v>
       </c>
       <c r="C279" t="n">
-        <v>0.9988290071487427</v>
+        <v>0.9864982962608337</v>
       </c>
     </row>
     <row r="280">
@@ -3516,7 +3516,7 @@
         <v>0.9869305047961217</v>
       </c>
       <c r="C280" t="n">
-        <v>0.9983512759208679</v>
+        <v>0.9847410917282104</v>
       </c>
     </row>
     <row r="281">
@@ -3527,7 +3527,7 @@
         <v>0.9869023607388794</v>
       </c>
       <c r="C281" t="n">
-        <v>0.9937700629234314</v>
+        <v>0.984625518321991</v>
       </c>
     </row>
     <row r="282">
@@ -3538,7 +3538,7 @@
         <v>0.9810172574539632</v>
       </c>
       <c r="C282" t="n">
-        <v>0.9918124675750732</v>
+        <v>0.9830349683761597</v>
       </c>
     </row>
     <row r="283">
@@ -3549,7 +3549,7 @@
         <v>0.9805556884580946</v>
       </c>
       <c r="C283" t="n">
-        <v>0.9892460703849792</v>
+        <v>0.9824891090393066</v>
       </c>
     </row>
     <row r="284">
@@ -3560,7 +3560,7 @@
         <v>0.980708986684376</v>
       </c>
       <c r="C284" t="n">
-        <v>0.988420844078064</v>
+        <v>0.9813919067382812</v>
       </c>
     </row>
     <row r="285">
@@ -3571,7 +3571,7 @@
         <v>0.9887741041079231</v>
       </c>
       <c r="C285" t="n">
-        <v>0.9883643984794617</v>
+        <v>0.9817804098129272</v>
       </c>
     </row>
     <row r="286">
@@ -3582,7 +3582,7 @@
         <v>0.989344495757048</v>
       </c>
       <c r="C286" t="n">
-        <v>0.9911344051361084</v>
+        <v>0.9809566140174866</v>
       </c>
     </row>
     <row r="287">
@@ -3593,7 +3593,7 @@
         <v>0.9778539573822254</v>
       </c>
       <c r="C287" t="n">
-        <v>0.9915265440940857</v>
+        <v>0.9776418805122375</v>
       </c>
     </row>
     <row r="288">
@@ -3604,7 +3604,7 @@
         <v>0.977986907802073</v>
       </c>
       <c r="C288" t="n">
-        <v>0.9863542914390564</v>
+        <v>0.9756919145584106</v>
       </c>
     </row>
     <row r="289">
@@ -3615,7 +3615,7 @@
         <v>0.9781574207133044</v>
       </c>
       <c r="C289" t="n">
-        <v>0.984096884727478</v>
+        <v>0.9751278162002563</v>
       </c>
     </row>
     <row r="290">
@@ -3626,7 +3626,7 @@
         <v>0.9775406584548737</v>
       </c>
       <c r="C290" t="n">
-        <v>0.9835405349731445</v>
+        <v>0.9747077822685242</v>
       </c>
     </row>
     <row r="291">
@@ -3637,7 +3637,7 @@
         <v>0.9801077676021457</v>
       </c>
       <c r="C291" t="n">
-        <v>0.983478844165802</v>
+        <v>0.9749985933303833</v>
       </c>
     </row>
     <row r="292">
@@ -3648,7 +3648,7 @@
         <v>0.9863057378994642</v>
       </c>
       <c r="C292" t="n">
-        <v>0.9848509430885315</v>
+        <v>0.9758853316307068</v>
       </c>
     </row>
     <row r="293">
@@ -3659,7 +3659,7 @@
         <v>0.9866803966634249</v>
       </c>
       <c r="C293" t="n">
-        <v>0.9880048036575317</v>
+        <v>0.9759795665740967</v>
       </c>
     </row>
     <row r="294">
@@ -3670,7 +3670,7 @@
         <v>0.9868308182021711</v>
       </c>
       <c r="C294" t="n">
-        <v>0.9887704253196716</v>
+        <v>0.9758416414260864</v>
       </c>
     </row>
     <row r="295">
@@ -3681,7 +3681,7 @@
         <v>0.9870231728088599</v>
       </c>
       <c r="C295" t="n">
-        <v>0.9892247915267944</v>
+        <v>0.9764203429222107</v>
       </c>
     </row>
     <row r="296">
@@ -3692,7 +3692,7 @@
         <v>0.9873802940635874</v>
       </c>
       <c r="C296" t="n">
-        <v>0.9894318580627441</v>
+        <v>0.9773557782173157</v>
       </c>
     </row>
     <row r="297">
@@ -3703,7 +3703,7 @@
         <v>0.987481690943569</v>
       </c>
       <c r="C297" t="n">
-        <v>0.9899609684944153</v>
+        <v>0.9786965250968933</v>
       </c>
     </row>
     <row r="298">
@@ -3714,7 +3714,7 @@
         <v>0.9877417995654241</v>
       </c>
       <c r="C298" t="n">
-        <v>0.9902941584587097</v>
+        <v>0.9800191521644592</v>
       </c>
     </row>
     <row r="299">
@@ -3725,7 +3725,7 @@
         <v>0.9878197291475611</v>
       </c>
       <c r="C299" t="n">
-        <v>0.990756630897522</v>
+        <v>0.9807376265525818</v>
       </c>
     </row>
     <row r="300">
@@ -3736,7 +3736,7 @@
         <v>0.9878929473587316</v>
       </c>
       <c r="C300" t="n">
-        <v>0.9909875392913818</v>
+        <v>0.9810361862182617</v>
       </c>
     </row>
     <row r="301">
@@ -3747,7 +3747,7 @@
         <v>0.9876639726124467</v>
       </c>
       <c r="C301" t="n">
-        <v>0.9910898208618164</v>
+        <v>0.981059193611145</v>
       </c>
     </row>
     <row r="302">
@@ -3758,7 +3758,7 @@
         <v>0.9875604611161313</v>
       </c>
       <c r="C302" t="n">
-        <v>0.9910898208618164</v>
+        <v>0.9813359379768372</v>
       </c>
     </row>
     <row r="303">
@@ -3769,7 +3769,7 @@
         <v>0.9881604076041743</v>
       </c>
       <c r="C303" t="n">
-        <v>0.9910910725593567</v>
+        <v>0.9816482663154602</v>
       </c>
     </row>
     <row r="304">
@@ -3780,7 +3780,7 @@
         <v>0.9877817503992589</v>
       </c>
       <c r="C304" t="n">
-        <v>0.9914500117301941</v>
+        <v>0.9815999865531921</v>
       </c>
     </row>
     <row r="305">
@@ -3791,7 +3791,7 @@
         <v>0.9880243643364928</v>
       </c>
       <c r="C305" t="n">
-        <v>0.9913464188575745</v>
+        <v>0.9815732836723328</v>
       </c>
     </row>
     <row r="306">
@@ -3802,7 +3802,7 @@
         <v>0.988164597429334</v>
       </c>
       <c r="C306" t="n">
-        <v>0.9914500117301941</v>
+        <v>0.9816051721572876</v>
       </c>
     </row>
     <row r="307">
@@ -3813,7 +3813,7 @@
         <v>0.9883730708828921</v>
       </c>
       <c r="C307" t="n">
-        <v>0.9915881752967834</v>
+        <v>0.9818459153175354</v>
       </c>
     </row>
     <row r="308">
@@ -3824,7 +3824,7 @@
         <v>0.9773252354725832</v>
       </c>
       <c r="C308" t="n">
-        <v>0.9910721778869629</v>
+        <v>0.9794368743896484</v>
       </c>
     </row>
     <row r="309">
@@ -3835,7 +3835,7 @@
         <v>0.9708279597340095</v>
       </c>
       <c r="C309" t="n">
-        <v>0.9862974882125854</v>
+        <v>0.9767597913742065</v>
       </c>
     </row>
     <row r="310">
@@ -3846,7 +3846,7 @@
         <v>0.9770970823848795</v>
       </c>
       <c r="C310" t="n">
-        <v>0.9823300838470459</v>
+        <v>0.9762358665466309</v>
       </c>
     </row>
     <row r="311">
@@ -3857,7 +3857,7 @@
         <v>0.970209264762063</v>
       </c>
       <c r="C311" t="n">
-        <v>0.9826955199241638</v>
+        <v>0.9736729264259338</v>
       </c>
     </row>
     <row r="312">
@@ -3868,7 +3868,7 @@
         <v>0.9692033780166183</v>
       </c>
       <c r="C312" t="n">
-        <v>0.9802289605140686</v>
+        <v>0.9717879295349121</v>
       </c>
     </row>
     <row r="313">
@@ -3879,7 +3879,7 @@
         <v>0.9785418590741238</v>
       </c>
       <c r="C313" t="n">
-        <v>0.9788250327110291</v>
+        <v>0.9714812040328979</v>
       </c>
     </row>
     <row r="314">
@@ -3890,7 +3890,7 @@
         <v>0.9797495367485289</v>
       </c>
       <c r="C314" t="n">
-        <v>0.9816262125968933</v>
+        <v>0.9710049033164978</v>
       </c>
     </row>
     <row r="315">
@@ -3901,7 +3901,7 @@
         <v>0.9772882598714205</v>
       </c>
       <c r="C315" t="n">
-        <v>0.9825723767280579</v>
+        <v>0.9695478677749634</v>
       </c>
     </row>
     <row r="316">
@@ -3912,7 +3912,7 @@
         <v>0.9686063632922616</v>
       </c>
       <c r="C316" t="n">
-        <v>0.9811237454414368</v>
+        <v>0.9669094085693359</v>
       </c>
     </row>
     <row r="317">
@@ -3923,7 +3923,7 @@
         <v>0.9687407410760203</v>
       </c>
       <c r="C317" t="n">
-        <v>0.9768747687339783</v>
+        <v>0.9663239121437073</v>
       </c>
     </row>
     <row r="318">
@@ -3934,7 +3934,7 @@
         <v>0.9689511264665931</v>
       </c>
       <c r="C318" t="n">
-        <v>0.9752180576324463</v>
+        <v>0.9660494923591614</v>
       </c>
     </row>
     <row r="319">
@@ -3945,7 +3945,7 @@
         <v>0.9684556353493456</v>
       </c>
       <c r="C319" t="n">
-        <v>0.9748935699462891</v>
+        <v>0.9658656716346741</v>
       </c>
     </row>
     <row r="320">
@@ -3956,7 +3956,7 @@
         <v>0.9691752065307362</v>
       </c>
       <c r="C320" t="n">
-        <v>0.9748948216438293</v>
+        <v>0.9656922817230225</v>
       </c>
     </row>
     <row r="321">
@@ -3967,7 +3967,7 @@
         <v>0.9768627666092694</v>
       </c>
       <c r="C321" t="n">
-        <v>0.9753711223602295</v>
+        <v>0.9664686322212219</v>
       </c>
     </row>
     <row r="322">
@@ -3978,7 +3978,7 @@
         <v>0.9793060316272099</v>
       </c>
       <c r="C322" t="n">
-        <v>0.9787766337394714</v>
+        <v>0.9669069051742554</v>
       </c>
     </row>
     <row r="323">
@@ -3989,7 +3989,7 @@
         <v>0.9784466434912401</v>
       </c>
       <c r="C323" t="n">
-        <v>0.9809268712997437</v>
+        <v>0.9671399593353271</v>
       </c>
     </row>
     <row r="324">
@@ -4000,7 +4000,7 @@
         <v>0.9803490512535842</v>
       </c>
       <c r="C324" t="n">
-        <v>0.9812178015708923</v>
+        <v>0.9679908752441406</v>
       </c>
     </row>
     <row r="325">
@@ -4011,7 +4011,7 @@
         <v>0.9867550844031592</v>
       </c>
       <c r="C325" t="n">
-        <v>0.9826935529708862</v>
+        <v>0.9703744649887085</v>
       </c>
     </row>
     <row r="326">
@@ -4022,7 +4022,7 @@
         <v>0.987044513705682</v>
       </c>
       <c r="C326" t="n">
-        <v>0.9867217540740967</v>
+        <v>0.9726235866546631</v>
       </c>
     </row>
     <row r="327">
@@ -4033,7 +4033,7 @@
         <v>0.9719398244891045</v>
       </c>
       <c r="C327" t="n">
-        <v>0.9878319501876831</v>
+        <v>0.9715074300765991</v>
       </c>
     </row>
     <row r="328">
@@ -4044,7 +4044,7 @@
         <v>0.9715381161542171</v>
       </c>
       <c r="C328" t="n">
-        <v>0.9817514419555664</v>
+        <v>0.9710903167724609</v>
       </c>
     </row>
     <row r="329">
@@ -4055,7 +4055,7 @@
         <v>0.9711178436576123</v>
       </c>
       <c r="C329" t="n">
-        <v>0.9789066314697266</v>
+        <v>0.9707832336425781</v>
       </c>
     </row>
     <row r="330">
@@ -4066,7 +4066,7 @@
         <v>0.9705864934761267</v>
       </c>
       <c r="C330" t="n">
-        <v>0.9781802296638489</v>
+        <v>0.9704312086105347</v>
       </c>
     </row>
     <row r="331">
@@ -4077,7 +4077,7 @@
         <v>0.9693604892205573</v>
       </c>
       <c r="C331" t="n">
-        <v>0.9779691100120544</v>
+        <v>0.9693640470504761</v>
       </c>
     </row>
     <row r="332">
@@ -4088,7 +4088,7 @@
         <v>0.9779408778739439</v>
       </c>
       <c r="C332" t="n">
-        <v>0.9776002764701843</v>
+        <v>0.9697943925857544</v>
       </c>
     </row>
     <row r="333">
@@ -4099,7 +4099,7 @@
         <v>0.9787531545534444</v>
       </c>
       <c r="C333" t="n">
-        <v>0.980724573135376</v>
+        <v>0.9692890048027039</v>
       </c>
     </row>
     <row r="334">
@@ -4110,7 +4110,7 @@
         <v>0.9789141027686596</v>
       </c>
       <c r="C334" t="n">
-        <v>0.9814571142196655</v>
+        <v>0.9686523675918579</v>
       </c>
     </row>
     <row r="335">
@@ -4121,7 +4121,7 @@
         <v>0.9790747999100632</v>
       </c>
       <c r="C335" t="n">
-        <v>0.9818398356437683</v>
+        <v>0.9685621857643127</v>
       </c>
     </row>
     <row r="336">
@@ -4132,7 +4132,7 @@
         <v>0.9793301194159407</v>
       </c>
       <c r="C336" t="n">
-        <v>0.9820149540901184</v>
+        <v>0.9693348407745361</v>
       </c>
     </row>
     <row r="337">
@@ -4143,7 +4143,7 @@
         <v>0.9793682338777389</v>
       </c>
       <c r="C337" t="n">
-        <v>0.9822527766227722</v>
+        <v>0.9705395102500916</v>
       </c>
     </row>
     <row r="338">
@@ -4154,7 +4154,7 @@
         <v>0.9793768958805922</v>
       </c>
       <c r="C338" t="n">
-        <v>0.982707142829895</v>
+        <v>0.9712936878204346</v>
       </c>
     </row>
     <row r="339">
@@ -4165,7 +4165,7 @@
         <v>0.9793834832732461</v>
       </c>
       <c r="C339" t="n">
-        <v>0.9829807877540588</v>
+        <v>0.9721195101737976</v>
       </c>
     </row>
     <row r="340">
@@ -4176,7 +4176,7 @@
         <v>0.9792773188356176</v>
       </c>
       <c r="C340" t="n">
-        <v>0.9832373261451721</v>
+        <v>0.9727360010147095</v>
       </c>
     </row>
     <row r="341">
@@ -4187,7 +4187,7 @@
         <v>0.9791432521565767</v>
       </c>
       <c r="C341" t="n">
-        <v>0.9832373261451721</v>
+        <v>0.972725510597229</v>
       </c>
     </row>
     <row r="342">
@@ -4198,7 +4198,7 @@
         <v>0.9790367001395586</v>
       </c>
       <c r="C342" t="n">
-        <v>0.9832373261451721</v>
+        <v>0.9727845191955566</v>
       </c>
     </row>
     <row r="343">
@@ -4209,7 +4209,7 @@
         <v>0.9789435622742142</v>
       </c>
       <c r="C343" t="n">
-        <v>0.9831657409667969</v>
+        <v>0.9727749824523926</v>
       </c>
     </row>
     <row r="344">
@@ -4220,7 +4220,7 @@
         <v>0.9789301151578687</v>
       </c>
       <c r="C344" t="n">
-        <v>0.9830126762390137</v>
+        <v>0.9727744460105896</v>
       </c>
     </row>
     <row r="345">
@@ -4231,7 +4231,7 @@
         <v>0.9789372546152696</v>
       </c>
       <c r="C345" t="n">
-        <v>0.9829807877540588</v>
+        <v>0.9727299213409424</v>
       </c>
     </row>
     <row r="346">
@@ -4242,7 +4242,7 @@
         <v>0.9789961902953959</v>
       </c>
       <c r="C346" t="n">
-        <v>0.9829807877540588</v>
+        <v>0.9726513624191284</v>
       </c>
     </row>
     <row r="347">
@@ -4253,7 +4253,7 @@
         <v>0.9788175538782292</v>
       </c>
       <c r="C347" t="n">
-        <v>0.9829807877540588</v>
+        <v>0.9724881052970886</v>
       </c>
     </row>
     <row r="348">
@@ -4264,7 +4264,7 @@
         <v>0.9772914188299353</v>
       </c>
       <c r="C348" t="n">
-        <v>0.982906699180603</v>
+        <v>0.9721091985702515</v>
       </c>
     </row>
     <row r="349">
@@ -4275,7 +4275,7 @@
         <v>0.9617622127654523</v>
       </c>
       <c r="C349" t="n">
-        <v>0.98138028383255</v>
+        <v>0.968633770942688</v>
       </c>
     </row>
     <row r="350">
@@ -4286,7 +4286,7 @@
         <v>0.9614269204567831</v>
       </c>
       <c r="C350" t="n">
-        <v>0.9753850698471069</v>
+        <v>0.9664629697799683</v>
       </c>
     </row>
     <row r="351">
@@ -4297,7 +4297,7 @@
         <v>0.9610057022815978</v>
       </c>
       <c r="C351" t="n">
-        <v>0.9722505807876587</v>
+        <v>0.9645918607711792</v>
       </c>
     </row>
     <row r="352">
@@ -4308,7 +4308,7 @@
         <v>0.9602642378817544</v>
       </c>
       <c r="C352" t="n">
-        <v>0.9709553718566895</v>
+        <v>0.9630526304244995</v>
       </c>
     </row>
     <row r="353">
@@ -4319,7 +4319,7 @@
         <v>0.9607103867430949</v>
       </c>
       <c r="C353" t="n">
-        <v>0.9700214266777039</v>
+        <v>0.9611601233482361</v>
       </c>
     </row>
     <row r="354">
@@ -4330,7 +4330,7 @@
         <v>0.9696263096501357</v>
       </c>
       <c r="C354" t="n">
-        <v>0.9696599245071411</v>
+        <v>0.9609003067016602</v>
       </c>
     </row>
     <row r="355">
@@ -4341,7 +4341,7 @@
         <v>0.9616113642129199</v>
       </c>
       <c r="C355" t="n">
-        <v>0.9721651077270508</v>
+        <v>0.9581390619277954</v>
       </c>
     </row>
     <row r="356">
@@ -4352,7 +4352,7 @@
         <v>0.953606748355866</v>
       </c>
       <c r="C356" t="n">
-        <v>0.9686718583106995</v>
+        <v>0.9547894597053528</v>
       </c>
     </row>
     <row r="357">
@@ -4363,7 +4363,7 @@
         <v>0.9593844785553807</v>
       </c>
       <c r="C357" t="n">
-        <v>0.9642153978347778</v>
+        <v>0.9542695283889771</v>
       </c>
     </row>
     <row r="358">
@@ -4374,7 +4374,7 @@
         <v>0.9530268671338755</v>
       </c>
       <c r="C358" t="n">
-        <v>0.9644652009010315</v>
+        <v>0.9530546069145203</v>
       </c>
     </row>
     <row r="359">
@@ -4385,7 +4385,7 @@
         <v>0.9534266981566555</v>
       </c>
       <c r="C359" t="n">
-        <v>0.9623120427131653</v>
+        <v>0.952411413192749</v>
       </c>
     </row>
     <row r="360">
@@ -4396,7 +4396,7 @@
         <v>0.9603785660551554</v>
       </c>
       <c r="C360" t="n">
-        <v>0.9618790149688721</v>
+        <v>0.9532386660575867</v>
       </c>
     </row>
     <row r="361">
@@ -4407,7 +4407,7 @@
         <v>0.9618305708185874</v>
       </c>
       <c r="C361" t="n">
-        <v>0.9646368026733398</v>
+        <v>0.9532085657119751</v>
       </c>
     </row>
     <row r="362">
@@ -4418,7 +4418,7 @@
         <v>0.9679126209362285</v>
       </c>
       <c r="C362" t="n">
-        <v>0.9661443829536438</v>
+        <v>0.9543294906616211</v>
       </c>
     </row>
     <row r="363">
@@ -4429,7 +4429,7 @@
         <v>0.9526110127493721</v>
       </c>
       <c r="C363" t="n">
-        <v>0.9686564803123474</v>
+        <v>0.9514591693878174</v>
       </c>
     </row>
     <row r="364">
@@ -4440,7 +4440,7 @@
         <v>0.9518804370218511</v>
       </c>
       <c r="C364" t="n">
-        <v>0.9632150530815125</v>
+        <v>0.9503431916236877</v>
       </c>
     </row>
     <row r="365">
@@ -4451,7 +4451,7 @@
         <v>0.9514106569129712</v>
       </c>
       <c r="C365" t="n">
-        <v>0.9601233601570129</v>
+        <v>0.9499686360359192</v>
       </c>
     </row>
     <row r="366">
@@ -4462,7 +4462,7 @@
         <v>0.9510598941214072</v>
       </c>
       <c r="C366" t="n">
-        <v>0.9593524932861328</v>
+        <v>0.9499549269676208</v>
       </c>
     </row>
     <row r="367">
@@ -4473,7 +4473,7 @@
         <v>0.9509370728954073</v>
       </c>
       <c r="C367" t="n">
-        <v>0.9590352177619934</v>
+        <v>0.9498473405838013</v>
       </c>
     </row>
     <row r="368">
@@ -4484,7 +4484,7 @@
         <v>0.9597424649169028</v>
       </c>
       <c r="C368" t="n">
-        <v>0.9594867825508118</v>
+        <v>0.9505520462989807</v>
       </c>
     </row>
     <row r="369">
@@ -4495,7 +4495,7 @@
         <v>0.9604821031327374</v>
       </c>
       <c r="C369" t="n">
-        <v>0.9631714224815369</v>
+        <v>0.9505906701087952</v>
       </c>
     </row>
     <row r="370">
@@ -4506,7 +4506,7 @@
         <v>0.96001803265761</v>
       </c>
       <c r="C370" t="n">
-        <v>0.9641311764717102</v>
+        <v>0.9498983025550842</v>
       </c>
     </row>
     <row r="371">
@@ -4517,7 +4517,7 @@
         <v>0.9596073018123683</v>
       </c>
       <c r="C371" t="n">
-        <v>0.9640902876853943</v>
+        <v>0.9496623277664185</v>
       </c>
     </row>
     <row r="372">
@@ -4528,7 +4528,7 @@
         <v>0.9525688161257129</v>
       </c>
       <c r="C372" t="n">
-        <v>0.9635104537010193</v>
+        <v>0.9489858746528625</v>
       </c>
     </row>
     <row r="373">
@@ -4539,7 +4539,7 @@
         <v>0.9614485150080772</v>
       </c>
       <c r="C373" t="n">
-        <v>0.9610474109649658</v>
+        <v>0.950867235660553</v>
       </c>
     </row>
     <row r="374">
@@ -4550,7 +4550,7 @@
         <v>0.9623106888797168</v>
       </c>
       <c r="C374" t="n">
-        <v>0.9642816781997681</v>
+        <v>0.9525858759880066</v>
       </c>
     </row>
     <row r="375">
@@ -4561,7 +4561,7 @@
         <v>0.9595115268143083</v>
       </c>
       <c r="C375" t="n">
-        <v>0.9660444855690002</v>
+        <v>0.9530764818191528</v>
       </c>
     </row>
     <row r="376">
@@ -4572,7 +4572,7 @@
         <v>0.9513634089636592</v>
       </c>
       <c r="C376" t="n">
-        <v>0.9647305011749268</v>
+        <v>0.9513214826583862</v>
       </c>
     </row>
     <row r="377">
@@ -4583,7 +4583,7 @@
         <v>0.9516184515560374</v>
       </c>
       <c r="C377" t="n">
-        <v>0.9609496593475342</v>
+        <v>0.9504472017288208</v>
       </c>
     </row>
     <row r="378">
@@ -4594,7 +4594,7 @@
         <v>0.9512247824254604</v>
       </c>
       <c r="C378" t="n">
-        <v>0.9594907164573669</v>
+        <v>0.9497803449630737</v>
       </c>
     </row>
     <row r="379">
@@ -4605,7 +4605,7 @@
         <v>0.9506831701976755</v>
       </c>
       <c r="C379" t="n">
-        <v>0.9588599801063538</v>
+        <v>0.9491853713989258</v>
       </c>
     </row>
     <row r="380">
@@ -4616,7 +4616,7 @@
         <v>0.9522152067162851</v>
       </c>
       <c r="C380" t="n">
-        <v>0.9586946964263916</v>
+        <v>0.9488723874092102</v>
       </c>
     </row>
     <row r="381">
@@ -4627,7 +4627,7 @@
         <v>0.959315919939206</v>
       </c>
       <c r="C381" t="n">
-        <v>0.9593808054924011</v>
+        <v>0.9497580528259277</v>
       </c>
     </row>
     <row r="382">
@@ -4638,7 +4638,7 @@
         <v>0.9595165521035905</v>
       </c>
       <c r="C382" t="n">
-        <v>0.9625063538551331</v>
+        <v>0.9492275714874268</v>
       </c>
     </row>
     <row r="383">
@@ -4649,7 +4649,7 @@
         <v>0.9596974563594903</v>
       </c>
       <c r="C383" t="n">
-        <v>0.9633315205574036</v>
+        <v>0.9491746425628662</v>
       </c>
     </row>
     <row r="384">
@@ -4660,7 +4660,7 @@
         <v>0.9597893071667311</v>
       </c>
       <c r="C384" t="n">
-        <v>0.9637263417243958</v>
+        <v>0.9496172070503235</v>
       </c>
     </row>
     <row r="385">
@@ -4671,7 +4671,7 @@
         <v>0.9600190617544613</v>
       </c>
       <c r="C385" t="n">
-        <v>0.963861882686615</v>
+        <v>0.9505043625831604</v>
       </c>
     </row>
     <row r="386">
@@ -4682,7 +4682,7 @@
         <v>0.9604562682477911</v>
       </c>
       <c r="C386" t="n">
-        <v>0.964267909526825</v>
+        <v>0.9517236351966858</v>
       </c>
     </row>
     <row r="387">
@@ -4693,7 +4693,7 @@
         <v>0.9608533682036406</v>
       </c>
       <c r="C387" t="n">
-        <v>0.9647969007492065</v>
+        <v>0.9527991414070129</v>
       </c>
     </row>
     <row r="388">
@@ -4704,7 +4704,7 @@
         <v>0.961047228170081</v>
       </c>
       <c r="C388" t="n">
-        <v>0.9653878808021545</v>
+        <v>0.9534748792648315</v>
       </c>
     </row>
     <row r="389">
@@ -4715,7 +4715,7 @@
         <v>0.961104367388228</v>
       </c>
       <c r="C389" t="n">
-        <v>0.9657815098762512</v>
+        <v>0.9541197419166565</v>
       </c>
     </row>
     <row r="390">
@@ -4726,7 +4726,7 @@
         <v>0.9612209934185761</v>
       </c>
       <c r="C390" t="n">
-        <v>0.9659457802772522</v>
+        <v>0.9541200399398804</v>
       </c>
     </row>
     <row r="391">
@@ -4737,7 +4737,7 @@
         <v>0.9613595426649069</v>
       </c>
       <c r="C391" t="n">
-        <v>0.9660493135452271</v>
+        <v>0.9544922709465027</v>
       </c>
     </row>
     <row r="392">
@@ -4748,7 +4748,7 @@
         <v>0.9613319976829944</v>
       </c>
       <c r="C392" t="n">
-        <v>0.9661529064178467</v>
+        <v>0.9546526670455933</v>
       </c>
     </row>
     <row r="393">
@@ -4759,7 +4759,7 @@
         <v>0.9614248934798353</v>
       </c>
       <c r="C393" t="n">
-        <v>0.9662564396858215</v>
+        <v>0.9548048973083496</v>
       </c>
     </row>
     <row r="394">
@@ -4770,7 +4770,7 @@
         <v>0.9615481382905958</v>
       </c>
       <c r="C394" t="n">
-        <v>0.9664760828018188</v>
+        <v>0.9549633264541626</v>
       </c>
     </row>
     <row r="395">
@@ -4781,7 +4781,7 @@
         <v>0.9617520898674344</v>
       </c>
       <c r="C395" t="n">
-        <v>0.9665477275848389</v>
+        <v>0.9548856616020203</v>
       </c>
     </row>
     <row r="396">
@@ -4792,7 +4792,7 @@
         <v>0.9615670896855028</v>
       </c>
       <c r="C396" t="n">
-        <v>0.9666500091552734</v>
+        <v>0.9549981951713562</v>
       </c>
     </row>
     <row r="397">
@@ -4803,7 +4803,7 @@
         <v>0.9615669285549453</v>
       </c>
       <c r="C397" t="n">
-        <v>0.9666512012481689</v>
+        <v>0.9552642703056335</v>
       </c>
     </row>
     <row r="398">
@@ -4814,7 +4814,7 @@
         <v>0.9507356627598624</v>
       </c>
       <c r="C398" t="n">
-        <v>0.9660552144050598</v>
+        <v>0.9529868960380554</v>
       </c>
     </row>
     <row r="399">
@@ -4825,7 +4825,7 @@
         <v>0.9440437688322462</v>
       </c>
       <c r="C399" t="n">
-        <v>0.9614159464836121</v>
+        <v>0.9501927495002747</v>
       </c>
     </row>
     <row r="400">
@@ -4836,7 +4836,7 @@
         <v>0.9434275811883134</v>
       </c>
       <c r="C400" t="n">
-        <v>0.9571696519851685</v>
+        <v>0.9484244585037231</v>
       </c>
     </row>
     <row r="401">
@@ -4847,7 +4847,7 @@
         <v>0.9430109422875291</v>
       </c>
       <c r="C401" t="n">
-        <v>0.9551289081573486</v>
+        <v>0.9467354416847229</v>
       </c>
     </row>
     <row r="402">
@@ -4858,7 +4858,7 @@
         <v>0.9421536679987186</v>
       </c>
       <c r="C402" t="n">
-        <v>0.9541237950325012</v>
+        <v>0.945048987865448</v>
       </c>
     </row>
     <row r="403">
@@ -4869,7 +4869,7 @@
         <v>0.9510094101029773</v>
       </c>
       <c r="C403" t="n">
-        <v>0.953494668006897</v>
+        <v>0.9448105692863464</v>
       </c>
     </row>
     <row r="404">
@@ -4880,7 +4880,7 @@
         <v>0.952319639851694</v>
       </c>
       <c r="C404" t="n">
-        <v>0.9560982584953308</v>
+        <v>0.9438378810882568</v>
       </c>
     </row>
     <row r="405">
@@ -4891,7 +4891,7 @@
         <v>0.9520354492862972</v>
       </c>
       <c r="C405" t="n">
-        <v>0.9569516777992249</v>
+        <v>0.9429334998130798</v>
       </c>
     </row>
     <row r="406">
@@ -4902,7 +4902,7 @@
         <v>0.9419894864883679</v>
       </c>
       <c r="C406" t="n">
-        <v>0.9562894105911255</v>
+        <v>0.9401720762252808</v>
       </c>
     </row>
     <row r="407">
@@ -4913,7 +4913,7 @@
         <v>0.9424188616294678</v>
       </c>
       <c r="C407" t="n">
-        <v>0.9520650506019592</v>
+        <v>0.9399213194847107</v>
       </c>
     </row>
     <row r="408">
@@ -4924,7 +4924,7 @@
         <v>0.9421763937133755</v>
       </c>
       <c r="C408" t="n">
-        <v>0.9504504203796387</v>
+        <v>0.9400528073310852</v>
       </c>
     </row>
     <row r="409">
@@ -4935,7 +4935,7 @@
         <v>0.9417538786290702</v>
       </c>
       <c r="C409" t="n">
-        <v>0.9502086639404297</v>
+        <v>0.9401200413703918</v>
       </c>
     </row>
     <row r="410">
@@ -4946,7 +4946,7 @@
         <v>0.9352374773620448</v>
       </c>
       <c r="C410" t="n">
-        <v>0.9497300386428833</v>
+        <v>0.9382572770118713</v>
       </c>
     </row>
     <row r="411">
@@ -4957,7 +4957,7 @@
         <v>0.9502638125691212</v>
       </c>
       <c r="C411" t="n">
-        <v>0.9479950070381165</v>
+        <v>0.9400184750556946</v>
       </c>
     </row>
     <row r="412">
@@ -4968,7 +4968,7 @@
         <v>0.9511355102878172</v>
       </c>
       <c r="C412" t="n">
-        <v>0.9531540870666504</v>
+        <v>0.9403766989707947</v>
       </c>
     </row>
     <row r="413">
@@ -4979,7 +4979,7 @@
         <v>0.9426599433537594</v>
       </c>
       <c r="C413" t="n">
-        <v>0.954602062702179</v>
+        <v>0.9385837316513062</v>
       </c>
     </row>
     <row r="414">
@@ -4990,7 +4990,7 @@
         <v>0.9352391352526783</v>
       </c>
       <c r="C414" t="n">
-        <v>0.9509066939353943</v>
+        <v>0.9360857605934143</v>
       </c>
     </row>
     <row r="415">
@@ -5001,7 +5001,7 @@
         <v>0.935252663031231</v>
       </c>
       <c r="C415" t="n">
-        <v>0.9465417861938477</v>
+        <v>0.9354074001312256</v>
       </c>
     </row>
     <row r="416">
@@ -5012,7 +5012,7 @@
         <v>0.9414000189526923</v>
       </c>
       <c r="C416" t="n">
-        <v>0.9452210068702698</v>
+        <v>0.9366030693054199</v>
       </c>
     </row>
     <row r="417">
@@ -5023,7 +5023,7 @@
         <v>0.9411435483582533</v>
       </c>
       <c r="C417" t="n">
-        <v>0.9476441740989685</v>
+        <v>0.9369459748268127</v>
       </c>
     </row>
     <row r="418">
@@ -5034,7 +5034,7 @@
         <v>0.942526382794446</v>
       </c>
       <c r="C418" t="n">
-        <v>0.9486567378044128</v>
+        <v>0.9370466470718384</v>
       </c>
     </row>
     <row r="419">
@@ -5045,7 +5045,7 @@
         <v>0.9499060286799945</v>
       </c>
       <c r="C419" t="n">
-        <v>0.9495216012001038</v>
+        <v>0.9380205273628235</v>
       </c>
     </row>
     <row r="420">
@@ -5056,7 +5056,7 @@
         <v>0.9436293364122434</v>
       </c>
       <c r="C420" t="n">
-        <v>0.9524925947189331</v>
+        <v>0.9366984963417053</v>
       </c>
     </row>
     <row r="421">
@@ -5067,7 +5067,7 @@
         <v>0.9430152804437439</v>
       </c>
       <c r="C421" t="n">
-        <v>0.9505515694618225</v>
+        <v>0.9363661408424377</v>
       </c>
     </row>
     <row r="422">
@@ -5078,7 +5078,7 @@
         <v>0.9429527186786769</v>
       </c>
       <c r="C422" t="n">
-        <v>0.9495893120765686</v>
+        <v>0.9366064071655273</v>
       </c>
     </row>
     <row r="423">
@@ -5089,7 +5089,7 @@
         <v>0.9415795161442361</v>
       </c>
       <c r="C423" t="n">
-        <v>0.949482262134552</v>
+        <v>0.9374232888221741</v>
       </c>
     </row>
     <row r="424">
@@ -5100,7 +5100,7 @@
         <v>0.9352387887666066</v>
       </c>
       <c r="C424" t="n">
-        <v>0.9485999345779419</v>
+        <v>0.9363480806350708</v>
       </c>
     </row>
     <row r="425">
@@ -5111,7 +5111,7 @@
         <v>0.935219970977315</v>
       </c>
       <c r="C425" t="n">
-        <v>0.9459519982337952</v>
+        <v>0.9358879923820496</v>
       </c>
     </row>
     <row r="426">
@@ -5122,7 +5122,7 @@
         <v>0.9352132089089653</v>
       </c>
       <c r="C426" t="n">
-        <v>0.9449272155761719</v>
+        <v>0.9348594546318054</v>
       </c>
     </row>
     <row r="427">
@@ -5133,7 +5133,7 @@
         <v>0.9350964644583721</v>
       </c>
       <c r="C427" t="n">
-        <v>0.9442338943481445</v>
+        <v>0.9337582588195801</v>
       </c>
     </row>
     <row r="428">
@@ -5144,7 +5144,7 @@
         <v>0.9341147752014097</v>
       </c>
       <c r="C428" t="n">
-        <v>0.9437218904495239</v>
+        <v>0.932639479637146</v>
       </c>
     </row>
     <row r="429">
@@ -5155,7 +5155,7 @@
         <v>0.9418448339052269</v>
       </c>
       <c r="C429" t="n">
-        <v>0.9434813261032104</v>
+        <v>0.9330975413322449</v>
       </c>
     </row>
     <row r="430">
@@ -5166,7 +5166,7 @@
         <v>0.9431328448310682</v>
       </c>
       <c r="C430" t="n">
-        <v>0.9463971257209778</v>
+        <v>0.9333868026733398</v>
       </c>
     </row>
     <row r="431">
@@ -5177,7 +5177,7 @@
         <v>0.9437195322148293</v>
       </c>
       <c r="C431" t="n">
-        <v>0.9480066299438477</v>
+        <v>0.9334881901741028</v>
       </c>
     </row>
     <row r="432">
@@ -5188,7 +5188,7 @@
         <v>0.9440145117860581</v>
       </c>
       <c r="C432" t="n">
-        <v>0.9488050937652588</v>
+        <v>0.9340425729751587</v>
       </c>
     </row>
     <row r="433">
@@ -5199,7 +5199,7 @@
         <v>0.9441555706067591</v>
       </c>
       <c r="C433" t="n">
-        <v>0.9491036534309387</v>
+        <v>0.9348738789558411</v>
       </c>
     </row>
     <row r="434">
@@ -5210,7 +5210,7 @@
         <v>0.9442320298827457</v>
       </c>
       <c r="C434" t="n">
-        <v>0.9495291709899902</v>
+        <v>0.9359403252601624</v>
       </c>
     </row>
     <row r="435">
@@ -5221,7 +5221,7 @@
         <v>0.9497803827048522</v>
       </c>
       <c r="C435" t="n">
-        <v>0.9502460360527039</v>
+        <v>0.9380775690078735</v>
       </c>
     </row>
     <row r="436">
@@ -5232,7 +5232,7 @@
         <v>0.935226369232669</v>
       </c>
       <c r="C436" t="n">
-        <v>0.9523618221282959</v>
+        <v>0.936844527721405</v>
       </c>
     </row>
     <row r="437">
@@ -5243,7 +5243,7 @@
         <v>0.9351962971142945</v>
       </c>
       <c r="C437" t="n">
-        <v>0.9476557970046997</v>
+        <v>0.9361001253128052</v>
       </c>
     </row>
     <row r="438">
@@ -5254,7 +5254,7 @@
         <v>0.9433629522677166</v>
       </c>
       <c r="C438" t="n">
-        <v>0.9456893801689148</v>
+        <v>0.9371554851531982</v>
       </c>
     </row>
     <row r="439">
@@ -5265,7 +5265,7 @@
         <v>0.9496796479884639</v>
       </c>
       <c r="C439" t="n">
-        <v>0.9489630460739136</v>
+        <v>0.9387929439544678</v>
       </c>
     </row>
     <row r="440">
@@ -5276,7 +5276,7 @@
         <v>0.9432352282725832</v>
       </c>
       <c r="C440" t="n">
-        <v>0.9527815580368042</v>
+        <v>0.938102662563324</v>
       </c>
     </row>
     <row r="441">
@@ -5287,7 +5287,7 @@
         <v>0.9410614445128942</v>
       </c>
       <c r="C441" t="n">
-        <v>0.950932502746582</v>
+        <v>0.9371442794799805</v>
       </c>
     </row>
     <row r="442">
@@ -5298,7 +5298,7 @@
         <v>0.9414721510408461</v>
       </c>
       <c r="C442" t="n">
-        <v>0.9489243626594543</v>
+        <v>0.9366138577461243</v>
       </c>
     </row>
     <row r="443">
@@ -5309,7 +5309,7 @@
         <v>0.9423057101474936</v>
       </c>
       <c r="C443" t="n">
-        <v>0.9483075141906738</v>
+        <v>0.9368798136711121</v>
       </c>
     </row>
     <row r="444">
@@ -5320,7 +5320,7 @@
         <v>0.9431169028064782</v>
       </c>
       <c r="C444" t="n">
-        <v>0.9488665461540222</v>
+        <v>0.9371820688247681</v>
       </c>
     </row>
     <row r="445">
@@ -5331,7 +5331,7 @@
         <v>0.9433407263407325</v>
       </c>
       <c r="C445" t="n">
-        <v>0.9495905637741089</v>
+        <v>0.9379025101661682</v>
       </c>
     </row>
     <row r="446">
@@ -5342,7 +5342,7 @@
         <v>0.9504483533133102</v>
       </c>
       <c r="C446" t="n">
-        <v>0.9503838419914246</v>
+        <v>0.9393486976623535</v>
       </c>
     </row>
     <row r="447">
@@ -5353,7 +5353,7 @@
         <v>0.9507269882868443</v>
       </c>
       <c r="C447" t="n">
-        <v>0.9536027312278748</v>
+        <v>0.9399685263633728</v>
       </c>
     </row>
     <row r="448">
@@ -5364,7 +5364,7 @@
         <v>0.9430714701147987</v>
       </c>
       <c r="C448" t="n">
-        <v>0.9544996619224548</v>
+        <v>0.9388535022735596</v>
       </c>
     </row>
     <row r="449">
@@ -5375,7 +5375,7 @@
         <v>0.9416189523209619</v>
       </c>
       <c r="C449" t="n">
-        <v>0.951338529586792</v>
+        <v>0.9385159611701965</v>
       </c>
     </row>
     <row r="450">
@@ -5386,7 +5386,7 @@
         <v>0.9420488375224537</v>
       </c>
       <c r="C450" t="n">
-        <v>0.9496188759803772</v>
+        <v>0.9387626051902771</v>
       </c>
     </row>
     <row r="451">
@@ -5397,7 +5397,7 @@
         <v>0.9420527179577304</v>
       </c>
       <c r="C451" t="n">
-        <v>0.949484646320343</v>
+        <v>0.9389165639877319</v>
       </c>
     </row>
     <row r="452">
@@ -5408,7 +5408,7 @@
         <v>0.941671532547848</v>
       </c>
       <c r="C452" t="n">
-        <v>0.9495869874954224</v>
+        <v>0.9389369487762451</v>
       </c>
     </row>
     <row r="453">
@@ -5419,7 +5419,7 @@
         <v>0.943422842487148</v>
       </c>
       <c r="C453" t="n">
-        <v>0.9495918154716492</v>
+        <v>0.9387654066085815</v>
       </c>
     </row>
     <row r="454">
@@ -5430,7 +5430,7 @@
         <v>0.9496204186507332</v>
       </c>
       <c r="C454" t="n">
-        <v>0.9503813982009888</v>
+        <v>0.9393224716186523</v>
       </c>
     </row>
     <row r="455">
@@ -5441,7 +5441,7 @@
         <v>0.9497491070823694</v>
       </c>
       <c r="C455" t="n">
-        <v>0.9532095193862915</v>
+        <v>0.939707338809967</v>
       </c>
     </row>
     <row r="456">
@@ -5452,7 +5452,7 @@
         <v>0.9351573418257408</v>
       </c>
       <c r="C456" t="n">
-        <v>0.9534385800361633</v>
+        <v>0.9368820786476135</v>
       </c>
     </row>
     <row r="457">
@@ -5463,7 +5463,7 @@
         <v>0.9351775943018936</v>
       </c>
       <c r="C457" t="n">
-        <v>0.9478948712348938</v>
+        <v>0.9358445405960083</v>
       </c>
     </row>
     <row r="458">
@@ -5474,7 +5474,7 @@
         <v>0.9351381110975475</v>
       </c>
       <c r="C458" t="n">
-        <v>0.945199728012085</v>
+        <v>0.9353397488594055</v>
       </c>
     </row>
     <row r="459">
@@ -5485,7 +5485,7 @@
         <v>0.9349365626026315</v>
       </c>
       <c r="C459" t="n">
-        <v>0.9447201490402222</v>
+        <v>0.9350185394287109</v>
       </c>
     </row>
     <row r="460">
@@ -5496,7 +5496,7 @@
         <v>0.9339282158477055</v>
       </c>
       <c r="C460" t="n">
-        <v>0.9443657398223877</v>
+        <v>0.9340792894363403</v>
       </c>
     </row>
     <row r="461">
@@ -5507,7 +5507,7 @@
         <v>0.9418971254339525</v>
       </c>
       <c r="C461" t="n">
-        <v>0.9444424510002136</v>
+        <v>0.9346508383750916</v>
       </c>
     </row>
     <row r="462">
@@ -5518,7 +5518,7 @@
         <v>0.9426256909080537</v>
       </c>
       <c r="C462" t="n">
-        <v>0.9469965100288391</v>
+        <v>0.934137225151062</v>
       </c>
     </row>
     <row r="463">
@@ -5529,7 +5529,7 @@
         <v>0.9416154867442301</v>
       </c>
       <c r="C463" t="n">
-        <v>0.9479290246963501</v>
+        <v>0.9332749247550964</v>
       </c>
     </row>
     <row r="464">
@@ -5540,7 +5540,7 @@
         <v>0.933477300990915</v>
       </c>
       <c r="C464" t="n">
-        <v>0.947013795375824</v>
+        <v>0.9315329790115356</v>
       </c>
     </row>
     <row r="465">
@@ -5551,7 +5551,7 @@
         <v>0.9338803406357761</v>
       </c>
       <c r="C465" t="n">
-        <v>0.9436773061752319</v>
+        <v>0.9313806295394897</v>
       </c>
     </row>
     <row r="466">
@@ -5562,7 +5562,7 @@
         <v>0.9336430068156116</v>
       </c>
       <c r="C466" t="n">
-        <v>0.9423959851264954</v>
+        <v>0.931379497051239</v>
       </c>
     </row>
     <row r="467">
@@ -5573,7 +5573,7 @@
         <v>0.9347762055919182</v>
       </c>
       <c r="C467" t="n">
-        <v>0.9422640800476074</v>
+        <v>0.931784451007843</v>
       </c>
     </row>
     <row r="468">
@@ -5584,7 +5584,7 @@
         <v>0.9338207754440364</v>
       </c>
       <c r="C468" t="n">
-        <v>0.9427895545959473</v>
+        <v>0.9315477013587952</v>
       </c>
     </row>
     <row r="469">
@@ -5595,7 +5595,7 @@
         <v>0.9416973670670843</v>
       </c>
       <c r="C469" t="n">
-        <v>0.942848801612854</v>
+        <v>0.9324699640274048</v>
       </c>
     </row>
     <row r="470">
@@ -5606,7 +5606,7 @@
         <v>0.9420696302390784</v>
       </c>
       <c r="C470" t="n">
-        <v>0.9460295438766479</v>
+        <v>0.9325461387634277</v>
       </c>
     </row>
     <row r="471">
@@ -5617,7 +5617,7 @@
         <v>0.9421900723555867</v>
       </c>
       <c r="C471" t="n">
-        <v>0.9472061991691589</v>
+        <v>0.9324859976768494</v>
       </c>
     </row>
     <row r="472">
@@ -5628,7 +5628,7 @@
         <v>0.9423810784966824</v>
       </c>
       <c r="C472" t="n">
-        <v>0.9475393891334534</v>
+        <v>0.9330143332481384</v>
       </c>
     </row>
     <row r="473">
@@ -5639,7 +5639,7 @@
         <v>0.9424557669036031</v>
       </c>
       <c r="C473" t="n">
-        <v>0.9478995800018311</v>
+        <v>0.933815062046051</v>
       </c>
     </row>
     <row r="474">
@@ -5650,7 +5650,7 @@
         <v>0.942709714800913</v>
       </c>
       <c r="C474" t="n">
-        <v>0.9481400847434998</v>
+        <v>0.9350792765617371</v>
       </c>
     </row>
     <row r="475">
@@ -5661,7 +5661,7 @@
         <v>0.9431499795126347</v>
       </c>
       <c r="C475" t="n">
-        <v>0.9486963748931885</v>
+        <v>0.9359625577926636</v>
       </c>
     </row>
     <row r="476">
@@ -5672,7 +5672,7 @@
         <v>0.9434274227475548</v>
       </c>
       <c r="C476" t="n">
-        <v>0.9490724205970764</v>
+        <v>0.9367323517799377</v>
       </c>
     </row>
     <row r="477">
@@ -5683,7 +5683,7 @@
         <v>0.9433939313135201</v>
       </c>
       <c r="C477" t="n">
-        <v>0.9495586752891541</v>
+        <v>0.9374120831489563</v>
       </c>
     </row>
     <row r="478">
@@ -5694,7 +5694,7 @@
         <v>0.943391267657708</v>
       </c>
       <c r="C478" t="n">
-        <v>0.9496621489524841</v>
+        <v>0.9374116659164429</v>
       </c>
     </row>
     <row r="479">
@@ -5705,7 +5705,7 @@
         <v>0.9433474824562802</v>
       </c>
       <c r="C479" t="n">
-        <v>0.9496609568595886</v>
+        <v>0.9377212524414062</v>
       </c>
     </row>
     <row r="480">
@@ -5716,7 +5716,7 @@
         <v>0.9432241503894048</v>
       </c>
       <c r="C480" t="n">
-        <v>0.9497275948524475</v>
+        <v>0.9377047419548035</v>
       </c>
     </row>
     <row r="481">
@@ -5727,7 +5727,7 @@
         <v>0.9430992046975581</v>
       </c>
       <c r="C481" t="n">
-        <v>0.9497275948524475</v>
+        <v>0.9377714991569519</v>
       </c>
     </row>
     <row r="482">
@@ -5738,7 +5738,7 @@
         <v>0.9432844145824894</v>
       </c>
       <c r="C482" t="n">
-        <v>0.9496609568595886</v>
+        <v>0.9378236532211304</v>
       </c>
     </row>
     <row r="483">
@@ -5749,7 +5749,7 @@
         <v>0.9432321502661685</v>
       </c>
       <c r="C483" t="n">
-        <v>0.9497275948524475</v>
+        <v>0.9379194378852844</v>
       </c>
     </row>
     <row r="484">
@@ -5760,7 +5760,7 @@
         <v>0.9430894870074664</v>
       </c>
       <c r="C484" t="n">
-        <v>0.9497275948524475</v>
+        <v>0.9378026723861694</v>
       </c>
     </row>
     <row r="485">
@@ -5771,7 +5771,7 @@
         <v>0.9429325343023097</v>
       </c>
       <c r="C485" t="n">
-        <v>0.9496929049491882</v>
+        <v>0.9377571940422058</v>
       </c>
     </row>
     <row r="486">
@@ -5782,7 +5782,7 @@
         <v>0.9414013703754607</v>
       </c>
       <c r="C486" t="n">
-        <v>0.9495128989219666</v>
+        <v>0.9373796582221985</v>
       </c>
     </row>
     <row r="487">
@@ -5793,7 +5793,7 @@
         <v>0.9352024792528059</v>
       </c>
       <c r="C487" t="n">
-        <v>0.9483433365821838</v>
+        <v>0.9360111355781555</v>
       </c>
     </row>
     <row r="488">
@@ -5804,7 +5804,7 @@
         <v>0.9418969427695291</v>
       </c>
       <c r="C488" t="n">
-        <v>0.9461274743080139</v>
+        <v>0.9363182783126831</v>
       </c>
     </row>
     <row r="489">
@@ -5815,7 +5815,7 @@
         <v>0.9429749797579519</v>
       </c>
       <c r="C489" t="n">
-        <v>0.947719395160675</v>
+        <v>0.9366755485534668</v>
       </c>
     </row>
     <row r="490">
@@ -5826,7 +5826,7 @@
         <v>0.9429708570616824</v>
       </c>
       <c r="C490" t="n">
-        <v>0.9489688873291016</v>
+        <v>0.9366661310195923</v>
       </c>
     </row>
     <row r="491">
@@ -5837,7 +5837,7 @@
         <v>0.9334558503301519</v>
       </c>
       <c r="C491" t="n">
-        <v>0.9487321376800537</v>
+        <v>0.9346019625663757</v>
       </c>
     </row>
     <row r="492">
@@ -5848,7 +5848,7 @@
         <v>0.9329469527848261</v>
       </c>
       <c r="C492" t="n">
-        <v>0.9447750449180603</v>
+        <v>0.9330350160598755</v>
       </c>
     </row>
     <row r="493">
@@ -5859,7 +5859,7 @@
         <v>0.9337656704643841</v>
       </c>
       <c r="C493" t="n">
-        <v>0.9428226947784424</v>
+        <v>0.9325056076049805</v>
       </c>
     </row>
     <row r="494">
@@ -5870,7 +5870,7 @@
         <v>0.9333784960142929</v>
       </c>
       <c r="C494" t="n">
-        <v>0.9423947334289551</v>
+        <v>0.9320305585861206</v>
       </c>
     </row>
     <row r="495">
@@ -5881,7 +5881,7 @@
         <v>0.9323784401075138</v>
       </c>
       <c r="C495" t="n">
-        <v>0.9422600269317627</v>
+        <v>0.9312412142753601</v>
       </c>
     </row>
     <row r="496">
@@ -5892,7 +5892,7 @@
         <v>0.940729116101533</v>
       </c>
       <c r="C496" t="n">
-        <v>0.9421529769897461</v>
+        <v>0.9320381283760071</v>
       </c>
     </row>
     <row r="497">
@@ -5903,7 +5903,7 @@
         <v>0.9409403945917389</v>
       </c>
       <c r="C497" t="n">
-        <v>0.9452953338623047</v>
+        <v>0.9318217039108276</v>
       </c>
     </row>
     <row r="498">
@@ -5914,7 +5914,7 @@
         <v>0.9407304660509016</v>
       </c>
       <c r="C498" t="n">
-        <v>0.9462191462516785</v>
+        <v>0.9315800666809082</v>
       </c>
     </row>
     <row r="499">
@@ -5925,7 +5925,7 @@
         <v>0.9260334993619294</v>
       </c>
       <c r="C499" t="n">
-        <v>0.9454345107078552</v>
+        <v>0.9287861585617065</v>
       </c>
     </row>
     <row r="500">
@@ -5936,7 +5936,7 @@
         <v>0.9260155673528452</v>
       </c>
       <c r="C500" t="n">
-        <v>0.9399838447570801</v>
+        <v>0.9278140664100647</v>
       </c>
     </row>
     <row r="501">
@@ -5947,7 +5947,7 @@
         <v>0.9319312260637433</v>
       </c>
       <c r="C501" t="n">
-        <v>0.9377215504646301</v>
+        <v>0.9286679625511169</v>
       </c>
     </row>
     <row r="502">
@@ -5958,7 +5958,7 @@
         <v>0.9254115598250536</v>
       </c>
       <c r="C502" t="n">
-        <v>0.9391689300537109</v>
+        <v>0.9278512597084045</v>
       </c>
     </row>
     <row r="503">
@@ -5969,7 +5969,7 @@
         <v>0.9334029229945003</v>
       </c>
       <c r="C503" t="n">
-        <v>0.9379536509513855</v>
+        <v>0.928312361240387</v>
       </c>
     </row>
     <row r="504">
@@ -5980,7 +5980,7 @@
         <v>0.9340308755611517</v>
       </c>
       <c r="C504" t="n">
-        <v>0.9402053356170654</v>
+        <v>0.9279409646987915</v>
       </c>
     </row>
     <row r="505">
@@ -5991,7 +5991,7 @@
         <v>0.9335894549130265</v>
       </c>
       <c r="C505" t="n">
-        <v>0.9408529996871948</v>
+        <v>0.9270802140235901</v>
       </c>
     </row>
     <row r="506">
@@ -6002,7 +6002,7 @@
         <v>0.9243125728450103</v>
       </c>
       <c r="C506" t="n">
-        <v>0.9398030638694763</v>
+        <v>0.9245294332504272</v>
       </c>
     </row>
     <row r="507">
@@ -6013,7 +6013,7 @@
         <v>0.9236256676740854</v>
       </c>
       <c r="C507" t="n">
-        <v>0.9360080361366272</v>
+        <v>0.9235265851020813</v>
       </c>
     </row>
     <row r="508">
@@ -6024,7 +6024,7 @@
         <v>0.9239922291507827</v>
       </c>
       <c r="C508" t="n">
-        <v>0.9339749813079834</v>
+        <v>0.9231840372085571</v>
       </c>
     </row>
     <row r="509">
@@ -6035,7 +6035,7 @@
         <v>0.9232931554066973</v>
       </c>
       <c r="C509" t="n">
-        <v>0.9337347149848938</v>
+        <v>0.9230270981788635</v>
       </c>
     </row>
     <row r="510">
@@ -6046,7 +6046,7 @@
         <v>0.9317117303028655</v>
       </c>
       <c r="C510" t="n">
-        <v>0.9339011311531067</v>
+        <v>0.9241126775741577</v>
       </c>
     </row>
     <row r="511">
@@ -6057,7 +6057,7 @@
         <v>0.9321695701089044</v>
       </c>
       <c r="C511" t="n">
-        <v>0.9373743534088135</v>
+        <v>0.9243887066841125</v>
       </c>
     </row>
     <row r="512">
@@ -6068,7 +6068,7 @@
         <v>0.9319888314964879</v>
       </c>
       <c r="C512" t="n">
-        <v>0.9384240508079529</v>
+        <v>0.9238008260726929</v>
       </c>
     </row>
     <row r="513">
@@ -6079,7 +6079,7 @@
         <v>0.9167318990763873</v>
       </c>
       <c r="C513" t="n">
-        <v>0.9376013278961182</v>
+        <v>0.9204553365707397</v>
       </c>
     </row>
     <row r="514">
@@ -6090,7 +6090,7 @@
         <v>0.9168018384014355</v>
       </c>
       <c r="C514" t="n">
-        <v>0.9316640496253967</v>
+        <v>0.9189852476119995</v>
       </c>
     </row>
     <row r="515">
@@ -6101,7 +6101,7 @@
         <v>0.9168486432415067</v>
       </c>
       <c r="C515" t="n">
-        <v>0.9288637638092041</v>
+        <v>0.9184658527374268</v>
       </c>
     </row>
     <row r="516">
@@ -6112,7 +6112,7 @@
         <v>0.9168623248295331</v>
       </c>
       <c r="C516" t="n">
-        <v>0.9282432198524475</v>
+        <v>0.9183998703956604</v>
       </c>
     </row>
     <row r="517">
@@ -6123,7 +6123,7 @@
         <v>0.9159852804753934</v>
       </c>
       <c r="C517" t="n">
-        <v>0.9281680583953857</v>
+        <v>0.917492151260376</v>
       </c>
     </row>
     <row r="518">
@@ -6134,7 +6134,7 @@
         <v>0.924504693943859</v>
       </c>
       <c r="C518" t="n">
-        <v>0.9280063509941101</v>
+        <v>0.9178277850151062</v>
       </c>
     </row>
     <row r="519">
@@ -6145,7 +6145,7 @@
         <v>0.9252512902251239</v>
       </c>
       <c r="C519" t="n">
-        <v>0.9308742880821228</v>
+        <v>0.9172230958938599</v>
       </c>
     </row>
     <row r="520">
@@ -6156,7 +6156,7 @@
         <v>0.9253541067673834</v>
       </c>
       <c r="C520" t="n">
-        <v>0.9317637085914612</v>
+        <v>0.9165597558021545</v>
       </c>
     </row>
     <row r="521">
@@ -6167,7 +6167,7 @@
         <v>0.9254952605540392</v>
       </c>
       <c r="C521" t="n">
-        <v>0.9321532845497131</v>
+        <v>0.9164575934410095</v>
       </c>
     </row>
     <row r="522">
@@ -6178,7 +6178,7 @@
         <v>0.9256838638023827</v>
       </c>
       <c r="C522" t="n">
-        <v>0.9323950409889221</v>
+        <v>0.9174079895019531</v>
       </c>
     </row>
     <row r="523">
@@ -6189,7 +6189,7 @@
         <v>0.9258706322805839</v>
       </c>
       <c r="C523" t="n">
-        <v>0.9326628446578979</v>
+        <v>0.9184934496879578</v>
       </c>
     </row>
     <row r="524">
@@ -6200,7 +6200,7 @@
         <v>0.9260059402735801</v>
       </c>
       <c r="C524" t="n">
-        <v>0.9330883622169495</v>
+        <v>0.9197952151298523</v>
       </c>
     </row>
     <row r="525">
@@ -6211,7 +6211,7 @@
         <v>0.9259636606476185</v>
       </c>
       <c r="C525" t="n">
-        <v>0.9333868622779846</v>
+        <v>0.9205330610275269</v>
       </c>
     </row>
     <row r="526">
@@ -6222,7 +6222,7 @@
         <v>0.9259840303850887</v>
       </c>
       <c r="C526" t="n">
-        <v>0.933678150177002</v>
+        <v>0.9210923314094543</v>
       </c>
     </row>
     <row r="527">
@@ -6233,7 +6233,7 @@
         <v>0.9257248608857146</v>
       </c>
       <c r="C527" t="n">
-        <v>0.9337804913520813</v>
+        <v>0.9210931062698364</v>
       </c>
     </row>
     <row r="528">
@@ -6244,7 +6244,7 @@
         <v>0.9255659496167424</v>
       </c>
       <c r="C528" t="n">
-        <v>0.9337088465690613</v>
+        <v>0.9210796356201172</v>
       </c>
     </row>
     <row r="529">
@@ -6255,7 +6255,7 @@
         <v>0.9254914800280959</v>
       </c>
       <c r="C529" t="n">
-        <v>0.9336770176887512</v>
+        <v>0.9210728406906128</v>
       </c>
     </row>
     <row r="530">
@@ -6266,7 +6266,7 @@
         <v>0.9253618006807404</v>
       </c>
       <c r="C530" t="n">
-        <v>0.9336770176887512</v>
+        <v>0.9210795760154724</v>
       </c>
     </row>
     <row r="531">
@@ -6277,7 +6277,7 @@
         <v>0.9252472297026354</v>
       </c>
       <c r="C531" t="n">
-        <v>0.9334510564804077</v>
+        <v>0.920930027961731</v>
       </c>
     </row>
     <row r="532">
@@ -6288,7 +6288,7 @@
         <v>0.9252605129893844</v>
       </c>
       <c r="C532" t="n">
-        <v>0.9333140254020691</v>
+        <v>0.9209264516830444</v>
       </c>
     </row>
     <row r="533">
@@ -6299,7 +6299,7 @@
         <v>0.9252250078111115</v>
       </c>
       <c r="C533" t="n">
-        <v>0.9333140254020691</v>
+        <v>0.9209449291229248</v>
       </c>
     </row>
     <row r="534">
@@ -6310,7 +6310,7 @@
         <v>0.9237586819335583</v>
       </c>
       <c r="C534" t="n">
-        <v>0.9331449270248413</v>
+        <v>0.9202795624732971</v>
       </c>
     </row>
     <row r="535">
@@ -6321,7 +6321,7 @@
         <v>0.9168426714844622</v>
       </c>
       <c r="C535" t="n">
-        <v>0.9320802092552185</v>
+        <v>0.9186407923698425</v>
       </c>
     </row>
     <row r="536">
@@ -6332,7 +6332,7 @@
         <v>0.924577176103809</v>
       </c>
       <c r="C536" t="n">
-        <v>0.9295543432235718</v>
+        <v>0.9194179177284241</v>
       </c>
     </row>
     <row r="537">
@@ -6343,7 +6343,7 @@
         <v>0.9257451946231989</v>
       </c>
       <c r="C537" t="n">
-        <v>0.9315995573997498</v>
+        <v>0.9198417663574219</v>
       </c>
     </row>
     <row r="538">
@@ -6354,7 +6354,7 @@
         <v>0.9258904491167463</v>
       </c>
       <c r="C538" t="n">
-        <v>0.9329860210418701</v>
+        <v>0.9199659824371338</v>
       </c>
     </row>
     <row r="539">
@@ -6365,7 +6365,7 @@
         <v>0.9153826051628852</v>
       </c>
       <c r="C539" t="n">
-        <v>0.9326145052909851</v>
+        <v>0.9176227450370789</v>
       </c>
     </row>
     <row r="540">
@@ -6376,7 +6376,7 @@
         <v>0.9148337528008447</v>
       </c>
       <c r="C540" t="n">
-        <v>0.9285083413124084</v>
+        <v>0.9160885810852051</v>
       </c>
     </row>
     <row r="541">
@@ -6387,7 +6387,7 @@
         <v>0.9146116626692455</v>
       </c>
       <c r="C541" t="n">
-        <v>0.9260843992233276</v>
+        <v>0.9151983857154846</v>
       </c>
     </row>
     <row r="542">
@@ -6398,7 +6398,7 @@
         <v>0.9144898355473526</v>
       </c>
       <c r="C542" t="n">
-        <v>0.9252540469169617</v>
+        <v>0.9147287011146545</v>
       </c>
     </row>
     <row r="543">
@@ -6409,7 +6409,7 @@
         <v>0.9141322881326801</v>
       </c>
       <c r="C543" t="n">
-        <v>0.9251174330711365</v>
+        <v>0.9140127897262573</v>
       </c>
     </row>
     <row r="544">
@@ -6420,7 +6420,7 @@
         <v>0.9168049843449578</v>
       </c>
       <c r="C544" t="n">
-        <v>0.9249581694602966</v>
+        <v>0.9134936928749084</v>
       </c>
     </row>
     <row r="545">
@@ -6431,7 +6431,7 @@
         <v>0.9231415598419215</v>
       </c>
       <c r="C545" t="n">
-        <v>0.9258873462677002</v>
+        <v>0.9141451716423035</v>
       </c>
     </row>
     <row r="546">
@@ -6442,7 +6442,7 @@
         <v>0.9232780367427513</v>
       </c>
       <c r="C546" t="n">
-        <v>0.9287166595458984</v>
+        <v>0.9137959480285645</v>
       </c>
     </row>
     <row r="547">
@@ -6453,7 +6453,7 @@
         <v>0.9076007672319364</v>
       </c>
       <c r="C547" t="n">
-        <v>0.9287734031677246</v>
+        <v>0.9109089970588684</v>
       </c>
     </row>
     <row r="548">
@@ -6464,7 +6464,7 @@
         <v>0.9074424229061405</v>
       </c>
       <c r="C548" t="n">
-        <v>0.922816276550293</v>
+        <v>0.909743070602417</v>
       </c>
     </row>
     <row r="549">
@@ -6475,7 +6475,7 @@
         <v>0.9070922478995549</v>
       </c>
       <c r="C549" t="n">
-        <v>0.9196809530258179</v>
+        <v>0.9088305830955505</v>
       </c>
     </row>
     <row r="550">
@@ -6486,7 +6486,7 @@
         <v>0.9063822015326812</v>
       </c>
       <c r="C550" t="n">
-        <v>0.9187732934951782</v>
+        <v>0.9084721803665161</v>
       </c>
     </row>
     <row r="551">
@@ -6497,7 +6497,7 @@
         <v>0.9146616435783349</v>
       </c>
       <c r="C551" t="n">
-        <v>0.9189655780792236</v>
+        <v>0.9098011255264282</v>
       </c>
     </row>
     <row r="552">
@@ -6508,7 +6508,7 @@
         <v>0.9155080135444269</v>
       </c>
       <c r="C552" t="n">
-        <v>0.9223372340202332</v>
+        <v>0.9096434712409973</v>
       </c>
     </row>
     <row r="553">
@@ -6519,7 +6519,7 @@
         <v>0.9158732721990025</v>
       </c>
       <c r="C553" t="n">
-        <v>0.9234586358070374</v>
+        <v>0.9089270830154419</v>
       </c>
     </row>
     <row r="554">
@@ -6530,7 +6530,7 @@
         <v>0.9056112637587325</v>
       </c>
       <c r="C554" t="n">
-        <v>0.922698974609375</v>
+        <v>0.9060436487197876</v>
       </c>
     </row>
     <row r="555">
@@ -6541,7 +6541,7 @@
         <v>0.905195550757569</v>
       </c>
       <c r="C555" t="n">
-        <v>0.9182536602020264</v>
+        <v>0.9046139717102051</v>
       </c>
     </row>
     <row r="556">
@@ -6552,7 +6552,7 @@
         <v>0.9056113628222946</v>
       </c>
       <c r="C556" t="n">
-        <v>0.9162753820419312</v>
+        <v>0.9048101305961609</v>
       </c>
     </row>
     <row r="557">
@@ -6563,7 +6563,7 @@
         <v>0.8971273111006093</v>
       </c>
       <c r="C557" t="n">
-        <v>0.9153058528900146</v>
+        <v>0.9029076099395752</v>
       </c>
     </row>
     <row r="558">
@@ -6574,7 +6574,7 @@
         <v>0.8884430929645314</v>
       </c>
       <c r="C558" t="n">
-        <v>0.9117125272750854</v>
+        <v>0.8994713425636292</v>
       </c>
     </row>
     <row r="559">
@@ -6585,7 +6585,7 @@
         <v>0.8984722777470093</v>
       </c>
       <c r="C559" t="n">
-        <v>0.9081167578697205</v>
+        <v>0.8994582295417786</v>
       </c>
     </row>
     <row r="560">
@@ -6596,7 +6596,7 @@
         <v>0.9060608577778732</v>
       </c>
       <c r="C560" t="n">
-        <v>0.9095718860626221</v>
+        <v>0.9000785350799561</v>
       </c>
     </row>
     <row r="561">
@@ -6607,7 +6607,7 @@
         <v>0.9067013867710367</v>
       </c>
       <c r="C561" t="n">
-        <v>0.9131610989570618</v>
+        <v>0.8996402621269226</v>
       </c>
     </row>
     <row r="562">
@@ -6618,7 +6618,7 @@
         <v>0.8879253967384987</v>
       </c>
       <c r="C562" t="n">
-        <v>0.9129284024238586</v>
+        <v>0.8948654532432556</v>
       </c>
     </row>
     <row r="563">
@@ -6629,7 +6629,7 @@
         <v>0.880209889160585</v>
       </c>
       <c r="C563" t="n">
-        <v>0.9054919481277466</v>
+        <v>0.890333890914917</v>
       </c>
     </row>
     <row r="564">
@@ -6640,7 +6640,7 @@
         <v>0.8801822480384407</v>
       </c>
       <c r="C564" t="n">
-        <v>0.898652195930481</v>
+        <v>0.8882160186767578</v>
       </c>
     </row>
     <row r="565">
@@ -6651,7 +6651,7 @@
         <v>0.8710204596181277</v>
       </c>
       <c r="C565" t="n">
-        <v>0.8950740694999695</v>
+        <v>0.8845860362052917</v>
       </c>
     </row>
     <row r="566">
@@ -6662,7 +6662,7 @@
         <v>0.888849728602658</v>
       </c>
       <c r="C566" t="n">
-        <v>0.8937058448791504</v>
+        <v>0.8872538805007935</v>
       </c>
     </row>
     <row r="567">
@@ -6673,7 +6673,7 @@
         <v>0.8967532876691381</v>
       </c>
       <c r="C567" t="n">
-        <v>0.8987604379653931</v>
+        <v>0.8886264562606812</v>
       </c>
     </row>
     <row r="568">
@@ -6684,7 +6684,7 @@
         <v>0.8975204534891847</v>
       </c>
       <c r="C568" t="n">
-        <v>0.9034831523895264</v>
+        <v>0.8879275321960449</v>
       </c>
     </row>
     <row r="569">
@@ -6695,7 +6695,7 @@
         <v>0.8980894302234547</v>
       </c>
       <c r="C569" t="n">
-        <v>0.9044772386550903</v>
+        <v>0.8869889378547668</v>
       </c>
     </row>
     <row r="570">
@@ -6706,7 +6706,7 @@
         <v>0.8984785380496007</v>
       </c>
       <c r="C570" t="n">
-        <v>0.9050695300102234</v>
+        <v>0.8867915868759155</v>
       </c>
     </row>
     <row r="571">
@@ -6717,7 +6717,7 @@
         <v>0.8985138855043464</v>
       </c>
       <c r="C571" t="n">
-        <v>0.9057013392448425</v>
+        <v>0.8884432911872864</v>
       </c>
     </row>
     <row r="572">
@@ -6728,7 +6728,7 @@
         <v>0.9050190721345847</v>
       </c>
       <c r="C572" t="n">
-        <v>0.9067358374595642</v>
+        <v>0.8920692205429077</v>
       </c>
     </row>
     <row r="573">
@@ -6739,7 +6739,7 @@
         <v>0.905106476584157</v>
       </c>
       <c r="C573" t="n">
-        <v>0.9105953574180603</v>
+        <v>0.8950120210647583</v>
       </c>
     </row>
     <row r="574">
@@ -6750,7 +6750,7 @@
         <v>0.9051742034624627</v>
       </c>
       <c r="C574" t="n">
-        <v>0.9120433330535889</v>
+        <v>0.8970085978507996</v>
       </c>
     </row>
     <row r="575">
@@ -6761,7 +6761,7 @@
         <v>0.8985027514685998</v>
       </c>
       <c r="C575" t="n">
-        <v>0.9121001362800598</v>
+        <v>0.8968932032585144</v>
       </c>
     </row>
     <row r="576">
@@ -6772,7 +6772,7 @@
         <v>0.8984527915471935</v>
       </c>
       <c r="C576" t="n">
-        <v>0.9095926880836487</v>
+        <v>0.8967778086662292</v>
       </c>
     </row>
     <row r="577">
@@ -6783,7 +6783,7 @@
         <v>0.8982846335082874</v>
       </c>
       <c r="C577" t="n">
-        <v>0.9084790349006653</v>
+        <v>0.8969846963882446</v>
       </c>
     </row>
     <row r="578">
@@ -6794,7 +6794,7 @@
         <v>0.8980834291533653</v>
       </c>
       <c r="C578" t="n">
-        <v>0.9083755016326904</v>
+        <v>0.8971798419952393</v>
       </c>
     </row>
     <row r="579">
@@ -6805,7 +6805,7 @@
         <v>0.8979249861764032</v>
       </c>
       <c r="C579" t="n">
-        <v>0.9083743095397949</v>
+        <v>0.8969274759292603</v>
       </c>
     </row>
     <row r="580">
@@ -6816,7 +6816,7 @@
         <v>0.8980021145985455</v>
       </c>
       <c r="C580" t="n">
-        <v>0.908236026763916</v>
+        <v>0.8964059352874756</v>
       </c>
     </row>
     <row r="581">
@@ -6827,7 +6827,7 @@
         <v>0.8979643678288441</v>
       </c>
       <c r="C581" t="n">
-        <v>0.9078139066696167</v>
+        <v>0.895628809928894</v>
       </c>
     </row>
     <row r="582">
@@ -6838,7 +6838,7 @@
         <v>0.8801801638577238</v>
       </c>
       <c r="C582" t="n">
-        <v>0.9060431718826294</v>
+        <v>0.8908226490020752</v>
       </c>
     </row>
     <row r="583">
@@ -6849,7 +6849,7 @@
         <v>0.8791860543525585</v>
       </c>
       <c r="C583" t="n">
-        <v>0.8996133208274841</v>
+        <v>0.8880993723869324</v>
       </c>
     </row>
     <row r="584">
@@ -6860,7 +6860,7 @@
         <v>0.88861843679895</v>
       </c>
       <c r="C584" t="n">
-        <v>0.8964991569519043</v>
+        <v>0.8889504075050354</v>
       </c>
     </row>
     <row r="585">
@@ -6871,7 +6871,7 @@
         <v>0.8961540787448548</v>
       </c>
       <c r="C585" t="n">
-        <v>0.8992337584495544</v>
+        <v>0.8903393745422363</v>
       </c>
     </row>
     <row r="586">
@@ -6882,7 +6882,7 @@
         <v>0.8710386801932135</v>
       </c>
       <c r="C586" t="n">
-        <v>0.9012632966041565</v>
+        <v>0.8841612339019775</v>
       </c>
     </row>
     <row r="587">
@@ -6893,7 +6893,7 @@
         <v>0.8708366628484023</v>
       </c>
       <c r="C587" t="n">
-        <v>0.8939741849899292</v>
+        <v>0.8803427815437317</v>
       </c>
     </row>
     <row r="588">
@@ -6904,7 +6904,7 @@
         <v>0.870452267302894</v>
       </c>
       <c r="C588" t="n">
-        <v>0.888264536857605</v>
+        <v>0.8776127696037292</v>
       </c>
     </row>
     <row r="589">
@@ -6915,7 +6915,7 @@
         <v>0.869925104995171</v>
       </c>
       <c r="C589" t="n">
-        <v>0.8854097723960876</v>
+        <v>0.8758701682090759</v>
       </c>
     </row>
     <row r="590">
@@ -6926,7 +6926,7 @@
         <v>0.8618733894134425</v>
       </c>
       <c r="C590" t="n">
-        <v>0.8836362361907959</v>
+        <v>0.8724276423454285</v>
       </c>
     </row>
     <row r="591">
@@ -6937,7 +6937,7 @@
         <v>0.8782401451994765</v>
       </c>
       <c r="C591" t="n">
-        <v>0.8825106024742126</v>
+        <v>0.8742381930351257</v>
       </c>
     </row>
     <row r="592">
@@ -6948,7 +6948,7 @@
         <v>0.8801224472140228</v>
       </c>
       <c r="C592" t="n">
-        <v>0.8864873051643372</v>
+        <v>0.8742188215255737</v>
       </c>
     </row>
     <row r="593">
@@ -6959,7 +6959,7 @@
         <v>0.88017356755711</v>
       </c>
       <c r="C593" t="n">
-        <v>0.8880157470703125</v>
+        <v>0.8733299374580383</v>
       </c>
     </row>
     <row r="594">
@@ -6970,7 +6970,7 @@
         <v>0.8618415035304341</v>
       </c>
       <c r="C594" t="n">
-        <v>0.8867424130439758</v>
+        <v>0.8687586784362793</v>
       </c>
     </row>
     <row r="595">
@@ -6981,7 +6981,7 @@
         <v>0.8610747160244911</v>
       </c>
       <c r="C595" t="n">
-        <v>0.8801019787788391</v>
+        <v>0.8667750954627991</v>
       </c>
     </row>
     <row r="596">
@@ -6992,7 +6992,7 @@
         <v>0.860859298620565</v>
       </c>
       <c r="C596" t="n">
-        <v>0.8760661482810974</v>
+        <v>0.866078794002533</v>
       </c>
     </row>
     <row r="597">
@@ -7003,7 +7003,7 @@
         <v>0.8711355403857203</v>
       </c>
       <c r="C597" t="n">
-        <v>0.8760311007499695</v>
+        <v>0.8687487244606018</v>
       </c>
     </row>
     <row r="598">
@@ -7014,7 +7014,7 @@
         <v>0.8700474080037734</v>
       </c>
       <c r="C598" t="n">
-        <v>0.8798755407333374</v>
+        <v>0.8689144849777222</v>
       </c>
     </row>
     <row r="599">
@@ -7025,7 +7025,7 @@
         <v>0.8619432625668652</v>
       </c>
       <c r="C599" t="n">
-        <v>0.8799363970756531</v>
+        <v>0.8661495447158813</v>
       </c>
     </row>
     <row r="600">
@@ -7036,7 +7036,7 @@
         <v>0.8619253812577778</v>
       </c>
       <c r="C600" t="n">
-        <v>0.8764747381210327</v>
+        <v>0.864004373550415</v>
       </c>
     </row>
     <row r="601">
@@ -7047,7 +7047,7 @@
         <v>0.8781103052657206</v>
       </c>
       <c r="C601" t="n">
-        <v>0.8756332397460938</v>
+        <v>0.8662851452827454</v>
       </c>
     </row>
     <row r="602">
@@ -7058,7 +7058,7 @@
         <v>0.8790101127018815</v>
       </c>
       <c r="C602" t="n">
-        <v>0.8826825618743896</v>
+        <v>0.8679599761962891</v>
       </c>
     </row>
     <row r="603">
@@ -7069,7 +7069,7 @@
         <v>0.8707363802348984</v>
       </c>
       <c r="C603" t="n">
-        <v>0.885202169418335</v>
+        <v>0.8680539131164551</v>
       </c>
     </row>
     <row r="604">
@@ -7080,7 +7080,7 @@
         <v>0.8609764835010344</v>
       </c>
       <c r="C604" t="n">
-        <v>0.8815525770187378</v>
+        <v>0.8657012581825256</v>
       </c>
     </row>
     <row r="605">
@@ -7091,7 +7091,7 @@
         <v>0.8608836734518764</v>
       </c>
       <c r="C605" t="n">
-        <v>0.8764957785606384</v>
+        <v>0.8647923469543457</v>
       </c>
     </row>
     <row r="606">
@@ -7102,7 +7102,7 @@
         <v>0.8526953616073107</v>
       </c>
       <c r="C606" t="n">
-        <v>0.8733378052711487</v>
+        <v>0.8626441359519958</v>
       </c>
     </row>
     <row r="607">
@@ -7113,7 +7113,7 @@
         <v>0.8527091996033197</v>
       </c>
       <c r="C607" t="n">
-        <v>0.8703586459159851</v>
+        <v>0.8614998459815979</v>
       </c>
     </row>
     <row r="608">
@@ -7124,7 +7124,7 @@
         <v>0.8520937236135099</v>
       </c>
       <c r="C608" t="n">
-        <v>0.8691173791885376</v>
+        <v>0.8598024845123291</v>
       </c>
     </row>
     <row r="609">
@@ -7135,7 +7135,7 @@
         <v>0.8618492745739857</v>
       </c>
       <c r="C609" t="n">
-        <v>0.8688783049583435</v>
+        <v>0.86027592420578</v>
       </c>
     </row>
     <row r="610">
@@ -7146,7 +7146,7 @@
         <v>0.8693156865919273</v>
       </c>
       <c r="C610" t="n">
-        <v>0.8718178868293762</v>
+        <v>0.8609970808029175</v>
       </c>
     </row>
     <row r="611">
@@ -7157,7 +7157,7 @@
         <v>0.861748804758937</v>
       </c>
       <c r="C611" t="n">
-        <v>0.8751294612884521</v>
+        <v>0.8590644598007202</v>
       </c>
     </row>
     <row r="612">
@@ -7168,7 +7168,7 @@
         <v>0.8516972382967575</v>
       </c>
       <c r="C612" t="n">
-        <v>0.8721646070480347</v>
+        <v>0.855802595615387</v>
       </c>
     </row>
     <row r="613">
@@ -7179,7 +7179,7 @@
         <v>0.8515133109517596</v>
       </c>
       <c r="C613" t="n">
-        <v>0.8671790361404419</v>
+        <v>0.854519248008728</v>
       </c>
     </row>
     <row r="614">
@@ -7190,7 +7190,7 @@
         <v>0.8435031414836885</v>
       </c>
       <c r="C614" t="n">
-        <v>0.8639829158782959</v>
+        <v>0.8524466156959534</v>
       </c>
     </row>
     <row r="615">
@@ -7201,7 +7201,7 @@
         <v>0.8433389879450813</v>
       </c>
       <c r="C615" t="n">
-        <v>0.8608405590057373</v>
+        <v>0.8518472909927368</v>
       </c>
     </row>
     <row r="616">
@@ -7212,7 +7212,7 @@
         <v>0.8427388877965136</v>
       </c>
       <c r="C616" t="n">
-        <v>0.8593968749046326</v>
+        <v>0.8503499031066895</v>
       </c>
     </row>
     <row r="617">
@@ -7223,7 +7223,7 @@
         <v>0.8524973907093105</v>
       </c>
       <c r="C617" t="n">
-        <v>0.8596577644348145</v>
+        <v>0.8512458801269531</v>
       </c>
     </row>
     <row r="618">
@@ -7234,7 +7234,7 @@
         <v>0.8599639023854559</v>
       </c>
       <c r="C618" t="n">
-        <v>0.8629353642463684</v>
+        <v>0.852161169052124</v>
       </c>
     </row>
     <row r="619">
@@ -7245,7 +7245,7 @@
         <v>0.852646566436574</v>
       </c>
       <c r="C619" t="n">
-        <v>0.8661447763442993</v>
+        <v>0.850088357925415</v>
       </c>
     </row>
     <row r="620">
@@ -7256,7 +7256,7 @@
         <v>0.8425708380158474</v>
       </c>
       <c r="C620" t="n">
-        <v>0.863203227519989</v>
+        <v>0.8472011685371399</v>
       </c>
     </row>
     <row r="621">
@@ -7267,7 +7267,7 @@
         <v>0.8429806393036341</v>
       </c>
       <c r="C621" t="n">
-        <v>0.8583986759185791</v>
+        <v>0.8460384607315063</v>
       </c>
     </row>
     <row r="622">
@@ -7278,7 +7278,7 @@
         <v>0.8430839811515481</v>
       </c>
       <c r="C622" t="n">
-        <v>0.8563404679298401</v>
+        <v>0.8459720015525818</v>
       </c>
     </row>
     <row r="623">
@@ -7289,7 +7289,7 @@
         <v>0.8429048057365272</v>
       </c>
       <c r="C623" t="n">
-        <v>0.8560173511505127</v>
+        <v>0.8465456366539001</v>
       </c>
     </row>
     <row r="624">
@@ -7300,7 +7300,7 @@
         <v>0.8343491904950242</v>
       </c>
       <c r="C624" t="n">
-        <v>0.8551939725875854</v>
+        <v>0.8437996506690979</v>
       </c>
     </row>
     <row r="625">
@@ -7311,7 +7311,7 @@
         <v>0.8514523916989594</v>
       </c>
       <c r="C625" t="n">
-        <v>0.8540623188018799</v>
+        <v>0.8460130095481873</v>
       </c>
     </row>
     <row r="626">
@@ -7322,7 +7322,7 @@
         <v>0.8522133832605403</v>
       </c>
       <c r="C626" t="n">
-        <v>0.858666718006134</v>
+        <v>0.8464614748954773</v>
       </c>
     </row>
     <row r="627">
@@ -7333,7 +7333,7 @@
         <v>0.852624785964622</v>
       </c>
       <c r="C627" t="n">
-        <v>0.8609926700592041</v>
+        <v>0.8465567231178284</v>
       </c>
     </row>
     <row r="628">
@@ -7344,7 +7344,7 @@
         <v>0.8423557629690134</v>
       </c>
       <c r="C628" t="n">
-        <v>0.8606012463569641</v>
+        <v>0.8443784713745117</v>
       </c>
     </row>
     <row r="629">
@@ -7355,7 +7355,7 @@
         <v>0.834333679507709</v>
       </c>
       <c r="C629" t="n">
-        <v>0.8560256361961365</v>
+        <v>0.8419750332832336</v>
       </c>
     </row>
     <row r="630">
@@ -7366,7 +7366,7 @@
         <v>0.8343303133708426</v>
       </c>
       <c r="C630" t="n">
-        <v>0.8512025475502014</v>
+        <v>0.8409754633903503</v>
       </c>
     </row>
     <row r="631">
@@ -7377,7 +7377,7 @@
         <v>0.8343400858423159</v>
       </c>
       <c r="C631" t="n">
-        <v>0.8492602109909058</v>
+        <v>0.8408203721046448</v>
       </c>
     </row>
     <row r="632">
@@ -7388,7 +7388,7 @@
         <v>0.83432343273645</v>
       </c>
       <c r="C632" t="n">
-        <v>0.8490555882453918</v>
+        <v>0.8402057886123657</v>
       </c>
     </row>
     <row r="633">
@@ -7399,7 +7399,7 @@
         <v>0.8431395155434481</v>
       </c>
       <c r="C633" t="n">
-        <v>0.8496700525283813</v>
+        <v>0.8410958647727966</v>
       </c>
     </row>
     <row r="634">
@@ -7410,7 +7410,7 @@
         <v>0.843484782266101</v>
       </c>
       <c r="C634" t="n">
-        <v>0.8526302576065063</v>
+        <v>0.840598464012146</v>
       </c>
     </row>
     <row r="635">
@@ -7421,7 +7421,7 @@
         <v>0.8434868796855317</v>
       </c>
       <c r="C635" t="n">
-        <v>0.8535717725753784</v>
+        <v>0.8398730158805847</v>
       </c>
     </row>
     <row r="636">
@@ -7432,7 +7432,7 @@
         <v>0.8509049666473192</v>
       </c>
       <c r="C636" t="n">
-        <v>0.8544136881828308</v>
+        <v>0.8410823941230774</v>
       </c>
     </row>
     <row r="637">
@@ -7443,7 +7443,7 @@
         <v>0.8508599003705876</v>
       </c>
       <c r="C637" t="n">
-        <v>0.8578647971153259</v>
+        <v>0.8427091836929321</v>
       </c>
     </row>
     <row r="638">
@@ -7454,7 +7454,7 @@
         <v>0.8434750269926423</v>
       </c>
       <c r="C638" t="n">
-        <v>0.8586491346359253</v>
+        <v>0.8428391814231873</v>
       </c>
     </row>
     <row r="639">
@@ -7465,7 +7465,7 @@
         <v>0.843481349895318</v>
       </c>
       <c r="C639" t="n">
-        <v>0.8562567234039307</v>
+        <v>0.8433796167373657</v>
       </c>
     </row>
     <row r="640">
@@ -7476,7 +7476,7 @@
         <v>0.8508575811961149</v>
       </c>
       <c r="C640" t="n">
-        <v>0.855988085269928</v>
+        <v>0.8457860350608826</v>
       </c>
     </row>
     <row r="641">
@@ -7487,7 +7487,7 @@
         <v>0.8509694623243119</v>
       </c>
       <c r="C641" t="n">
-        <v>0.8590332269668579</v>
+        <v>0.8472994565963745</v>
       </c>
     </row>
     <row r="642">
@@ -7498,7 +7498,7 @@
         <v>0.8509340910768955</v>
       </c>
       <c r="C642" t="n">
-        <v>0.8605310916900635</v>
+        <v>0.848013699054718</v>
       </c>
     </row>
     <row r="643">
@@ -7509,7 +7509,7 @@
         <v>0.8508511765863476</v>
       </c>
       <c r="C643" t="n">
-        <v>0.8610431551933289</v>
+        <v>0.8482527732849121</v>
       </c>
     </row>
     <row r="644">
@@ -7520,7 +7520,7 @@
         <v>0.8507409598802986</v>
       </c>
       <c r="C644" t="n">
-        <v>0.8611109256744385</v>
+        <v>0.848550021648407</v>
       </c>
     </row>
     <row r="645">
@@ -7531,7 +7531,7 @@
         <v>0.8434619335621558</v>
       </c>
       <c r="C645" t="n">
-        <v>0.8603107929229736</v>
+        <v>0.847135603427887</v>
       </c>
     </row>
     <row r="646">
@@ -7542,7 +7542,7 @@
         <v>0.8434570972939753</v>
       </c>
       <c r="C646" t="n">
-        <v>0.8576016426086426</v>
+        <v>0.8466348052024841</v>
       </c>
     </row>
     <row r="647">
@@ -7553,7 +7553,7 @@
         <v>0.8435280953645159</v>
       </c>
       <c r="C647" t="n">
-        <v>0.8565381765365601</v>
+        <v>0.8463660478591919</v>
       </c>
     </row>
     <row r="648">
@@ -7564,7 +7564,7 @@
         <v>0.8423385431511464</v>
       </c>
       <c r="C648" t="n">
-        <v>0.8560395836830139</v>
+        <v>0.8457944393157959</v>
       </c>
     </row>
     <row r="649">
@@ -7575,7 +7575,7 @@
         <v>0.834361303496278</v>
       </c>
       <c r="C649" t="n">
-        <v>0.8544955253601074</v>
+        <v>0.8428528308868408</v>
       </c>
     </row>
     <row r="650">
@@ -7586,7 +7586,7 @@
         <v>0.8435065314255487</v>
       </c>
       <c r="C650" t="n">
-        <v>0.8522738814353943</v>
+        <v>0.8433361053466797</v>
       </c>
     </row>
     <row r="651">
@@ -7597,7 +7597,7 @@
         <v>0.8435157716075881</v>
       </c>
       <c r="C651" t="n">
-        <v>0.8538196682929993</v>
+        <v>0.8429349660873413</v>
       </c>
     </row>
     <row r="652">
@@ -7608,7 +7608,7 @@
         <v>0.834349633947694</v>
       </c>
       <c r="C652" t="n">
-        <v>0.8534799814224243</v>
+        <v>0.840302586555481</v>
       </c>
     </row>
     <row r="653">
@@ -7619,7 +7619,7 @@
         <v>0.8251934251570489</v>
       </c>
       <c r="C653" t="n">
-        <v>0.8488563299179077</v>
+        <v>0.8362637162208557</v>
       </c>
     </row>
     <row r="654">
@@ -7630,7 +7630,7 @@
         <v>0.8251663327991579</v>
       </c>
       <c r="C654" t="n">
-        <v>0.8435060977935791</v>
+        <v>0.8340957164764404</v>
       </c>
     </row>
     <row r="655">
@@ -7641,7 +7641,7 @@
         <v>0.825183968203542</v>
       </c>
       <c r="C655" t="n">
-        <v>0.8404738903045654</v>
+        <v>0.8326274156570435</v>
       </c>
     </row>
     <row r="656">
@@ -7652,7 +7652,7 @@
         <v>0.8246265711884732</v>
       </c>
       <c r="C656" t="n">
-        <v>0.8393313884735107</v>
+        <v>0.8313350677490234</v>
       </c>
     </row>
     <row r="657">
@@ -7663,7 +7663,7 @@
         <v>0.82432482447997</v>
       </c>
       <c r="C657" t="n">
-        <v>0.8384256362915039</v>
+        <v>0.8295902609825134</v>
       </c>
     </row>
     <row r="658">
@@ -7674,7 +7674,7 @@
         <v>0.8334149422328651</v>
       </c>
       <c r="C658" t="n">
-        <v>0.8384882807731628</v>
+        <v>0.8304062485694885</v>
       </c>
     </row>
     <row r="659">
@@ -7685,7 +7685,7 @@
         <v>0.83389015487593</v>
       </c>
       <c r="C659" t="n">
-        <v>0.8416042923927307</v>
+        <v>0.8300410509109497</v>
       </c>
     </row>
     <row r="660">
@@ -7696,7 +7696,7 @@
         <v>0.816063252396025</v>
       </c>
       <c r="C660" t="n">
-        <v>0.8406774997711182</v>
+        <v>0.8257601261138916</v>
       </c>
     </row>
     <row r="661">
@@ -7707,7 +7707,7 @@
         <v>0.8160629948675898</v>
       </c>
       <c r="C661" t="n">
-        <v>0.8337746262550354</v>
+        <v>0.8235521912574768</v>
       </c>
     </row>
     <row r="662">
@@ -7718,7 +7718,7 @@
         <v>0.8160245120029135</v>
       </c>
       <c r="C662" t="n">
-        <v>0.8295549750328064</v>
+        <v>0.8224888443946838</v>
       </c>
     </row>
     <row r="663">
@@ -7729,7 +7729,7 @@
         <v>0.8159798442485009</v>
       </c>
       <c r="C663" t="n">
-        <v>0.8283912539482117</v>
+        <v>0.8221745491027832</v>
       </c>
     </row>
     <row r="664">
@@ -7740,7 +7740,7 @@
         <v>0.8156194665690009</v>
       </c>
       <c r="C664" t="n">
-        <v>0.8279160857200623</v>
+        <v>0.8213553428649902</v>
       </c>
     </row>
     <row r="665">
@@ -7751,7 +7751,7 @@
         <v>0.8160339957065077</v>
       </c>
       <c r="C665" t="n">
-        <v>0.82742840051651</v>
+        <v>0.8201144337654114</v>
       </c>
     </row>
     <row r="666">
@@ -7762,7 +7762,7 @@
         <v>0.8247313061592354</v>
       </c>
       <c r="C666" t="n">
-        <v>0.8280491828918457</v>
+        <v>0.8209702372550964</v>
       </c>
     </row>
     <row r="667">
@@ -7773,7 +7773,7 @@
         <v>0.8250248665027931</v>
       </c>
       <c r="C667" t="n">
-        <v>0.8313972353935242</v>
+        <v>0.8210113644599915</v>
       </c>
     </row>
     <row r="668">
@@ -7784,7 +7784,7 @@
         <v>0.8154904977994568</v>
       </c>
       <c r="C668" t="n">
-        <v>0.8316691517829895</v>
+        <v>0.8188039064407349</v>
       </c>
     </row>
     <row r="669">
@@ -7795,7 +7795,7 @@
         <v>0.8068719978598273</v>
       </c>
       <c r="C669" t="n">
-        <v>0.8265956044197083</v>
+        <v>0.8159762024879456</v>
       </c>
     </row>
     <row r="670">
@@ -7806,7 +7806,7 @@
         <v>0.8068675231787906</v>
       </c>
       <c r="C670" t="n">
-        <v>0.8211050629615784</v>
+        <v>0.8148649334907532</v>
       </c>
     </row>
     <row r="671">
@@ -7817,7 +7817,7 @@
         <v>0.8068465828591529</v>
       </c>
       <c r="C671" t="n">
-        <v>0.8187217116355896</v>
+        <v>0.8143947124481201</v>
       </c>
     </row>
     <row r="672">
@@ -7828,7 +7828,7 @@
         <v>0.8067754350514615</v>
       </c>
       <c r="C672" t="n">
-        <v>0.8181724548339844</v>
+        <v>0.8135852217674255</v>
       </c>
     </row>
     <row r="673">
@@ -7839,7 +7839,7 @@
         <v>0.7977041782045614</v>
       </c>
       <c r="C673" t="n">
-        <v>0.8163943886756897</v>
+        <v>0.8100234270095825</v>
       </c>
     </row>
     <row r="674">
@@ -7850,7 +7850,7 @@
         <v>0.8155057961280067</v>
       </c>
       <c r="C674" t="n">
-        <v>0.8152302503585815</v>
+        <v>0.8118518590927124</v>
       </c>
     </row>
     <row r="675">
@@ -7861,7 +7861,7 @@
         <v>0.8160184746372593</v>
       </c>
       <c r="C675" t="n">
-        <v>0.8200492858886719</v>
+        <v>0.8122348189353943</v>
       </c>
     </row>
     <row r="676">
@@ -7872,7 +7872,7 @@
         <v>0.8160229025700124</v>
       </c>
       <c r="C676" t="n">
-        <v>0.8225945234298706</v>
+        <v>0.8122453689575195</v>
       </c>
     </row>
     <row r="677">
@@ -7883,7 +7883,7 @@
         <v>0.7977069995634017</v>
       </c>
       <c r="C677" t="n">
-        <v>0.8205733895301819</v>
+        <v>0.80802321434021</v>
       </c>
     </row>
     <row r="678">
@@ -7894,7 +7894,7 @@
         <v>0.7977094660889407</v>
       </c>
       <c r="C678" t="n">
-        <v>0.8134958148002625</v>
+        <v>0.8061845898628235</v>
       </c>
     </row>
     <row r="679">
@@ -7905,7 +7905,7 @@
         <v>0.7977164896607732</v>
       </c>
       <c r="C679" t="n">
-        <v>0.8094744682312012</v>
+        <v>0.8056336045265198</v>
       </c>
     </row>
     <row r="680">
@@ -7916,7 +7916,7 @@
         <v>0.797716225577679</v>
       </c>
       <c r="C680" t="n">
-        <v>0.8085440397262573</v>
+        <v>0.8054011464118958</v>
       </c>
     </row>
     <row r="681">
@@ -7927,7 +7927,7 @@
         <v>0.7977133281715766</v>
       </c>
       <c r="C681" t="n">
-        <v>0.8083562850952148</v>
+        <v>0.8045303821563721</v>
       </c>
     </row>
     <row r="682">
@@ -7938,7 +7938,7 @@
         <v>0.8065681732266299</v>
       </c>
       <c r="C682" t="n">
-        <v>0.8092730045318604</v>
+        <v>0.8053107261657715</v>
       </c>
     </row>
     <row r="683">
@@ -7949,7 +7949,7 @@
         <v>0.8068375016297405</v>
       </c>
       <c r="C683" t="n">
-        <v>0.8120805621147156</v>
+        <v>0.8049910068511963</v>
       </c>
     </row>
     <row r="684">
@@ -7960,7 +7960,7 @@
         <v>0.8068554077750455</v>
       </c>
       <c r="C684" t="n">
-        <v>0.8132804036140442</v>
+        <v>0.8046260476112366</v>
       </c>
     </row>
     <row r="685">
@@ -7971,7 +7971,7 @@
         <v>0.8068495046998267</v>
       </c>
       <c r="C685" t="n">
-        <v>0.8134457468986511</v>
+        <v>0.8045956492424011</v>
       </c>
     </row>
     <row r="686">
@@ -7982,7 +7982,7 @@
         <v>0.8145845468142303</v>
       </c>
       <c r="C686" t="n">
-        <v>0.8149709701538086</v>
+        <v>0.8072870373725891</v>
       </c>
     </row>
     <row r="687">
@@ -7993,7 +7993,7 @@
         <v>0.8146152547239918</v>
       </c>
       <c r="C687" t="n">
-        <v>0.8188847303390503</v>
+        <v>0.8094567060470581</v>
       </c>
     </row>
     <row r="688">
@@ -8004,7 +8004,7 @@
         <v>0.814702653793472</v>
       </c>
       <c r="C688" t="n">
-        <v>0.8207286596298218</v>
+        <v>0.8110600709915161</v>
       </c>
     </row>
     <row r="689">
@@ -8015,7 +8015,7 @@
         <v>0.8147262923208844</v>
       </c>
       <c r="C689" t="n">
-        <v>0.8215590715408325</v>
+        <v>0.8122007846832275</v>
       </c>
     </row>
     <row r="690">
@@ -8026,7 +8026,7 @@
         <v>0.8147768117597738</v>
       </c>
       <c r="C690" t="n">
-        <v>0.8220775127410889</v>
+        <v>0.8133847117424011</v>
       </c>
     </row>
     <row r="691">
@@ -8037,7 +8037,7 @@
         <v>0.8147361294241732</v>
       </c>
       <c r="C691" t="n">
-        <v>0.8224153518676758</v>
+        <v>0.8142294883728027</v>
       </c>
     </row>
     <row r="692">
@@ -8048,7 +8048,7 @@
         <v>0.814732755795882</v>
       </c>
       <c r="C692" t="n">
-        <v>0.8228461742401123</v>
+        <v>0.8150389194488525</v>
       </c>
     </row>
     <row r="693">
@@ -8059,7 +8059,7 @@
         <v>0.8147194940462512</v>
       </c>
       <c r="C693" t="n">
-        <v>0.8230633735656738</v>
+        <v>0.8154770731925964</v>
       </c>
     </row>
     <row r="694">
@@ -8070,7 +8070,7 @@
         <v>0.8148844026845433</v>
       </c>
       <c r="C694" t="n">
-        <v>0.8233806490898132</v>
+        <v>0.8158101439476013</v>
       </c>
     </row>
     <row r="695">
@@ -8081,7 +8081,7 @@
         <v>0.8068580844516307</v>
       </c>
       <c r="C695" t="n">
-        <v>0.8222537040710449</v>
+        <v>0.8137867450714111</v>
       </c>
     </row>
     <row r="696">
@@ -8092,7 +8092,7 @@
         <v>0.7976764901993565</v>
       </c>
       <c r="C696" t="n">
-        <v>0.8176767230033875</v>
+        <v>0.8102565407752991</v>
       </c>
     </row>
     <row r="697">
@@ -8103,7 +8103,7 @@
         <v>0.7885220034136516</v>
       </c>
       <c r="C697" t="n">
-        <v>0.811122715473175</v>
+        <v>0.8059134483337402</v>
       </c>
     </row>
     <row r="698">
@@ -8114,7 +8114,7 @@
         <v>0.8057413410659244</v>
       </c>
       <c r="C698" t="n">
-        <v>0.8086633682250977</v>
+        <v>0.8078493475914001</v>
       </c>
     </row>
     <row r="699">
@@ -8125,7 +8125,7 @@
         <v>0.8060092959646969</v>
       </c>
       <c r="C699" t="n">
-        <v>0.8122596740722656</v>
+        <v>0.8079750537872314</v>
       </c>
     </row>
     <row r="700">
@@ -8136,7 +8136,7 @@
         <v>0.7976484593062071</v>
       </c>
       <c r="C700" t="n">
-        <v>0.8127005696296692</v>
+        <v>0.8050326704978943</v>
       </c>
     </row>
     <row r="701">
@@ -8147,7 +8147,7 @@
         <v>0.788240226783178</v>
       </c>
       <c r="C701" t="n">
-        <v>0.8079372048377991</v>
+        <v>0.8003257513046265</v>
       </c>
     </row>
     <row r="702">
@@ -8158,7 +8158,7 @@
         <v>0.788155300800862</v>
       </c>
       <c r="C702" t="n">
-        <v>0.8021475672721863</v>
+        <v>0.7974589467048645</v>
       </c>
     </row>
     <row r="703">
@@ -8169,7 +8169,7 @@
         <v>0.7793375518313552</v>
       </c>
       <c r="C703" t="n">
-        <v>0.7976974844932556</v>
+        <v>0.793924868106842</v>
       </c>
     </row>
     <row r="704">
@@ -8180,7 +8180,7 @@
         <v>0.7793332024242176</v>
       </c>
       <c r="C704" t="n">
-        <v>0.7939938306808472</v>
+        <v>0.7920238971710205</v>
       </c>
     </row>
     <row r="705">
@@ -8191,7 +8191,7 @@
         <v>0.7793375960193243</v>
       </c>
       <c r="C705" t="n">
-        <v>0.7919411659240723</v>
+        <v>0.7901811599731445</v>
       </c>
     </row>
     <row r="706">
@@ -8202,7 +8202,7 @@
         <v>0.7884990391418383</v>
       </c>
       <c r="C706" t="n">
-        <v>0.7923922538757324</v>
+        <v>0.7905030250549316</v>
       </c>
     </row>
     <row r="707">
@@ -8213,7 +8213,7 @@
         <v>0.7884721497975439</v>
       </c>
       <c r="C707" t="n">
-        <v>0.7942016124725342</v>
+        <v>0.789716362953186</v>
       </c>
     </row>
     <row r="708">
@@ -8224,7 +8224,7 @@
         <v>0.7884888934501759</v>
       </c>
       <c r="C708" t="n">
-        <v>0.7948780059814453</v>
+        <v>0.7888222336769104</v>
       </c>
     </row>
     <row r="709">
@@ -8235,7 +8235,7 @@
         <v>0.7793360420472072</v>
       </c>
       <c r="C709" t="n">
-        <v>0.7931952476501465</v>
+        <v>0.7861124873161316</v>
       </c>
     </row>
     <row r="710">
@@ -8246,7 +8246,7 @@
         <v>0.7787559264041721</v>
       </c>
       <c r="C710" t="n">
-        <v>0.789766788482666</v>
+        <v>0.7849754691123962</v>
       </c>
     </row>
     <row r="711">
@@ -8257,7 +8257,7 @@
         <v>0.7787111190915508</v>
       </c>
       <c r="C711" t="n">
-        <v>0.7877141237258911</v>
+        <v>0.7848529815673828</v>
       </c>
     </row>
     <row r="712">
@@ -8268,7 +8268,7 @@
         <v>0.7787072056808348</v>
       </c>
       <c r="C712" t="n">
-        <v>0.7872204184532166</v>
+        <v>0.7847261428833008</v>
       </c>
     </row>
     <row r="713">
@@ -8279,7 +8279,7 @@
         <v>0.770160705079152</v>
       </c>
       <c r="C713" t="n">
-        <v>0.7854683399200439</v>
+        <v>0.7823942899703979</v>
       </c>
     </row>
     <row r="714">
@@ -8290,7 +8290,7 @@
         <v>0.7701640977663855</v>
       </c>
       <c r="C714" t="n">
-        <v>0.7825063467025757</v>
+        <v>0.7803578972816467</v>
       </c>
     </row>
     <row r="715">
@@ -8301,7 +8301,7 @@
         <v>0.7793069704051035</v>
       </c>
       <c r="C715" t="n">
-        <v>0.7821522355079651</v>
+        <v>0.7809175848960876</v>
       </c>
     </row>
     <row r="716">
@@ -8312,7 +8312,7 @@
         <v>0.7792857266263442</v>
       </c>
       <c r="C716" t="n">
-        <v>0.7843369841575623</v>
+        <v>0.7810262441635132</v>
       </c>
     </row>
     <row r="717">
@@ -8323,7 +8323,7 @@
         <v>0.7793164191000127</v>
       </c>
       <c r="C717" t="n">
-        <v>0.7854737043380737</v>
+        <v>0.7809430360794067</v>
       </c>
     </row>
     <row r="718">
@@ -8334,7 +8334,7 @@
         <v>0.7697710546328862</v>
       </c>
       <c r="C718" t="n">
-        <v>0.7839825749397278</v>
+        <v>0.7784984707832336</v>
       </c>
     </row>
     <row r="719">
@@ -8345,7 +8345,7 @@
         <v>0.7610105733432071</v>
       </c>
       <c r="C719" t="n">
-        <v>0.778925359249115</v>
+        <v>0.7749897241592407</v>
       </c>
     </row>
     <row r="720">
@@ -8356,7 +8356,7 @@
         <v>0.7610017469281309</v>
       </c>
       <c r="C720" t="n">
-        <v>0.7741882801055908</v>
+        <v>0.7733392715454102</v>
       </c>
     </row>
     <row r="721">
@@ -8367,7 +8367,7 @@
         <v>0.7610046760738088</v>
       </c>
       <c r="C721" t="n">
-        <v>0.7721306085586548</v>
+        <v>0.7721704244613647</v>
       </c>
     </row>
     <row r="722">
@@ -8378,7 +8378,7 @@
         <v>0.7609878737565198</v>
       </c>
       <c r="C722" t="n">
-        <v>0.7714826464653015</v>
+        <v>0.7713344097137451</v>
       </c>
     </row>
     <row r="723">
@@ -8389,7 +8389,7 @@
         <v>0.7695847713823447</v>
       </c>
       <c r="C723" t="n">
-        <v>0.7724900841712952</v>
+        <v>0.7720255851745605</v>
       </c>
     </row>
     <row r="724">
@@ -8400,7 +8400,7 @@
         <v>0.7780370449509022</v>
       </c>
       <c r="C724" t="n">
-        <v>0.7763895988464355</v>
+        <v>0.7734286785125732</v>
       </c>
     </row>
     <row r="725">
@@ -8411,7 +8411,7 @@
         <v>0.7782662906953303</v>
       </c>
       <c r="C725" t="n">
-        <v>0.7804738283157349</v>
+        <v>0.7744336724281311</v>
       </c>
     </row>
     <row r="726">
@@ -8422,7 +8422,7 @@
         <v>0.7699700969365985</v>
       </c>
       <c r="C726" t="n">
-        <v>0.7806240320205688</v>
+        <v>0.7730905413627625</v>
       </c>
     </row>
     <row r="727">
@@ -8433,7 +8433,7 @@
         <v>0.7609732442817807</v>
       </c>
       <c r="C727" t="n">
-        <v>0.776494026184082</v>
+        <v>0.7709418535232544</v>
       </c>
     </row>
     <row r="728">
@@ -8444,7 +8444,7 @@
         <v>0.7609629659866679</v>
       </c>
       <c r="C728" t="n">
-        <v>0.7723813652992249</v>
+        <v>0.7704654335975647</v>
       </c>
     </row>
     <row r="729">
@@ -8455,7 +8455,7 @@
         <v>0.7691626630163511</v>
       </c>
       <c r="C729" t="n">
-        <v>0.7721778154373169</v>
+        <v>0.7725545763969421</v>
       </c>
     </row>
     <row r="730">
@@ -8466,7 +8466,7 @@
         <v>0.7609707770364739</v>
       </c>
       <c r="C730" t="n">
-        <v>0.7731142044067383</v>
+        <v>0.7715423703193665</v>
       </c>
     </row>
     <row r="731">
@@ -8477,7 +8477,7 @@
         <v>0.7609693728346718</v>
       </c>
       <c r="C731" t="n">
-        <v>0.7717921137809753</v>
+        <v>0.7702659964561462</v>
       </c>
     </row>
     <row r="732">
@@ -8488,7 +8488,7 @@
         <v>0.7701366365320023</v>
       </c>
       <c r="C732" t="n">
-        <v>0.7720134258270264</v>
+        <v>0.7708730101585388</v>
       </c>
     </row>
     <row r="733">
@@ -8499,7 +8499,7 @@
         <v>0.7701379532012492</v>
       </c>
       <c r="C733" t="n">
-        <v>0.7744019627571106</v>
+        <v>0.7710594534873962</v>
       </c>
     </row>
     <row r="734">
@@ -8510,7 +8510,7 @@
         <v>0.7777510591448854</v>
       </c>
       <c r="C734" t="n">
-        <v>0.7772105932235718</v>
+        <v>0.7730922102928162</v>
       </c>
     </row>
     <row r="735">
@@ -8521,7 +8521,7 @@
         <v>0.7778197425493741</v>
       </c>
       <c r="C735" t="n">
-        <v>0.7804924249649048</v>
+        <v>0.7745754718780518</v>
       </c>
     </row>
     <row r="736">
@@ -8532,7 +8532,7 @@
         <v>0.7778112427638101</v>
       </c>
       <c r="C736" t="n">
-        <v>0.7821701765060425</v>
+        <v>0.7758007049560547</v>
       </c>
     </row>
     <row r="737">
@@ -8543,7 +8543,7 @@
         <v>0.7776078731886689</v>
       </c>
       <c r="C737" t="n">
-        <v>0.7826166749000549</v>
+        <v>0.7770761847496033</v>
       </c>
     </row>
     <row r="738">
@@ -8554,7 +8554,7 @@
         <v>0.7777364004817187</v>
       </c>
       <c r="C738" t="n">
-        <v>0.7830474972724915</v>
+        <v>0.7782581448554993</v>
       </c>
     </row>
     <row r="739">
@@ -8565,7 +8565,7 @@
         <v>0.7777746712056858</v>
       </c>
       <c r="C739" t="n">
-        <v>0.7835425138473511</v>
+        <v>0.7794836163520813</v>
       </c>
     </row>
     <row r="740">
@@ -8576,7 +8576,7 @@
         <v>0.7777968355016346</v>
       </c>
       <c r="C740" t="n">
-        <v>0.7839767336845398</v>
+        <v>0.7802685499191284</v>
       </c>
     </row>
     <row r="741">
@@ -8587,7 +8587,7 @@
         <v>0.7776922390321205</v>
       </c>
       <c r="C741" t="n">
-        <v>0.7843669652938843</v>
+        <v>0.7807936072349548</v>
       </c>
     </row>
     <row r="742">
@@ -8598,7 +8598,7 @@
         <v>0.7777007024134592</v>
       </c>
       <c r="C742" t="n">
-        <v>0.7845494747161865</v>
+        <v>0.7810626029968262</v>
       </c>
     </row>
     <row r="743">
@@ -8609,7 +8609,7 @@
         <v>0.7777645681740761</v>
       </c>
       <c r="C743" t="n">
-        <v>0.7846012711524963</v>
+        <v>0.7810865640640259</v>
       </c>
     </row>
     <row r="744">
@@ -8620,7 +8620,7 @@
         <v>0.787773964476129</v>
       </c>
       <c r="C744" t="n">
-        <v>0.7865468859672546</v>
+        <v>0.7834259271621704</v>
       </c>
     </row>
     <row r="745">
@@ -8631,7 +8631,7 @@
         <v>0.7786042928043504</v>
       </c>
       <c r="C745" t="n">
-        <v>0.788776695728302</v>
+        <v>0.7827373743057251</v>
       </c>
     </row>
     <row r="746">
@@ -8642,7 +8642,7 @@
         <v>0.7701391446200333</v>
       </c>
       <c r="C746" t="n">
-        <v>0.7857586145401001</v>
+        <v>0.7803086638450623</v>
       </c>
     </row>
     <row r="747">
@@ -8653,7 +8653,7 @@
         <v>0.778692024694692</v>
       </c>
       <c r="C747" t="n">
-        <v>0.783374547958374</v>
+        <v>0.781083345413208</v>
       </c>
     </row>
     <row r="748">
@@ -8664,7 +8664,7 @@
         <v>0.7783856566956286</v>
       </c>
       <c r="C748" t="n">
-        <v>0.7842307686805725</v>
+        <v>0.7815366983413696</v>
       </c>
     </row>
     <row r="749">
@@ -8675,7 +8675,7 @@
         <v>0.7780897942531835</v>
       </c>
       <c r="C749" t="n">
-        <v>0.7852357029914856</v>
+        <v>0.7818006277084351</v>
       </c>
     </row>
     <row r="750">
@@ -8686,7 +8686,7 @@
         <v>0.760971600501005</v>
       </c>
       <c r="C750" t="n">
-        <v>0.7822281718254089</v>
+        <v>0.7774873971939087</v>
       </c>
     </row>
     <row r="751">
@@ -8697,7 +8697,7 @@
         <v>0.7602768185348822</v>
       </c>
       <c r="C751" t="n">
-        <v>0.7765682339668274</v>
+        <v>0.7744978070259094</v>
       </c>
     </row>
     <row r="752">
@@ -8708,7 +8708,7 @@
         <v>0.7517985189623699</v>
       </c>
       <c r="C752" t="n">
-        <v>0.7710273861885071</v>
+        <v>0.7707428932189941</v>
       </c>
     </row>
     <row r="753">
@@ -8719,7 +8719,7 @@
         <v>0.7518261295684743</v>
       </c>
       <c r="C753" t="n">
-        <v>0.7670086622238159</v>
+        <v>0.7681875824928284</v>
       </c>
     </row>
     <row r="754">
@@ -8730,7 +8730,7 @@
         <v>0.7517965462148882</v>
       </c>
       <c r="C754" t="n">
-        <v>0.7648553848266602</v>
+        <v>0.7660503387451172</v>
       </c>
     </row>
     <row r="755">
@@ -8741,7 +8741,7 @@
         <v>0.7516480579953678</v>
       </c>
       <c r="C755" t="n">
-        <v>0.7634817361831665</v>
+        <v>0.7639503479003906</v>
       </c>
     </row>
     <row r="756">
@@ -8752,7 +8752,7 @@
         <v>0.7609650723422423</v>
       </c>
       <c r="C756" t="n">
-        <v>0.7639605402946472</v>
+        <v>0.7638014554977417</v>
       </c>
     </row>
     <row r="757">
@@ -8763,7 +8763,7 @@
         <v>0.7686288678445553</v>
       </c>
       <c r="C757" t="n">
-        <v>0.7673733830451965</v>
+        <v>0.7650966048240662</v>
       </c>
     </row>
     <row r="758">
@@ -8774,7 +8774,7 @@
         <v>0.7686471799151533</v>
       </c>
       <c r="C758" t="n">
-        <v>0.7712931632995605</v>
+        <v>0.7657827138900757</v>
       </c>
     </row>
     <row r="759">
@@ -8785,7 +8785,7 @@
         <v>0.7518034198211759</v>
       </c>
       <c r="C759" t="n">
-        <v>0.7694706916809082</v>
+        <v>0.7629094123840332</v>
       </c>
     </row>
     <row r="760">
@@ -8796,7 +8796,7 @@
         <v>0.742695970701875</v>
       </c>
       <c r="C760" t="n">
-        <v>0.7626662254333496</v>
+        <v>0.7594720721244812</v>
       </c>
     </row>
     <row r="761">
@@ -8807,7 +8807,7 @@
         <v>0.7426970178653211</v>
       </c>
       <c r="C761" t="n">
-        <v>0.7568414211273193</v>
+        <v>0.7579764723777771</v>
       </c>
     </row>
     <row r="762">
@@ -8818,7 +8818,7 @@
         <v>0.7426788827635972</v>
       </c>
       <c r="C762" t="n">
-        <v>0.7544265985488892</v>
+        <v>0.7576864957809448</v>
       </c>
     </row>
     <row r="763">
@@ -8829,7 +8829,7 @@
         <v>0.7426926411037136</v>
       </c>
       <c r="C763" t="n">
-        <v>0.7538880109786987</v>
+        <v>0.7565882802009583</v>
       </c>
     </row>
     <row r="764">
@@ -8840,7 +8840,7 @@
         <v>0.7426792936547897</v>
       </c>
       <c r="C764" t="n">
-        <v>0.7532535195350647</v>
+        <v>0.7548487186431885</v>
       </c>
     </row>
     <row r="765">
@@ -8851,7 +8851,7 @@
         <v>0.7518303435666132</v>
       </c>
       <c r="C765" t="n">
-        <v>0.754247784614563</v>
+        <v>0.7550039887428284</v>
       </c>
     </row>
     <row r="766">
@@ -8862,7 +8862,7 @@
         <v>0.7595307734105102</v>
       </c>
       <c r="C766" t="n">
-        <v>0.7579726576805115</v>
+        <v>0.756501317024231</v>
       </c>
     </row>
     <row r="767">
@@ -8873,7 +8873,7 @@
         <v>0.7426915415739193</v>
       </c>
       <c r="C767" t="n">
-        <v>0.7583631277084351</v>
+        <v>0.7537323832511902</v>
       </c>
     </row>
     <row r="768">
@@ -8884,7 +8884,7 @@
         <v>0.7335077788991919</v>
       </c>
       <c r="C768" t="n">
-        <v>0.7525048851966858</v>
+        <v>0.7501370906829834</v>
       </c>
     </row>
     <row r="769">
@@ -8895,7 +8895,7 @@
         <v>0.7334926352729448</v>
       </c>
       <c r="C769" t="n">
-        <v>0.7468572854995728</v>
+        <v>0.7484710216522217</v>
       </c>
     </row>
     <row r="770">
@@ -8906,7 +8906,7 @@
         <v>0.788212009324019</v>
       </c>
       <c r="C770" t="n">
-        <v>0.756523609161377</v>
+        <v>0.7611406445503235</v>
       </c>
     </row>
     <row r="771">
@@ -8917,7 +8917,7 @@
         <v>0.7792217568550017</v>
       </c>
       <c r="C771" t="n">
-        <v>0.7768945097923279</v>
+        <v>0.7668431997299194</v>
       </c>
     </row>
     <row r="772">
@@ -8928,7 +8928,7 @@
         <v>0.7426954539708854</v>
       </c>
       <c r="C772" t="n">
-        <v>0.7751029133796692</v>
+        <v>0.7612332105636597</v>
       </c>
     </row>
     <row r="773">
@@ -8939,7 +8939,7 @@
         <v>0.7243595524425454</v>
       </c>
       <c r="C773" t="n">
-        <v>0.7600290179252625</v>
+        <v>0.7530825734138489</v>
       </c>
     </row>
     <row r="774">
@@ -8950,7 +8950,7 @@
         <v>0.7426521030980084</v>
       </c>
       <c r="C774" t="n">
-        <v>0.7519660592079163</v>
+        <v>0.7540727853775024</v>
       </c>
     </row>
     <row r="775">
@@ -8961,7 +8961,7 @@
         <v>0.7426591444837441</v>
       </c>
       <c r="C775" t="n">
-        <v>0.7517147064208984</v>
+        <v>0.7559340000152588</v>
       </c>
     </row>
     <row r="776">
@@ -8972,7 +8972,7 @@
         <v>0.7426440259513354</v>
       </c>
       <c r="C776" t="n">
-        <v>0.7541455626487732</v>
+        <v>0.7563896179199219</v>
       </c>
     </row>
     <row r="777">
@@ -8983,7 +8983,7 @@
         <v>0.715203652451516</v>
       </c>
       <c r="C777" t="n">
-        <v>0.7486507296562195</v>
+        <v>0.7479205727577209</v>
       </c>
     </row>
     <row r="778">
@@ -8994,7 +8994,7 @@
         <v>0.7060244372372267</v>
       </c>
       <c r="C778" t="n">
-        <v>0.7375738620758057</v>
+        <v>0.7377599477767944</v>
       </c>
     </row>
     <row r="779">
@@ -9005,7 +9005,7 @@
         <v>0.6968325298119129</v>
       </c>
       <c r="C779" t="n">
-        <v>0.7250720858573914</v>
+        <v>0.7273057103157043</v>
       </c>
     </row>
     <row r="780">
@@ -9016,7 +9016,7 @@
         <v>0.6876599409662539</v>
       </c>
       <c r="C780" t="n">
-        <v>0.7153206467628479</v>
+        <v>0.718412458896637</v>
       </c>
     </row>
     <row r="781">
@@ -9027,7 +9027,7 @@
         <v>0.67852222237229</v>
       </c>
       <c r="C781" t="n">
-        <v>0.70742267370224</v>
+        <v>0.7084271311759949</v>
       </c>
     </row>
     <row r="782">
@@ -9038,7 +9038,7 @@
         <v>0.6968153444629904</v>
       </c>
       <c r="C782" t="n">
-        <v>0.7054311633110046</v>
+        <v>0.7061734199523926</v>
       </c>
     </row>
     <row r="783">
@@ -9049,7 +9049,7 @@
         <v>0.6968075947580863</v>
       </c>
       <c r="C783" t="n">
-        <v>0.7044143080711365</v>
+        <v>0.7022851705551147</v>
       </c>
     </row>
     <row r="784">
@@ -9060,7 +9060,7 @@
         <v>0.6785087435155092</v>
       </c>
       <c r="C784" t="n">
-        <v>0.698549747467041</v>
+        <v>0.6920080780982971</v>
       </c>
     </row>
     <row r="785">
@@ -9071,7 +9071,7 @@
         <v>0.66935260096626</v>
       </c>
       <c r="C785" t="n">
-        <v>0.6887350678443909</v>
+        <v>0.68172687292099</v>
       </c>
     </row>
     <row r="786">
@@ -9082,7 +9082,7 @@
         <v>0.6693454132991119</v>
       </c>
       <c r="C786" t="n">
-        <v>0.6807177066802979</v>
+        <v>0.6757525205612183</v>
       </c>
     </row>
     <row r="787">
@@ -9093,7 +9093,7 @@
         <v>0.6601860023591025</v>
       </c>
       <c r="C787" t="n">
-        <v>0.6737702488899231</v>
+        <v>0.6703684329986572</v>
       </c>
     </row>
     <row r="788">
@@ -9104,7 +9104,7 @@
         <v>0.6601785073519815</v>
       </c>
       <c r="C788" t="n">
-        <v>0.6688970327377319</v>
+        <v>0.66666579246521</v>
       </c>
     </row>
     <row r="789">
@@ -9115,7 +9115,7 @@
         <v>0.6510028772648012</v>
       </c>
       <c r="C789" t="n">
-        <v>0.6630563139915466</v>
+        <v>0.6606049537658691</v>
       </c>
     </row>
     <row r="790">
@@ -9126,7 +9126,7 @@
         <v>0.6601695863375638</v>
       </c>
       <c r="C790" t="n">
-        <v>0.6611615419387817</v>
+        <v>0.6580269932746887</v>
       </c>
     </row>
     <row r="791">
@@ -9137,7 +9137,7 @@
         <v>0.6784974209154092</v>
       </c>
       <c r="C791" t="n">
-        <v>0.6648399233818054</v>
+        <v>0.6610481739044189</v>
       </c>
     </row>
     <row r="792">
@@ -9148,7 +9148,7 @@
         <v>0.6873050089968968</v>
       </c>
       <c r="C792" t="n">
-        <v>0.6744939088821411</v>
+        <v>0.6665524244308472</v>
       </c>
     </row>
     <row r="793">
@@ -9159,7 +9159,7 @@
         <v>0.6510014050307434</v>
       </c>
       <c r="C793" t="n">
-        <v>0.671501100063324</v>
+        <v>0.6598093509674072</v>
       </c>
     </row>
     <row r="794">
@@ -9170,7 +9170,7 @@
         <v>0.6418271603462382</v>
       </c>
       <c r="C794" t="n">
-        <v>0.6610211730003357</v>
+        <v>0.6514540314674377</v>
       </c>
     </row>
     <row r="795">
@@ -9181,7 +9181,7 @@
         <v>0.6418239752788724</v>
       </c>
       <c r="C795" t="n">
-        <v>0.6539204120635986</v>
+        <v>0.6469957828521729</v>
       </c>
     </row>
     <row r="796">
@@ -9192,7 +9192,7 @@
         <v>0.6418267095833403</v>
       </c>
       <c r="C796" t="n">
-        <v>0.6514227390289307</v>
+        <v>0.6456121802330017</v>
       </c>
     </row>
     <row r="797">
@@ -9203,7 +9203,7 @@
         <v>0.6418332742201411</v>
       </c>
       <c r="C797" t="n">
-        <v>0.6508302092552185</v>
+        <v>0.6438361406326294</v>
       </c>
     </row>
     <row r="798">
@@ -9214,7 +9214,7 @@
         <v>0.6326754908837782</v>
       </c>
       <c r="C798" t="n">
-        <v>0.6485397815704346</v>
+        <v>0.6396387219429016</v>
       </c>
     </row>
     <row r="799">
@@ -9225,7 +9225,7 @@
         <v>0.6235120915740934</v>
       </c>
       <c r="C799" t="n">
-        <v>0.6438976526260376</v>
+        <v>0.6334057450294495</v>
       </c>
     </row>
     <row r="800">
@@ -9236,7 +9236,7 @@
         <v>0.6235000308373421</v>
       </c>
       <c r="C800" t="n">
-        <v>0.6395214200019836</v>
+        <v>0.627903938293457</v>
       </c>
     </row>
     <row r="801">
@@ -9247,7 +9247,7 @@
         <v>0.6234726990258533</v>
       </c>
       <c r="C801" t="n">
-        <v>0.6367893815040588</v>
+        <v>0.6242587566375732</v>
       </c>
     </row>
     <row r="802">
@@ -9258,7 +9258,7 @@
         <v>0.6234832577515464</v>
       </c>
       <c r="C802" t="n">
-        <v>0.6356741786003113</v>
+        <v>0.6221778988838196</v>
       </c>
     </row>
     <row r="803">
@@ -9269,7 +9269,7 @@
         <v>0.6143106098994054</v>
       </c>
       <c r="C803" t="n">
-        <v>0.6329424381256104</v>
+        <v>0.6189593076705933</v>
       </c>
     </row>
     <row r="804">
@@ -9280,7 +9280,7 @@
         <v>0.6143109390424624</v>
       </c>
       <c r="C804" t="n">
-        <v>0.6301235556602478</v>
+        <v>0.6153855919837952</v>
       </c>
     </row>
     <row r="805">
@@ -9291,7 +9291,7 @@
         <v>0.6234911285799998</v>
       </c>
       <c r="C805" t="n">
-        <v>0.6300510764122009</v>
+        <v>0.6145510077476501</v>
       </c>
     </row>
     <row r="806">
@@ -9302,7 +9302,7 @@
         <v>0.6234925948864642</v>
       </c>
       <c r="C806" t="n">
-        <v>0.6310675144195557</v>
+        <v>0.6154711842536926</v>
       </c>
     </row>
     <row r="807">
@@ -9313,7 +9313,7 @@
         <v>0.6326352273804865</v>
       </c>
       <c r="C807" t="n">
-        <v>0.6339709758758545</v>
+        <v>0.6173222661018372</v>
       </c>
     </row>
     <row r="808">
@@ -9324,7 +9324,7 @@
         <v>0.6326353988444847</v>
       </c>
       <c r="C808" t="n">
-        <v>0.6360602378845215</v>
+        <v>0.6194026470184326</v>
       </c>
     </row>
     <row r="809">
@@ -9335,7 +9335,7 @@
         <v>0.6234610434894136</v>
       </c>
       <c r="C809" t="n">
-        <v>0.635408878326416</v>
+        <v>0.6190738677978516</v>
       </c>
     </row>
     <row r="810">
@@ -9346,7 +9346,7 @@
         <v>0.6234628325298989</v>
       </c>
       <c r="C810" t="n">
-        <v>0.6339462399482727</v>
+        <v>0.617946445941925</v>
       </c>
     </row>
     <row r="811">
@@ -9357,7 +9357,7 @@
         <v>0.6234628389560644</v>
       </c>
       <c r="C811" t="n">
-        <v>0.6329432725906372</v>
+        <v>0.6178185939788818</v>
       </c>
     </row>
     <row r="812">
@@ -9368,7 +9368,7 @@
         <v>0.6326322144978266</v>
       </c>
       <c r="C812" t="n">
-        <v>0.6348971128463745</v>
+        <v>0.619941771030426</v>
       </c>
     </row>
     <row r="813">
@@ -9379,7 +9379,7 @@
         <v>0.6326414821723447</v>
       </c>
       <c r="C813" t="n">
-        <v>0.6369171142578125</v>
+        <v>0.6221768856048584</v>
       </c>
     </row>
     <row r="814">
@@ -9390,7 +9390,7 @@
         <v>0.6326881805438638</v>
       </c>
       <c r="C814" t="n">
-        <v>0.6382878422737122</v>
+        <v>0.6233386397361755</v>
       </c>
     </row>
     <row r="815">
@@ -9401,7 +9401,7 @@
         <v>0.6327033342255619</v>
       </c>
       <c r="C815" t="n">
-        <v>0.6385631561279297</v>
+        <v>0.6235451698303223</v>
       </c>
     </row>
     <row r="816">
@@ -9412,7 +9412,7 @@
         <v>0.6326973298732181</v>
       </c>
       <c r="C816" t="n">
-        <v>0.6387071013450623</v>
+        <v>0.6238424777984619</v>
       </c>
     </row>
     <row r="817">
@@ -9423,7 +9423,7 @@
         <v>0.660159818811223</v>
       </c>
       <c r="C817" t="n">
-        <v>0.6445382237434387</v>
+        <v>0.6298758387565613</v>
       </c>
     </row>
     <row r="818">
@@ -9434,7 +9434,7 @@
         <v>0.6417979070820522</v>
       </c>
       <c r="C818" t="n">
-        <v>0.6471906304359436</v>
+        <v>0.6335668563842773</v>
       </c>
     </row>
     <row r="819">
@@ -9445,7 +9445,7 @@
         <v>0.6418052270629558</v>
       </c>
       <c r="C819" t="n">
-        <v>0.6476861238479614</v>
+        <v>0.6333082914352417</v>
       </c>
     </row>
     <row r="820">
@@ -9456,7 +9456,7 @@
         <v>0.6326225470516136</v>
       </c>
       <c r="C820" t="n">
-        <v>0.644298255443573</v>
+        <v>0.6313382387161255</v>
       </c>
     </row>
     <row r="821">
@@ -9467,7 +9467,7 @@
         <v>0.6326384715376263</v>
       </c>
       <c r="C821" t="n">
-        <v>0.642278790473938</v>
+        <v>0.63031405210495</v>
       </c>
     </row>
     <row r="822">
@@ -9478,7 +9478,7 @@
         <v>0.623462801301926</v>
       </c>
       <c r="C822" t="n">
-        <v>0.6394766569137573</v>
+        <v>0.628058910369873</v>
       </c>
     </row>
     <row r="823">
@@ -9489,7 +9489,7 @@
         <v>0.6234824591367768</v>
       </c>
       <c r="C823" t="n">
-        <v>0.6376616358757019</v>
+        <v>0.6257840991020203</v>
       </c>
     </row>
     <row r="824">
@@ -9500,7 +9500,7 @@
         <v>0.6234629008241187</v>
       </c>
       <c r="C824" t="n">
-        <v>0.6360918283462524</v>
+        <v>0.6235542297363281</v>
       </c>
     </row>
     <row r="825">
@@ -9511,7 +9511,7 @@
         <v>0.6326404047494243</v>
       </c>
       <c r="C825" t="n">
-        <v>0.6369706988334656</v>
+        <v>0.6237018704414368</v>
       </c>
     </row>
     <row r="826">
@@ -9522,7 +9522,7 @@
         <v>0.6234602693436312</v>
       </c>
       <c r="C826" t="n">
-        <v>0.6361094117164612</v>
+        <v>0.6223465800285339</v>
       </c>
     </row>
     <row r="827">
@@ -9533,7 +9533,7 @@
         <v>0.6234618893018634</v>
       </c>
       <c r="C827" t="n">
-        <v>0.6350036859512329</v>
+        <v>0.6200477480888367</v>
       </c>
     </row>
     <row r="828">
@@ -9544,7 +9544,7 @@
         <v>0.6234422843195085</v>
       </c>
       <c r="C828" t="n">
-        <v>0.6336950659751892</v>
+        <v>0.618568480014801</v>
       </c>
     </row>
     <row r="829">
@@ -9555,7 +9555,7 @@
         <v>0.61427629869262</v>
       </c>
       <c r="C829" t="n">
-        <v>0.6311169862747192</v>
+        <v>0.6164405941963196</v>
       </c>
     </row>
     <row r="830">
@@ -9566,7 +9566,7 @@
         <v>0.6142620340909993</v>
       </c>
       <c r="C830" t="n">
-        <v>0.629040539264679</v>
+        <v>0.6141234636306763</v>
       </c>
     </row>
     <row r="831">
@@ -9577,7 +9577,7 @@
         <v>0.6142692956067187</v>
       </c>
       <c r="C831" t="n">
-        <v>0.6275532245635986</v>
+        <v>0.6125827431678772</v>
       </c>
     </row>
     <row r="832">
@@ -9588,7 +9588,7 @@
         <v>0.6051030360760193</v>
       </c>
       <c r="C832" t="n">
-        <v>0.6248137950897217</v>
+        <v>0.6098440289497375</v>
       </c>
     </row>
     <row r="833">
@@ -9599,7 +9599,7 @@
         <v>0.6051345970108618</v>
       </c>
       <c r="C833" t="n">
-        <v>0.6224638223648071</v>
+        <v>0.6067740321159363</v>
       </c>
     </row>
     <row r="834">
@@ -9610,7 +9610,7 @@
         <v>0.605134341602787</v>
       </c>
       <c r="C834" t="n">
-        <v>0.6205688714981079</v>
+        <v>0.6044456362724304</v>
       </c>
     </row>
     <row r="835">
@@ -9621,7 +9621,7 @@
         <v>0.6051457882894288</v>
       </c>
       <c r="C835" t="n">
-        <v>0.6196523904800415</v>
+        <v>0.6029772162437439</v>
       </c>
     </row>
     <row r="836">
@@ -9632,7 +9632,7 @@
         <v>0.6234064963446491</v>
       </c>
       <c r="C836" t="n">
-        <v>0.6233172416687012</v>
+        <v>0.6049028038978577</v>
       </c>
     </row>
     <row r="837">
@@ -9643,7 +9643,7 @@
         <v>0.6051363086964766</v>
       </c>
       <c r="C837" t="n">
-        <v>0.622947633266449</v>
+        <v>0.6058951020240784</v>
       </c>
     </row>
     <row r="838">
@@ -9654,7 +9654,7 @@
         <v>0.6051263416308483</v>
       </c>
       <c r="C838" t="n">
-        <v>0.62147057056427</v>
+        <v>0.6031240820884705</v>
       </c>
     </row>
     <row r="839">
@@ -9665,7 +9665,7 @@
         <v>0.5959741662036112</v>
       </c>
       <c r="C839" t="n">
-        <v>0.6169506907463074</v>
+        <v>0.5998735427856445</v>
       </c>
     </row>
     <row r="840">
@@ -9676,7 +9676,7 @@
         <v>0.5867963588134743</v>
       </c>
       <c r="C840" t="n">
-        <v>0.612095832824707</v>
+        <v>0.5956593155860901</v>
       </c>
     </row>
     <row r="841">
@@ -9687,7 +9687,7 @@
         <v>0.5867978469420885</v>
       </c>
       <c r="C841" t="n">
-        <v>0.6085903644561768</v>
+        <v>0.59168541431427</v>
       </c>
     </row>
     <row r="842">
@@ -9698,7 +9698,7 @@
         <v>0.586799275031245</v>
       </c>
       <c r="C842" t="n">
-        <v>0.6065258383750916</v>
+        <v>0.5890316963195801</v>
       </c>
     </row>
     <row r="843">
@@ -9709,7 +9709,7 @@
         <v>0.5776264884068614</v>
       </c>
       <c r="C843" t="n">
-        <v>0.6030446887016296</v>
+        <v>0.5856770873069763</v>
       </c>
     </row>
     <row r="844">
@@ -9720,7 +9720,7 @@
         <v>0.5776266167666274</v>
       </c>
       <c r="C844" t="n">
-        <v>0.5998575091362</v>
+        <v>0.5810765624046326</v>
       </c>
     </row>
     <row r="845">
@@ -9731,7 +9731,7 @@
         <v>0.5776237123192465</v>
       </c>
       <c r="C845" t="n">
-        <v>0.5972192883491516</v>
+        <v>0.5777754187583923</v>
       </c>
     </row>
     <row r="846">
@@ -9742,7 +9742,7 @@
         <v>0.5776298235750251</v>
       </c>
       <c r="C846" t="n">
-        <v>0.5957684516906738</v>
+        <v>0.5756672620773315</v>
       </c>
     </row>
     <row r="847">
@@ -9753,7 +9753,7 @@
         <v>0.5776252901015424</v>
       </c>
       <c r="C847" t="n">
-        <v>0.5948866605758667</v>
+        <v>0.5743878483772278</v>
       </c>
     </row>
     <row r="848">
@@ -9764,7 +9764,7 @@
         <v>0.5776190454937535</v>
       </c>
       <c r="C848" t="n">
-        <v>0.5941246151924133</v>
+        <v>0.573462188243866</v>
       </c>
     </row>
     <row r="849">
@@ -9775,7 +9775,7 @@
         <v>0.5684693338265903</v>
       </c>
       <c r="C849" t="n">
-        <v>0.5912523865699768</v>
+        <v>0.5717807412147522</v>
       </c>
     </row>
     <row r="850">
@@ -9786,7 +9786,7 @@
         <v>0.568464566891431</v>
       </c>
       <c r="C850" t="n">
-        <v>0.5886680483818054</v>
+        <v>0.568437397480011</v>
       </c>
     </row>
     <row r="851">
@@ -9797,7 +9797,7 @@
         <v>0.5592800435321883</v>
       </c>
       <c r="C851" t="n">
-        <v>0.5843051671981812</v>
+        <v>0.5653905272483826</v>
       </c>
     </row>
     <row r="852">
@@ -9808,7 +9808,7 @@
         <v>0.5593056020465628</v>
       </c>
       <c r="C852" t="n">
-        <v>0.5813260674476624</v>
+        <v>0.5614586472511292</v>
       </c>
     </row>
     <row r="853">
@@ -9819,7 +9819,7 @@
         <v>0.5501327765354509</v>
       </c>
       <c r="C853" t="n">
-        <v>0.5767691135406494</v>
+        <v>0.5580660104751587</v>
       </c>
     </row>
     <row r="854">
@@ -9830,7 +9830,7 @@
         <v>0.550123924352609</v>
       </c>
       <c r="C854" t="n">
-        <v>0.5733975172042847</v>
+        <v>0.5532040596008301</v>
       </c>
     </row>
     <row r="855">
@@ -9841,7 +9841,7 @@
         <v>0.5409695455574517</v>
       </c>
       <c r="C855" t="n">
-        <v>0.5682922005653381</v>
+        <v>0.5491535067558289</v>
       </c>
     </row>
     <row r="856">
@@ -9852,7 +9852,7 @@
         <v>0.5409453230619686</v>
       </c>
       <c r="C856" t="n">
-        <v>0.564483106136322</v>
+        <v>0.5442078113555908</v>
       </c>
     </row>
     <row r="857">
@@ -9863,7 +9863,7 @@
         <v>0.5501267273796409</v>
       </c>
       <c r="C857" t="n">
-        <v>0.5642643570899963</v>
+        <v>0.5419222116470337</v>
       </c>
     </row>
     <row r="858">
@@ -9874,7 +9874,7 @@
         <v>0.540979970041176</v>
       </c>
       <c r="C858" t="n">
-        <v>0.5624733567237854</v>
+        <v>0.5424467921257019</v>
       </c>
     </row>
     <row r="859">
@@ -9885,7 +9885,7 @@
         <v>0.5409639375070172</v>
       </c>
       <c r="C859" t="n">
-        <v>0.5606735944747925</v>
+        <v>0.5393828749656677</v>
       </c>
     </row>
     <row r="860">
@@ -9896,7 +9896,7 @@
         <v>0.5409695172832923</v>
       </c>
       <c r="C860" t="n">
-        <v>0.5586044788360596</v>
+        <v>0.5375425219535828</v>
       </c>
     </row>
     <row r="861">
@@ -9907,7 +9907,7 @@
         <v>0.5318074500734099</v>
       </c>
       <c r="C861" t="n">
-        <v>0.5550256371498108</v>
+        <v>0.5355945229530334</v>
       </c>
     </row>
     <row r="862">
@@ -9918,7 +9918,7 @@
         <v>0.5318134027419733</v>
       </c>
       <c r="C862" t="n">
-        <v>0.5521085262298584</v>
+        <v>0.5318669080734253</v>
       </c>
     </row>
     <row r="863">
@@ -9929,7 +9929,7 @@
         <v>0.5318538871407765</v>
       </c>
       <c r="C863" t="n">
-        <v>0.5500323176383972</v>
+        <v>0.5296536087989807</v>
       </c>
     </row>
     <row r="864">
@@ -9940,7 +9940,7 @@
         <v>0.5226858612176772</v>
       </c>
       <c r="C864" t="n">
-        <v>0.5463619232177734</v>
+        <v>0.527736485004425</v>
       </c>
     </row>
     <row r="865">
@@ -9951,7 +9951,7 @@
         <v>0.5226935731857321</v>
       </c>
       <c r="C865" t="n">
-        <v>0.5432631969451904</v>
+        <v>0.5236520767211914</v>
       </c>
     </row>
     <row r="866">
@@ -9962,7 +9962,7 @@
         <v>0.5409645745498681</v>
       </c>
       <c r="C866" t="n">
-        <v>0.5464493036270142</v>
+        <v>0.5227636098861694</v>
       </c>
     </row>
     <row r="867">
@@ -9973,7 +9973,7 @@
         <v>0.5226166394369435</v>
       </c>
       <c r="C867" t="n">
-        <v>0.5450735092163086</v>
+        <v>0.527363121509552</v>
       </c>
     </row>
     <row r="868">
@@ -9984,7 +9984,7 @@
         <v>0.5134472589599224</v>
       </c>
       <c r="C868" t="n">
-        <v>0.5402820706367493</v>
+        <v>0.5219775438308716</v>
       </c>
     </row>
     <row r="869">
@@ -9995,7 +9995,7 @@
         <v>0.5042729471453863</v>
       </c>
       <c r="C869" t="n">
-        <v>0.5319874286651611</v>
+        <v>0.5149814486503601</v>
       </c>
     </row>
     <row r="870">
@@ -10006,7 +10006,7 @@
         <v>0.5042807382424969</v>
       </c>
       <c r="C870" t="n">
-        <v>0.5263893604278564</v>
+        <v>0.5084952712059021</v>
       </c>
     </row>
     <row r="871">
@@ -10017,7 +10017,7 @@
         <v>0.5042852760884828</v>
       </c>
       <c r="C871" t="n">
-        <v>0.5232840776443481</v>
+        <v>0.5048918128013611</v>
       </c>
     </row>
     <row r="872">
@@ -10028,7 +10028,7 @@
         <v>0.4951016309226048</v>
       </c>
       <c r="C872" t="n">
-        <v>0.5191966891288757</v>
+        <v>0.5018808841705322</v>
       </c>
     </row>
     <row r="873">
@@ -10039,7 +10039,7 @@
         <v>0.4951004044964086</v>
       </c>
       <c r="C873" t="n">
-        <v>0.5154869556427002</v>
+        <v>0.4966801702976227</v>
       </c>
     </row>
     <row r="874">
@@ -10050,7 +10050,7 @@
         <v>0.4859338323799725</v>
       </c>
       <c r="C874" t="n">
-        <v>0.5097259283065796</v>
+        <v>0.4926508069038391</v>
       </c>
     </row>
     <row r="875">
@@ -10061,7 +10061,7 @@
         <v>0.4950898839428541</v>
       </c>
       <c r="C875" t="n">
-        <v>0.5079328417778015</v>
+        <v>0.487639844417572</v>
       </c>
     </row>
     <row r="876">
@@ -10072,7 +10072,7 @@
         <v>0.4950915698678707</v>
       </c>
       <c r="C876" t="n">
-        <v>0.5073564052581787</v>
+        <v>0.4878949820995331</v>
       </c>
     </row>
     <row r="877">
@@ -10083,7 +10083,7 @@
         <v>0.4859386800990216</v>
       </c>
       <c r="C877" t="n">
-        <v>0.5051298141479492</v>
+        <v>0.4872632622718811</v>
       </c>
     </row>
     <row r="878">
@@ -10094,7 +10094,7 @@
         <v>0.4859401705752845</v>
       </c>
       <c r="C878" t="n">
-        <v>0.5022327303886414</v>
+        <v>0.4832456707954407</v>
       </c>
     </row>
     <row r="879">
@@ -10105,7 +10105,7 @@
         <v>0.4767617868978288</v>
       </c>
       <c r="C879" t="n">
-        <v>0.4975134432315826</v>
+        <v>0.48027703166008</v>
       </c>
     </row>
     <row r="880">
@@ -10116,7 +10116,7 @@
         <v>0.4675988919084863</v>
       </c>
       <c r="C880" t="n">
-        <v>0.4919213950634003</v>
+        <v>0.4748909771442413</v>
       </c>
     </row>
     <row r="881">
@@ -10127,7 +10127,7 @@
         <v>0.4584569406311214</v>
       </c>
       <c r="C881" t="n">
-        <v>0.4854984283447266</v>
+        <v>0.4687131643295288</v>
       </c>
     </row>
     <row r="882">
@@ -10138,7 +10138,7 @@
         <v>0.4492782729539661</v>
       </c>
       <c r="C882" t="n">
-        <v>0.4786809086799622</v>
+        <v>0.4621180593967438</v>
       </c>
     </row>
     <row r="883">
@@ -10149,7 +10149,7 @@
         <v>0.4492525062351607</v>
       </c>
       <c r="C883" t="n">
-        <v>0.4732669293880463</v>
+        <v>0.4552801251411438</v>
       </c>
     </row>
     <row r="884">
@@ -10160,7 +10160,7 @@
         <v>0.4492844387006417</v>
       </c>
       <c r="C884" t="n">
-        <v>0.4692331850528717</v>
+        <v>0.4509069323539734</v>
       </c>
     </row>
     <row r="885">
@@ -10171,7 +10171,7 @@
         <v>0.4401027635864922</v>
       </c>
       <c r="C885" t="n">
-        <v>0.4640361666679382</v>
+        <v>0.4473479986190796</v>
       </c>
     </row>
     <row r="886">
@@ -10182,7 +10182,7 @@
         <v>0.4400967108683985</v>
       </c>
       <c r="C886" t="n">
-        <v>0.4593968391418457</v>
+        <v>0.4414779543876648</v>
       </c>
     </row>
     <row r="887">
@@ -10193,7 +10193,7 @@
         <v>0.4492746742667965</v>
       </c>
       <c r="C887" t="n">
-        <v>0.4577034711837769</v>
+        <v>0.4382312595844269</v>
       </c>
     </row>
     <row r="888">
@@ -10204,7 +10204,7 @@
         <v>0.4492709622876149</v>
       </c>
       <c r="C888" t="n">
-        <v>0.4574643075466156</v>
+        <v>0.4400228559970856</v>
       </c>
     </row>
     <row r="889">
@@ -10215,7 +10215,7 @@
         <v>0.4492558138497106</v>
       </c>
       <c r="C889" t="n">
-        <v>0.4577918350696564</v>
+        <v>0.4407915771007538</v>
       </c>
     </row>
     <row r="890">
@@ -10226,7 +10226,7 @@
         <v>0.4492467516476927</v>
       </c>
       <c r="C890" t="n">
-        <v>0.4575665891170502</v>
+        <v>0.4409167766571045</v>
       </c>
     </row>
     <row r="891">
@@ -10237,7 +10237,7 @@
         <v>0.4400983060856712</v>
       </c>
       <c r="C891" t="n">
-        <v>0.4549545347690582</v>
+        <v>0.4403916001319885</v>
       </c>
     </row>
     <row r="892">
@@ -10248,7 +10248,7 @@
         <v>0.4309255883842786</v>
       </c>
       <c r="C892" t="n">
-        <v>0.4504081308841705</v>
+        <v>0.4362038373947144</v>
       </c>
     </row>
     <row r="893">
@@ -10259,7 +10259,7 @@
         <v>0.4309362067886502</v>
       </c>
       <c r="C893" t="n">
-        <v>0.4467224478721619</v>
+        <v>0.4303569197654724</v>
       </c>
     </row>
     <row r="894">
@@ -10270,7 +10270,7 @@
         <v>0.4217499510665564</v>
       </c>
       <c r="C894" t="n">
-        <v>0.4425848424434662</v>
+        <v>0.4270307421684265</v>
       </c>
     </row>
     <row r="895">
@@ -10281,7 +10281,7 @@
         <v>0.4217726943832109</v>
       </c>
       <c r="C895" t="n">
-        <v>0.4394635856151581</v>
+        <v>0.4216639399528503</v>
       </c>
     </row>
     <row r="896">
@@ -10292,7 +10292,7 @@
         <v>0.4217754766547167</v>
       </c>
       <c r="C896" t="n">
-        <v>0.4365283846855164</v>
+        <v>0.4182173311710358</v>
       </c>
     </row>
     <row r="897">
@@ -10303,7 +10303,7 @@
         <v>0.4217666430648684</v>
       </c>
       <c r="C897" t="n">
-        <v>0.4342235326766968</v>
+        <v>0.4160503745079041</v>
       </c>
     </row>
     <row r="898">
@@ -10314,7 +10314,7 @@
         <v>0.4217666277740277</v>
       </c>
       <c r="C898" t="n">
-        <v>0.4324630796909332</v>
+        <v>0.4147582352161407</v>
       </c>
     </row>
     <row r="899">
@@ -10325,7 +10325,7 @@
         <v>0.4217908027942002</v>
       </c>
       <c r="C899" t="n">
-        <v>0.4311060905456543</v>
+        <v>0.413844496011734</v>
       </c>
     </row>
     <row r="900">
@@ -10336,7 +10336,7 @@
         <v>0.4217831852803645</v>
       </c>
       <c r="C900" t="n">
-        <v>0.4302491545677185</v>
+        <v>0.4132698178291321</v>
       </c>
     </row>
     <row r="901">
@@ -10347,7 +10347,7 @@
         <v>0.4217801832962892</v>
       </c>
       <c r="C901" t="n">
-        <v>0.4297461211681366</v>
+        <v>0.4130134284496307</v>
       </c>
     </row>
     <row r="902">
@@ -10358,7 +10358,7 @@
         <v>0.4217772093479888</v>
       </c>
       <c r="C902" t="n">
-        <v>0.4295322895050049</v>
+        <v>0.4128488898277283</v>
       </c>
     </row>
     <row r="903">
@@ -10369,7 +10369,7 @@
         <v>0.4217772100461474</v>
       </c>
       <c r="C903" t="n">
-        <v>0.4294807314872742</v>
+        <v>0.4128218591213226</v>
       </c>
     </row>
     <row r="904">
@@ -10380,7 +10380,7 @@
         <v>0.4126136826826999</v>
       </c>
       <c r="C904" t="n">
-        <v>0.4280223250389099</v>
+        <v>0.4124038219451904</v>
       </c>
     </row>
     <row r="905">
@@ -10391,7 +10391,7 @@
         <v>0.4126136589281122</v>
       </c>
       <c r="C905" t="n">
-        <v>0.4267798960208893</v>
+        <v>0.4093048274517059</v>
       </c>
     </row>
     <row r="906">
@@ -10402,7 +10402,7 @@
         <v>0.4126131392940915</v>
       </c>
       <c r="C906" t="n">
-        <v>0.4263535141944885</v>
+        <v>0.4075616300106049</v>
       </c>
     </row>
     <row r="907">
@@ -10413,7 +10413,7 @@
         <v>0.4034554070184471</v>
       </c>
       <c r="C907" t="n">
-        <v>0.4248031675815582</v>
+        <v>0.4065145552158356</v>
       </c>
     </row>
     <row r="908">
@@ -10424,7 +10424,7 @@
         <v>0.4034711331920823</v>
       </c>
       <c r="C908" t="n">
-        <v>0.4235036075115204</v>
+        <v>0.40300053358078</v>
       </c>
     </row>
     <row r="909">
@@ -10435,7 +10435,7 @@
         <v>0.40344712199475</v>
       </c>
       <c r="C909" t="n">
-        <v>0.4228408932685852</v>
+        <v>0.4008409380912781</v>
       </c>
     </row>
     <row r="910">
@@ -10446,7 +10446,7 @@
         <v>0.403502831477395</v>
       </c>
       <c r="C910" t="n">
-        <v>0.4223697781562805</v>
+        <v>0.3995911777019501</v>
       </c>
     </row>
     <row r="911">
@@ -10457,7 +10457,7 @@
         <v>0.3943266253328913</v>
       </c>
       <c r="C911" t="n">
-        <v>0.4207332134246826</v>
+        <v>0.3985489904880524</v>
       </c>
     </row>
     <row r="912">
@@ -10468,7 +10468,7 @@
         <v>0.39431966256955</v>
       </c>
       <c r="C912" t="n">
-        <v>0.4193490147590637</v>
+        <v>0.3948352038860321</v>
       </c>
     </row>
     <row r="913">
@@ -10479,7 +10479,7 @@
         <v>0.3943273280890934</v>
       </c>
       <c r="C913" t="n">
-        <v>0.4187160134315491</v>
+        <v>0.3925959467887878</v>
       </c>
     </row>
     <row r="914">
@@ -10490,7 +10490,7 @@
         <v>0.4401238422062453</v>
       </c>
       <c r="C914" t="n">
-        <v>0.428195059299469</v>
+        <v>0.3932316601276398</v>
       </c>
     </row>
     <row r="915">
@@ -10501,7 +10501,7 @@
         <v>0.4217603462200002</v>
       </c>
       <c r="C915" t="n">
-        <v>0.4313927590847015</v>
+        <v>0.4138541519641876</v>
       </c>
     </row>
     <row r="916">
@@ -10512,7 +10512,7 @@
         <v>0.4125970195007354</v>
       </c>
       <c r="C916" t="n">
-        <v>0.427839070558548</v>
+        <v>0.4124075174331665</v>
       </c>
     </row>
     <row r="917">
@@ -10523,7 +10523,7 @@
         <v>0.4034244693500231</v>
       </c>
       <c r="C917" t="n">
-        <v>0.4247430860996246</v>
+        <v>0.407762885093689</v>
       </c>
     </row>
     <row r="918">
@@ -10534,7 +10534,7 @@
         <v>0.3942384481181277</v>
       </c>
       <c r="C918" t="n">
-        <v>0.4219362437725067</v>
+        <v>0.4027399122714996</v>
       </c>
     </row>
     <row r="919">
@@ -10545,7 +10545,7 @@
         <v>0.3942759551940641</v>
       </c>
       <c r="C919" t="n">
-        <v>0.420870453119278</v>
+        <v>0.3978797495365143</v>
       </c>
     </row>
     <row r="920">
@@ -10556,7 +10556,7 @@
         <v>0.3850959654578245</v>
       </c>
       <c r="C920" t="n">
-        <v>0.4195104241371155</v>
+        <v>0.3951782882213593</v>
       </c>
     </row>
     <row r="921">
@@ -10567,7 +10567,7 @@
         <v>0.3850989490022936</v>
       </c>
       <c r="C921" t="n">
-        <v>0.4177816212177277</v>
+        <v>0.390919417142868</v>
       </c>
     </row>
     <row r="922">
@@ -10578,7 +10578,7 @@
         <v>0.3850988959558174</v>
       </c>
       <c r="C922" t="n">
-        <v>0.4163580536842346</v>
+        <v>0.3879310786724091</v>
       </c>
     </row>
     <row r="923">
@@ -10589,7 +10589,7 @@
         <v>0.3759278766957057</v>
       </c>
       <c r="C923" t="n">
-        <v>0.4120109975337982</v>
+        <v>0.3855849802494049</v>
       </c>
     </row>
     <row r="924">
@@ -10600,7 +10600,7 @@
         <v>0.3759200688045736</v>
       </c>
       <c r="C924" t="n">
-        <v>0.406339704990387</v>
+        <v>0.3806683421134949</v>
       </c>
     </row>
     <row r="925">
@@ -10611,7 +10611,7 @@
         <v>0.375930866967552</v>
       </c>
       <c r="C925" t="n">
-        <v>0.4036072194576263</v>
+        <v>0.3779326379299164</v>
       </c>
     </row>
     <row r="926">
@@ -10622,7 +10622,7 @@
         <v>0.3759142734672357</v>
       </c>
       <c r="C926" t="n">
-        <v>0.4013073146343231</v>
+        <v>0.3763956725597382</v>
       </c>
     </row>
     <row r="927">
@@ -10633,7 +10633,7 @@
         <v>0.3759324464601041</v>
       </c>
       <c r="C927" t="n">
-        <v>0.400224894285202</v>
+        <v>0.3755848109722137</v>
       </c>
     </row>
     <row r="928">
@@ -10644,7 +10644,7 @@
         <v>0.3759324090817933</v>
       </c>
       <c r="C928" t="n">
-        <v>0.3994371294975281</v>
+        <v>0.3750093579292297</v>
       </c>
     </row>
     <row r="929">
@@ -10655,7 +10655,7 @@
         <v>0.3667583380482845</v>
       </c>
       <c r="C929" t="n">
-        <v>0.3949525654315948</v>
+        <v>0.3742664456367493</v>
       </c>
     </row>
     <row r="930">
@@ -10666,7 +10666,7 @@
         <v>0.375939963300485</v>
       </c>
       <c r="C930" t="n">
-        <v>0.3962976932525635</v>
+        <v>0.3710844218730927</v>
       </c>
     </row>
     <row r="931">
@@ -10677,7 +10677,7 @@
         <v>0.3759188788898364</v>
       </c>
       <c r="C931" t="n">
-        <v>0.3977215588092804</v>
+        <v>0.3726933598518372</v>
       </c>
     </row>
     <row r="932">
@@ -10688,7 +10688,7 @@
         <v>0.3575750781023559</v>
       </c>
       <c r="C932" t="n">
-        <v>0.390417218208313</v>
+        <v>0.3729475140571594</v>
       </c>
     </row>
     <row r="933">
@@ -10699,7 +10699,7 @@
         <v>0.3575902156229124</v>
       </c>
       <c r="C933" t="n">
-        <v>0.3854471743106842</v>
+        <v>0.3669957220554352</v>
       </c>
     </row>
     <row r="934">
@@ -10710,7 +10710,7 @@
         <v>0.3484206789424866</v>
       </c>
       <c r="C934" t="n">
-        <v>0.3799391388893127</v>
+        <v>0.3632562756538391</v>
       </c>
     </row>
     <row r="935">
@@ -10721,7 +10721,7 @@
         <v>0.3575782092820334</v>
       </c>
       <c r="C935" t="n">
-        <v>0.3803487718105316</v>
+        <v>0.3589349389076233</v>
       </c>
     </row>
     <row r="936">
@@ -10732,7 +10732,7 @@
         <v>0.3575933225008658</v>
       </c>
       <c r="C936" t="n">
-        <v>0.3807767331600189</v>
+        <v>0.3595403730869293</v>
       </c>
     </row>
     <row r="937">
@@ -10743,7 +10743,7 @@
         <v>0.3575764879641774</v>
       </c>
       <c r="C937" t="n">
-        <v>0.3799517154693604</v>
+        <v>0.35966557264328</v>
       </c>
     </row>
     <row r="938">
@@ -10754,7 +10754,7 @@
         <v>0.3575872861689309</v>
       </c>
       <c r="C938" t="n">
-        <v>0.3791171312332153</v>
+        <v>0.3591410517692566</v>
       </c>
     </row>
     <row r="939">
@@ -10765,7 +10765,7 @@
         <v>0.3575827687402739</v>
       </c>
       <c r="C939" t="n">
-        <v>0.3787152767181396</v>
+        <v>0.3586897850036621</v>
       </c>
     </row>
     <row r="940">
@@ -10776,7 +10776,7 @@
         <v>0.3575857320929502</v>
       </c>
       <c r="C940" t="n">
-        <v>0.378634124994278</v>
+        <v>0.3584039509296417</v>
       </c>
     </row>
     <row r="941">
@@ -10787,7 +10787,7 @@
         <v>0.3667507237648504</v>
       </c>
       <c r="C941" t="n">
-        <v>0.3830902576446533</v>
+        <v>0.3585596680641174</v>
       </c>
     </row>
     <row r="942">
@@ -10798,7 +10798,7 @@
         <v>0.3667431223369668</v>
       </c>
       <c r="C942" t="n">
-        <v>0.3857409060001373</v>
+        <v>0.3624786734580994</v>
       </c>
     </row>
     <row r="943">
@@ -10809,7 +10809,7 @@
         <v>0.3575692213454335</v>
       </c>
       <c r="C943" t="n">
-        <v>0.3824256062507629</v>
+        <v>0.3638393878936768</v>
       </c>
     </row>
     <row r="944">
@@ -10820,7 +10820,7 @@
         <v>0.3484148072134434</v>
       </c>
       <c r="C944" t="n">
-        <v>0.3765630424022675</v>
+        <v>0.3609041273593903</v>
       </c>
     </row>
     <row r="945">
@@ -10831,7 +10831,7 @@
         <v>0.348411735435092</v>
       </c>
       <c r="C945" t="n">
-        <v>0.3737017810344696</v>
+        <v>0.3563652038574219</v>
       </c>
     </row>
     <row r="946">
@@ -10842,7 +10842,7 @@
         <v>0.3484102473021482</v>
       </c>
       <c r="C946" t="n">
-        <v>0.3727917969226837</v>
+        <v>0.3542879521846771</v>
       </c>
     </row>
     <row r="947">
@@ -10853,7 +10853,7 @@
         <v>0.3392353040630132</v>
       </c>
       <c r="C947" t="n">
-        <v>0.3686641454696655</v>
+        <v>0.3530267179012299</v>
       </c>
     </row>
     <row r="948">
@@ -10864,7 +10864,7 @@
         <v>0.3392421759079216</v>
       </c>
       <c r="C948" t="n">
-        <v>0.3655169606208801</v>
+        <v>0.3490961790084839</v>
       </c>
     </row>
     <row r="949">
@@ -10875,7 +10875,7 @@
         <v>0.3300981845149772</v>
       </c>
       <c r="C949" t="n">
-        <v>0.360306441783905</v>
+        <v>0.3463823199272156</v>
       </c>
     </row>
     <row r="950">
@@ -10886,7 +10886,7 @@
         <v>0.3208966998152485</v>
       </c>
       <c r="C950" t="n">
-        <v>0.3538188338279724</v>
+        <v>0.3415215909481049</v>
       </c>
     </row>
     <row r="951">
@@ -10897,7 +10897,7 @@
         <v>0.3209105334001126</v>
       </c>
       <c r="C951" t="n">
-        <v>0.3500360548496246</v>
+        <v>0.3357436954975128</v>
       </c>
     </row>
     <row r="952">
@@ -10908,7 +10908,7 @@
         <v>0.3209149922425589</v>
       </c>
       <c r="C952" t="n">
-        <v>0.3479099273681641</v>
+        <v>0.3324152529239655</v>
       </c>
     </row>
     <row r="953">
@@ -10919,7 +10919,7 @@
         <v>0.3209044914245003</v>
       </c>
       <c r="C953" t="n">
-        <v>0.3460958003997803</v>
+        <v>0.3305444121360779</v>
       </c>
     </row>
     <row r="954">
@@ -10930,7 +10930,7 @@
         <v>0.320910302072754</v>
       </c>
       <c r="C954" t="n">
-        <v>0.3445144891738892</v>
+        <v>0.3291295766830444</v>
       </c>
     </row>
     <row r="955">
@@ -10941,7 +10941,7 @@
         <v>0.3209059313560048</v>
       </c>
       <c r="C955" t="n">
-        <v>0.3432587385177612</v>
+        <v>0.3281018435955048</v>
       </c>
     </row>
     <row r="956">
@@ -10952,7 +10952,7 @@
         <v>0.3117379325989945</v>
       </c>
       <c r="C956" t="n">
-        <v>0.3392556607723236</v>
+        <v>0.3270195722579956</v>
       </c>
     </row>
     <row r="957">
@@ -10963,7 +10963,7 @@
         <v>0.2108953153121099</v>
       </c>
       <c r="C957" t="n">
-        <v>0.3219557404518127</v>
+        <v>0.3212398290634155</v>
       </c>
     </row>
     <row r="958">
@@ -10974,7 +10974,7 @@
         <v>0.3117454688192334</v>
       </c>
       <c r="C958" t="n">
-        <v>0.3296025693416595</v>
+        <v>0.2951394021511078</v>
       </c>
     </row>
     <row r="959">
@@ -10985,7 +10985,7 @@
         <v>0.3117663200591391</v>
       </c>
       <c r="C959" t="n">
-        <v>0.3331178426742554</v>
+        <v>0.3103836178779602</v>
       </c>
     </row>
     <row r="960">
@@ -10996,7 +10996,7 @@
         <v>0.3025960263888492</v>
       </c>
       <c r="C960" t="n">
-        <v>0.3291070163249969</v>
+        <v>0.3156955540180206</v>
       </c>
     </row>
     <row r="961">
@@ -11007,7 +11007,7 @@
         <v>0.2659218283522515</v>
       </c>
       <c r="C961" t="n">
-        <v>0.3160690367221832</v>
+        <v>0.3115188777446747</v>
       </c>
     </row>
     <row r="962">
@@ -11018,7 +11018,7 @@
         <v>0.2383935406804695</v>
       </c>
       <c r="C962" t="n">
-        <v>0.3028929829597473</v>
+        <v>0.2914332151412964</v>
       </c>
     </row>
     <row r="963">
@@ -11029,7 +11029,7 @@
         <v>0.2384071514147957</v>
       </c>
       <c r="C963" t="n">
-        <v>0.2968980967998505</v>
+        <v>0.261771023273468</v>
       </c>
     </row>
     <row r="964">
@@ -11040,7 +11040,7 @@
         <v>0.2292330545547838</v>
       </c>
       <c r="C964" t="n">
-        <v>0.2912132740020752</v>
+        <v>0.2459374517202377</v>
       </c>
     </row>
     <row r="965">
@@ -11051,7 +11051,7 @@
         <v>0.2292391636441838</v>
       </c>
       <c r="C965" t="n">
-        <v>0.2846864759922028</v>
+        <v>0.213292732834816</v>
       </c>
     </row>
     <row r="966">
@@ -11062,7 +11062,7 @@
         <v>0.2200527104874664</v>
       </c>
       <c r="C966" t="n">
-        <v>0.2725739181041718</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="967">
@@ -11073,7 +11073,7 @@
         <v>0.220057148931652</v>
       </c>
       <c r="C967" t="n">
-        <v>0.2606604099273682</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="968">
@@ -11084,7 +11084,7 @@
         <v>0.2108961281727912</v>
       </c>
       <c r="C968" t="n">
-        <v>0.248352587223053</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="969">
@@ -11095,7 +11095,7 @@
         <v>0.210898458819625</v>
       </c>
       <c r="C969" t="n">
-        <v>0.2411885410547256</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="970">
@@ -11106,7 +11106,7 @@
         <v>0.2017348408020058</v>
       </c>
       <c r="C970" t="n">
-        <v>0.23307965695858</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="971">
@@ -11117,7 +11117,7 @@
         <v>0.2017183447286864</v>
       </c>
       <c r="C971" t="n">
-        <v>0.22683085501194</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="972">
@@ -11128,7 +11128,7 @@
         <v>0.2017212791954309</v>
       </c>
       <c r="C972" t="n">
-        <v>0.222129762172699</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
     <row r="973">
@@ -11139,7 +11139,7 @@
         <v>0.2017084666070867</v>
       </c>
       <c r="C973" t="n">
-        <v>0.219508096575737</v>
+        <v>0.1804719567298889</v>
       </c>
     </row>
   </sheetData>
